--- a/BackTest/2019-10-27 BackTest VALOR.xlsx
+++ b/BackTest/2019-10-27 BackTest VALOR.xlsx
@@ -766,13 +766,17 @@
         <v>507.3333333333333</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>509</v>
+      </c>
+      <c r="K11" t="n">
+        <v>509</v>
+      </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
@@ -801,14 +805,22 @@
         <v>510.6666666666667</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>511</v>
+      </c>
+      <c r="K12" t="n">
+        <v>509</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -836,14 +848,22 @@
         <v>515</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>512</v>
+      </c>
+      <c r="K13" t="n">
+        <v>509</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -1469,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1956,17 +1976,13 @@
         <v>497.3333333333333</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>501</v>
-      </c>
-      <c r="K45" t="n">
-        <v>501</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
@@ -1995,22 +2011,14 @@
         <v>497</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>496</v>
-      </c>
-      <c r="K46" t="n">
-        <v>501</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2038,22 +2046,14 @@
         <v>497.3333333333333</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>497</v>
-      </c>
-      <c r="K47" t="n">
-        <v>501</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2081,22 +2081,14 @@
         <v>496</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>498</v>
-      </c>
-      <c r="K48" t="n">
-        <v>501</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2124,22 +2116,14 @@
         <v>497</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>497</v>
-      </c>
-      <c r="K49" t="n">
-        <v>501</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2167,22 +2151,14 @@
         <v>497.6666666666667</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>499</v>
-      </c>
-      <c r="K50" t="n">
-        <v>501</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2216,16 +2192,12 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K51" t="n">
-        <v>501</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2259,14 +2231,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K52" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M52" t="n">
@@ -2296,16 +2268,14 @@
         <v>502.6666666666667</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>506</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2339,16 +2309,14 @@
         <v>503.3333333333333</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>506</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2382,16 +2350,14 @@
         <v>504.3333333333333</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>507</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2425,16 +2391,14 @@
         <v>507</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>506</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2468,16 +2432,14 @@
         <v>509</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>507</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2511,16 +2473,14 @@
         <v>512.3333333333334</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>516</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2554,16 +2514,14 @@
         <v>509.3333333333333</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>505</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2604,7 +2562,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2645,7 +2603,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2686,7 +2644,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2720,16 +2678,14 @@
         <v>507</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>507</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2770,7 +2726,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -2811,7 +2767,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -2852,7 +2808,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -2893,7 +2849,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -2934,7 +2890,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -2975,7 +2931,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3016,7 +2972,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3057,7 +3013,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3098,7 +3054,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3139,7 +3095,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3180,7 +3136,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3221,7 +3177,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3262,7 +3218,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3303,7 +3259,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3337,16 +3293,14 @@
         <v>505</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>507</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3387,7 +3341,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3428,7 +3382,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3469,7 +3423,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3503,16 +3457,14 @@
         <v>505.6666666666667</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>507</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3553,7 +3505,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3594,7 +3546,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3635,7 +3587,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3676,7 +3628,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3717,7 +3669,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3758,7 +3710,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3799,7 +3751,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -3840,7 +3792,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -3881,7 +3833,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -3922,7 +3874,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -3963,7 +3915,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4004,7 +3956,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4045,7 +3997,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4086,7 +4038,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4127,7 +4079,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4168,7 +4120,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4209,7 +4161,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4250,7 +4202,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4291,7 +4243,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4332,7 +4284,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4373,7 +4325,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4414,7 +4366,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4455,7 +4407,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4496,7 +4448,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4530,16 +4482,14 @@
         <v>504</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>503</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4580,7 +4530,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4614,16 +4564,14 @@
         <v>505.6666666666667</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>507</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4657,16 +4605,14 @@
         <v>508</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>508</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4707,7 +4653,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4748,7 +4694,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4789,7 +4735,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4830,7 +4776,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4871,7 +4817,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -4912,7 +4858,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -4953,7 +4899,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -4994,7 +4940,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -5035,7 +4981,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -5076,7 +5022,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -5117,7 +5063,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5154,19 +5100,19 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>1</v>
+        <v>1.011032064128257</v>
       </c>
     </row>
     <row r="123">
@@ -5198,14 +5144,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>501</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5239,14 +5179,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>501</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5280,14 +5214,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>501</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5321,14 +5249,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>501</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5359,17 +5281,11 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>501</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5400,17 +5316,11 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>501</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5441,17 +5351,11 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>501</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5482,17 +5386,11 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>501</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5526,14 +5424,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>501</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5567,14 +5459,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>501</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5608,14 +5494,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>501</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5649,14 +5529,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>501</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5687,19 +5561,13 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>501</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
-        <v>1.076836327345309</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -5728,7 +5596,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -5798,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -5833,7 +5701,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -5868,7 +5736,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
@@ -5903,7 +5771,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
@@ -5973,7 +5841,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
@@ -6008,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
@@ -6043,7 +5911,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
@@ -6113,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
@@ -6148,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
@@ -6183,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
@@ -6253,7 +6121,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>

--- a/BackTest/2019-10-27 BackTest VALOR.xlsx
+++ b/BackTest/2019-10-27 BackTest VALOR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M153"/>
+  <dimension ref="A1:M154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C2" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D2" t="n">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="E2" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F2" t="n">
-        <v>2403.6272</v>
+        <v>1562.49</v>
       </c>
       <c r="G2" t="n">
-        <v>502.6666666666667</v>
+        <v>519.75</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>501</v>
       </c>
       <c r="F3" t="n">
-        <v>14.9625</v>
+        <v>2403.6272</v>
       </c>
       <c r="G3" t="n">
-        <v>501.3333333333333</v>
+        <v>519.3</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>501</v>
       </c>
       <c r="F4" t="n">
-        <v>1171.3651</v>
+        <v>14.9625</v>
       </c>
       <c r="G4" t="n">
-        <v>501</v>
+        <v>518.4</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>501</v>
       </c>
       <c r="F5" t="n">
-        <v>181.2113</v>
+        <v>1171.3651</v>
       </c>
       <c r="G5" t="n">
-        <v>501</v>
+        <v>517.8666666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>501</v>
       </c>
       <c r="F6" t="n">
-        <v>1029.1667</v>
+        <v>181.2113</v>
       </c>
       <c r="G6" t="n">
-        <v>501</v>
+        <v>517.3</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C7" t="n">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="D7" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E7" t="n">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="F7" t="n">
-        <v>712.1743</v>
+        <v>1029.1667</v>
       </c>
       <c r="G7" t="n">
-        <v>500</v>
+        <v>516.7166666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,32 +643,38 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C8" t="n">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D8" t="n">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E8" t="n">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F8" t="n">
-        <v>1.4721</v>
+        <v>712.1743</v>
       </c>
       <c r="G8" t="n">
-        <v>500.3333333333333</v>
+        <v>516.1833333333333</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>501</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,10 +696,10 @@
         <v>502</v>
       </c>
       <c r="F9" t="n">
-        <v>3168.5279</v>
+        <v>1.4721</v>
       </c>
       <c r="G9" t="n">
-        <v>500.6666666666667</v>
+        <v>515.85</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -703,7 +709,11 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -713,22 +723,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="C10" t="n">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="D10" t="n">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="E10" t="n">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F10" t="n">
-        <v>140.2809</v>
+        <v>3168.5279</v>
       </c>
       <c r="G10" t="n">
-        <v>504.3333333333333</v>
+        <v>515.5833333333334</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -738,7 +748,11 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -748,36 +762,36 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C11" t="n">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D11" t="n">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E11" t="n">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F11" t="n">
-        <v>1.3015</v>
+        <v>140.2809</v>
       </c>
       <c r="G11" t="n">
-        <v>507.3333333333333</v>
+        <v>515.4333333333333</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>509</v>
-      </c>
-      <c r="K11" t="n">
-        <v>509</v>
-      </c>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -790,35 +804,31 @@
         <v>511</v>
       </c>
       <c r="C12" t="n">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D12" t="n">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E12" t="n">
         <v>511</v>
       </c>
       <c r="F12" t="n">
-        <v>531.8034</v>
+        <v>1.3015</v>
       </c>
       <c r="G12" t="n">
-        <v>510.6666666666667</v>
+        <v>515.3333333333334</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>511</v>
-      </c>
-      <c r="K12" t="n">
-        <v>509</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M12" t="n">
@@ -830,38 +840,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="C13" t="n">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="D13" t="n">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="E13" t="n">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="F13" t="n">
-        <v>2.9315</v>
+        <v>531.8034</v>
       </c>
       <c r="G13" t="n">
-        <v>515</v>
+        <v>515.1333333333333</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>512</v>
-      </c>
-      <c r="K13" t="n">
-        <v>509</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M13" t="n">
@@ -873,22 +879,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="C14" t="n">
-        <v>506</v>
+        <v>522</v>
       </c>
       <c r="D14" t="n">
-        <v>506</v>
+        <v>522</v>
       </c>
       <c r="E14" t="n">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="F14" t="n">
-        <v>142.1985</v>
+        <v>2.9315</v>
       </c>
       <c r="G14" t="n">
-        <v>513.3333333333334</v>
+        <v>515.2333333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -898,7 +904,11 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -908,22 +918,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C15" t="n">
         <v>506</v>
       </c>
       <c r="D15" t="n">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E15" t="n">
         <v>506</v>
       </c>
       <c r="F15" t="n">
-        <v>220.1315</v>
+        <v>142.1985</v>
       </c>
       <c r="G15" t="n">
-        <v>511.3333333333333</v>
+        <v>514.8833333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -933,7 +943,11 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -943,22 +957,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C16" t="n">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D16" t="n">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E16" t="n">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F16" t="n">
-        <v>301.3715</v>
+        <v>220.1315</v>
       </c>
       <c r="G16" t="n">
-        <v>505.3333333333333</v>
+        <v>514.05</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -968,7 +982,11 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -981,19 +999,19 @@
         <v>505</v>
       </c>
       <c r="C17" t="n">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="D17" t="n">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="E17" t="n">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F17" t="n">
-        <v>4681.4019</v>
+        <v>301.3715</v>
       </c>
       <c r="G17" t="n">
-        <v>509.6666666666667</v>
+        <v>513.55</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1003,7 +1021,11 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1013,7 +1035,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C18" t="n">
         <v>519</v>
@@ -1025,10 +1047,10 @@
         <v>502</v>
       </c>
       <c r="F18" t="n">
-        <v>2.1213</v>
+        <v>4681.4019</v>
       </c>
       <c r="G18" t="n">
-        <v>514</v>
+        <v>513.3</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1038,7 +1060,11 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1048,22 +1074,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C19" t="n">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="D19" t="n">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="E19" t="n">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F19" t="n">
-        <v>321.9065</v>
+        <v>2.1213</v>
       </c>
       <c r="G19" t="n">
-        <v>514.3333333333334</v>
+        <v>513.1333333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1073,7 +1099,11 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1083,22 +1113,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="C20" t="n">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="D20" t="n">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="E20" t="n">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="F20" t="n">
-        <v>1005.698868773946</v>
+        <v>321.9065</v>
       </c>
       <c r="G20" t="n">
-        <v>515.3333333333334</v>
+        <v>512.6833333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1108,7 +1138,11 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1118,22 +1152,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C21" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D21" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E21" t="n">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F21" t="n">
-        <v>313.5556</v>
+        <v>1005.698868773946</v>
       </c>
       <c r="G21" t="n">
-        <v>516</v>
+        <v>512.5333333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1143,7 +1177,11 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1153,22 +1191,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C22" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D22" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E22" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F22" t="n">
-        <v>397.6143</v>
+        <v>313.5556</v>
       </c>
       <c r="G22" t="n">
-        <v>521</v>
+        <v>512.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1178,7 +1216,11 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1200,10 +1242,10 @@
         <v>520</v>
       </c>
       <c r="F23" t="n">
-        <v>602.3857</v>
+        <v>397.6143</v>
       </c>
       <c r="G23" t="n">
-        <v>520.3333333333334</v>
+        <v>512.0666666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1213,7 +1255,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1223,22 +1269,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C24" t="n">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D24" t="n">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E24" t="n">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F24" t="n">
-        <v>1.1489</v>
+        <v>602.3857</v>
       </c>
       <c r="G24" t="n">
-        <v>520.3333333333334</v>
+        <v>511.95</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1248,7 +1294,11 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1258,22 +1308,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="C25" t="n">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="D25" t="n">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="E25" t="n">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="F25" t="n">
-        <v>175.3855</v>
+        <v>1.1489</v>
       </c>
       <c r="G25" t="n">
-        <v>518</v>
+        <v>511.85</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1283,7 +1333,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1293,22 +1347,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C26" t="n">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D26" t="n">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="E26" t="n">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F26" t="n">
-        <v>19.4459</v>
+        <v>175.3855</v>
       </c>
       <c r="G26" t="n">
-        <v>515.3333333333334</v>
+        <v>511.6833333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1318,7 +1372,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1340,45 +1398,47 @@
         <v>512</v>
       </c>
       <c r="F27" t="n">
-        <v>56.0694</v>
+        <v>19.4459</v>
       </c>
       <c r="G27" t="n">
-        <v>512.3333333333334</v>
+        <v>511.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="C28" t="n">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="D28" t="n">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="E28" t="n">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="F28" t="n">
-        <v>110.971</v>
+        <v>56.0694</v>
       </c>
       <c r="G28" t="n">
-        <v>514.6666666666666</v>
+        <v>511.35</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,10 +1470,10 @@
         <v>520</v>
       </c>
       <c r="F29" t="n">
-        <v>1353.0187</v>
+        <v>110.971</v>
       </c>
       <c r="G29" t="n">
-        <v>517.3333333333334</v>
+        <v>511.3166666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1445,10 +1505,10 @@
         <v>520</v>
       </c>
       <c r="F30" t="n">
-        <v>238.8468</v>
+        <v>1353.0187</v>
       </c>
       <c r="G30" t="n">
-        <v>520</v>
+        <v>511.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1468,28 +1528,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C31" t="n">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D31" t="n">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E31" t="n">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F31" t="n">
-        <v>2.3262</v>
+        <v>238.8468</v>
       </c>
       <c r="G31" t="n">
-        <v>520.3333333333334</v>
+        <v>511.4833333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1503,22 +1563,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C32" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D32" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E32" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F32" t="n">
-        <v>61.1532</v>
+        <v>2.3262</v>
       </c>
       <c r="G32" t="n">
-        <v>520.3333333333334</v>
+        <v>511.6166666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1538,22 +1598,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="C33" t="n">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="D33" t="n">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="E33" t="n">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="F33" t="n">
-        <v>1664.0758</v>
+        <v>61.1532</v>
       </c>
       <c r="G33" t="n">
-        <v>517.6666666666666</v>
+        <v>511.7333333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1573,22 +1633,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C34" t="n">
         <v>512</v>
       </c>
       <c r="D34" t="n">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E34" t="n">
         <v>512</v>
       </c>
       <c r="F34" t="n">
-        <v>741.9627</v>
+        <v>1664.0758</v>
       </c>
       <c r="G34" t="n">
-        <v>514.6666666666666</v>
+        <v>511.75</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1608,22 +1668,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D35" t="n">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E35" t="n">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="F35" t="n">
-        <v>3710.3173</v>
+        <v>741.9627</v>
       </c>
       <c r="G35" t="n">
-        <v>511</v>
+        <v>511.7666666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1643,22 +1703,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C36" t="n">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="D36" t="n">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="E36" t="n">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="F36" t="n">
-        <v>301.3675</v>
+        <v>3710.3173</v>
       </c>
       <c r="G36" t="n">
-        <v>508.6666666666667</v>
+        <v>511.7333333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1678,22 +1738,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C37" t="n">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D37" t="n">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="E37" t="n">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F37" t="n">
-        <v>519.9666</v>
+        <v>301.3675</v>
       </c>
       <c r="G37" t="n">
-        <v>505.6666666666667</v>
+        <v>511.6333333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1713,22 +1773,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C38" t="n">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="D38" t="n">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="E38" t="n">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="F38" t="n">
-        <v>7423.8066</v>
+        <v>519.9666</v>
       </c>
       <c r="G38" t="n">
-        <v>502.6666666666667</v>
+        <v>511.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1760,10 +1820,10 @@
         <v>500</v>
       </c>
       <c r="F39" t="n">
-        <v>33.2331</v>
+        <v>7423.8066</v>
       </c>
       <c r="G39" t="n">
-        <v>501</v>
+        <v>511.3166666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1783,22 +1843,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C40" t="n">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="D40" t="n">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E40" t="n">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="F40" t="n">
-        <v>3472.5643</v>
+        <v>33.2331</v>
       </c>
       <c r="G40" t="n">
-        <v>498</v>
+        <v>510.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1818,22 +1878,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C41" t="n">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D41" t="n">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="E41" t="n">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F41" t="n">
-        <v>103.4322</v>
+        <v>3472.5643</v>
       </c>
       <c r="G41" t="n">
-        <v>496.3333333333333</v>
+        <v>510.6166666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1865,10 +1925,10 @@
         <v>495</v>
       </c>
       <c r="F42" t="n">
-        <v>3075.0746</v>
+        <v>103.4322</v>
       </c>
       <c r="G42" t="n">
-        <v>494.6666666666667</v>
+        <v>510.1166666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1888,22 +1948,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C43" t="n">
         <v>495</v>
       </c>
       <c r="D43" t="n">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E43" t="n">
         <v>495</v>
       </c>
       <c r="F43" t="n">
-        <v>65.50490000000001</v>
+        <v>3075.0746</v>
       </c>
       <c r="G43" t="n">
-        <v>495</v>
+        <v>509.6166666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1926,19 +1986,19 @@
         <v>496</v>
       </c>
       <c r="C44" t="n">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D44" t="n">
         <v>496</v>
       </c>
       <c r="E44" t="n">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F44" t="n">
-        <v>415.3717</v>
+        <v>65.50490000000001</v>
       </c>
       <c r="G44" t="n">
-        <v>495.3333333333333</v>
+        <v>509.35</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1958,22 +2018,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C45" t="n">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D45" t="n">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="E45" t="n">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F45" t="n">
-        <v>1.8143</v>
+        <v>415.3717</v>
       </c>
       <c r="G45" t="n">
-        <v>497.3333333333333</v>
+        <v>509.1166666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1993,22 +2053,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C46" t="n">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="D46" t="n">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="E46" t="n">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="F46" t="n">
-        <v>1305.7472</v>
+        <v>1.8143</v>
       </c>
       <c r="G46" t="n">
-        <v>497</v>
+        <v>509.0333333333334</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2028,22 +2088,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C47" t="n">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D47" t="n">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E47" t="n">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F47" t="n">
-        <v>2711.5455</v>
+        <v>1305.7472</v>
       </c>
       <c r="G47" t="n">
-        <v>497.3333333333333</v>
+        <v>508.7666666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2063,22 +2123,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C48" t="n">
         <v>497</v>
       </c>
       <c r="D48" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E48" t="n">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F48" t="n">
-        <v>4694.4813</v>
+        <v>2711.5455</v>
       </c>
       <c r="G48" t="n">
-        <v>496</v>
+        <v>508.6166666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2098,22 +2158,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C49" t="n">
         <v>497</v>
       </c>
       <c r="D49" t="n">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E49" t="n">
         <v>497</v>
       </c>
       <c r="F49" t="n">
-        <v>1442.3912</v>
+        <v>4694.4813</v>
       </c>
       <c r="G49" t="n">
-        <v>497</v>
+        <v>508.4666666666666</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2133,22 +2193,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C50" t="n">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D50" t="n">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E50" t="n">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>1442.3912</v>
       </c>
       <c r="G50" t="n">
-        <v>497.6666666666667</v>
+        <v>508.3333333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2168,35 +2228,31 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C51" t="n">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D51" t="n">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E51" t="n">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F51" t="n">
-        <v>146.084</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>498</v>
+        <v>508.2166666666666</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>499</v>
-      </c>
-      <c r="K51" t="n">
-        <v>499</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
@@ -2207,40 +2263,32 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C52" t="n">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D52" t="n">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="E52" t="n">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F52" t="n">
-        <v>98.2816</v>
+        <v>146.084</v>
       </c>
       <c r="G52" t="n">
-        <v>500.3333333333333</v>
+        <v>507.7833333333334</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>498</v>
-      </c>
-      <c r="K52" t="n">
-        <v>499</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2250,22 +2298,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="C53" t="n">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D53" t="n">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E53" t="n">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>98.2816</v>
       </c>
       <c r="G53" t="n">
-        <v>502.6666666666667</v>
+        <v>507.45</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2274,14 +2322,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>499</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2294,35 +2336,33 @@
         <v>506</v>
       </c>
       <c r="C54" t="n">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="D54" t="n">
         <v>506</v>
       </c>
       <c r="E54" t="n">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="F54" t="n">
-        <v>2.1972</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>503.3333333333333</v>
+        <v>507.15</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>504</v>
+      </c>
       <c r="K54" t="n">
-        <v>499</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2332,22 +2372,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C55" t="n">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="D55" t="n">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E55" t="n">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F55" t="n">
-        <v>27</v>
+        <v>2.1972</v>
       </c>
       <c r="G55" t="n">
-        <v>504.3333333333333</v>
+        <v>507.05</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2357,11 +2397,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M55" t="n">
@@ -2373,22 +2413,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C56" t="n">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="D56" t="n">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="E56" t="n">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F56" t="n">
-        <v>146.0011</v>
+        <v>27</v>
       </c>
       <c r="G56" t="n">
-        <v>507</v>
+        <v>507.0666666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2398,7 +2438,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2414,22 +2454,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C57" t="n">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="D57" t="n">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="E57" t="n">
         <v>506</v>
       </c>
       <c r="F57" t="n">
-        <v>91.1726</v>
+        <v>146.0011</v>
       </c>
       <c r="G57" t="n">
-        <v>509</v>
+        <v>507.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2439,7 +2479,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2455,22 +2495,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="C58" t="n">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="D58" t="n">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="E58" t="n">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="F58" t="n">
-        <v>51.0047</v>
+        <v>91.1726</v>
       </c>
       <c r="G58" t="n">
-        <v>512.3333333333334</v>
+        <v>507.1166666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2480,7 +2520,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2496,22 +2536,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="C59" t="n">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="D59" t="n">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="E59" t="n">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="F59" t="n">
-        <v>40.596</v>
+        <v>51.0047</v>
       </c>
       <c r="G59" t="n">
-        <v>509.3333333333333</v>
+        <v>507.2166666666666</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2521,7 +2561,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2537,22 +2577,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="C60" t="n">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="D60" t="n">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="E60" t="n">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="F60" t="n">
-        <v>4233.5346</v>
+        <v>40.596</v>
       </c>
       <c r="G60" t="n">
-        <v>506.6666666666667</v>
+        <v>507.1166666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,7 +2602,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2578,22 +2618,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C61" t="n">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D61" t="n">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="E61" t="n">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="F61" t="n">
-        <v>633.6624</v>
+        <v>4233.5346</v>
       </c>
       <c r="G61" t="n">
-        <v>502.6666666666667</v>
+        <v>507</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2603,7 +2643,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2619,22 +2659,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C62" t="n">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D62" t="n">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E62" t="n">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F62" t="n">
-        <v>1.2933</v>
+        <v>633.6624</v>
       </c>
       <c r="G62" t="n">
-        <v>503.6666666666667</v>
+        <v>507.05</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2644,7 +2684,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2660,7 +2700,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C63" t="n">
         <v>508</v>
@@ -2669,13 +2709,13 @@
         <v>508</v>
       </c>
       <c r="E63" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F63" t="n">
-        <v>1208.7657</v>
+        <v>1.2933</v>
       </c>
       <c r="G63" t="n">
-        <v>507</v>
+        <v>507.1666666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2685,7 +2725,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2701,7 +2741,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C64" t="n">
         <v>508</v>
@@ -2710,13 +2750,13 @@
         <v>508</v>
       </c>
       <c r="E64" t="n">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
+        <v>1208.7657</v>
       </c>
       <c r="G64" t="n">
-        <v>508</v>
+        <v>507.2833333333334</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2726,7 +2766,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -2745,19 +2785,19 @@
         <v>508</v>
       </c>
       <c r="C65" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D65" t="n">
         <v>508</v>
       </c>
       <c r="E65" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F65" t="n">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="G65" t="n">
-        <v>507.6666666666667</v>
+        <v>507.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2767,7 +2807,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -2786,19 +2826,19 @@
         <v>508</v>
       </c>
       <c r="C66" t="n">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D66" t="n">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E66" t="n">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F66" t="n">
-        <v>5536.3259</v>
+        <v>82</v>
       </c>
       <c r="G66" t="n">
-        <v>508</v>
+        <v>507.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2808,7 +2848,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -2824,22 +2864,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C67" t="n">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D67" t="n">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E67" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F67" t="n">
-        <v>1722.2808</v>
+        <v>5536.3259</v>
       </c>
       <c r="G67" t="n">
-        <v>507.6666666666667</v>
+        <v>507.6333333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2849,7 +2889,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -2865,22 +2905,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C68" t="n">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D68" t="n">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E68" t="n">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F68" t="n">
-        <v>218.1143</v>
+        <v>1722.2808</v>
       </c>
       <c r="G68" t="n">
-        <v>508</v>
+        <v>507.7833333333334</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2890,7 +2930,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -2906,22 +2946,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C69" t="n">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D69" t="n">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E69" t="n">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F69" t="n">
-        <v>148.7353</v>
+        <v>218.1143</v>
       </c>
       <c r="G69" t="n">
-        <v>508</v>
+        <v>507.8833333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2931,7 +2971,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -2950,16 +2990,16 @@
         <v>509</v>
       </c>
       <c r="C70" t="n">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D70" t="n">
         <v>509</v>
       </c>
       <c r="E70" t="n">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F70" t="n">
-        <v>2445.456365877712</v>
+        <v>148.7353</v>
       </c>
       <c r="G70" t="n">
         <v>508</v>
@@ -2972,7 +3012,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -2988,22 +3028,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="C71" t="n">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="D71" t="n">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="E71" t="n">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="F71" t="n">
-        <v>481.7978</v>
+        <v>2445.456365877712</v>
       </c>
       <c r="G71" t="n">
-        <v>505.6666666666667</v>
+        <v>507.9666666666666</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3013,7 +3053,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3029,22 +3069,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
+        <v>504</v>
+      </c>
+      <c r="C72" t="n">
         <v>501</v>
       </c>
-      <c r="C72" t="n">
-        <v>499</v>
-      </c>
       <c r="D72" t="n">
+        <v>504</v>
+      </c>
+      <c r="E72" t="n">
         <v>501</v>
       </c>
-      <c r="E72" t="n">
-        <v>499</v>
-      </c>
       <c r="F72" t="n">
-        <v>5960.6041</v>
+        <v>481.7978</v>
       </c>
       <c r="G72" t="n">
-        <v>502.3333333333333</v>
+        <v>507.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3054,7 +3094,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3070,22 +3110,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="C73" t="n">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="D73" t="n">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="E73" t="n">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="F73" t="n">
-        <v>3.92156862745098</v>
+        <v>5960.6041</v>
       </c>
       <c r="G73" t="n">
-        <v>503.3333333333333</v>
+        <v>507.5833333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3095,7 +3135,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3111,22 +3151,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C74" t="n">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D74" t="n">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E74" t="n">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>3.92156862745098</v>
       </c>
       <c r="G74" t="n">
-        <v>505.6666666666667</v>
+        <v>507.3833333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3136,7 +3176,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3152,22 +3192,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="C75" t="n">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="D75" t="n">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="E75" t="n">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="F75" t="n">
-        <v>4017.7926</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>506.3333333333333</v>
+        <v>507.4166666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3177,7 +3217,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3205,10 +3245,10 @@
         <v>501</v>
       </c>
       <c r="F76" t="n">
-        <v>742.1592000000001</v>
+        <v>4017.7926</v>
       </c>
       <c r="G76" t="n">
-        <v>503.3333333333333</v>
+        <v>507.3333333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3218,7 +3258,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3234,22 +3274,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C77" t="n">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D77" t="n">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="E77" t="n">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="F77" t="n">
-        <v>7</v>
+        <v>742.1592000000001</v>
       </c>
       <c r="G77" t="n">
-        <v>503</v>
+        <v>507.2833333333334</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3259,7 +3299,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3287,10 +3327,10 @@
         <v>507</v>
       </c>
       <c r="F78" t="n">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="G78" t="n">
-        <v>505</v>
+        <v>507.0833333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3300,7 +3340,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3328,10 +3368,10 @@
         <v>507</v>
       </c>
       <c r="F79" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G79" t="n">
-        <v>507</v>
+        <v>506.8833333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3341,7 +3381,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3357,22 +3397,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C80" t="n">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D80" t="n">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="E80" t="n">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F80" t="n">
-        <v>218.1144</v>
+        <v>100</v>
       </c>
       <c r="G80" t="n">
-        <v>505.6666666666667</v>
+        <v>506.9166666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3382,7 +3422,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3398,22 +3438,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C81" t="n">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D81" t="n">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E81" t="n">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F81" t="n">
-        <v>3928.146</v>
+        <v>218.1144</v>
       </c>
       <c r="G81" t="n">
-        <v>505.6666666666667</v>
+        <v>506.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3423,7 +3463,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3451,10 +3491,10 @@
         <v>507</v>
       </c>
       <c r="F82" t="n">
-        <v>1052.7</v>
+        <v>3928.146</v>
       </c>
       <c r="G82" t="n">
-        <v>505.6666666666667</v>
+        <v>506.3666666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3464,7 +3504,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3480,22 +3520,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C83" t="n">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="D83" t="n">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="E83" t="n">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F83" t="n">
-        <v>2258.3007</v>
+        <v>1052.7</v>
       </c>
       <c r="G83" t="n">
-        <v>508.6666666666667</v>
+        <v>506.15</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3505,7 +3545,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3521,22 +3561,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C84" t="n">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D84" t="n">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E84" t="n">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F84" t="n">
-        <v>2.3235</v>
+        <v>2258.3007</v>
       </c>
       <c r="G84" t="n">
-        <v>510.6666666666667</v>
+        <v>506.0166666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3546,7 +3586,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3574,10 +3614,10 @@
         <v>513</v>
       </c>
       <c r="F85" t="n">
-        <v>485.4541</v>
+        <v>2.3235</v>
       </c>
       <c r="G85" t="n">
-        <v>512.6666666666666</v>
+        <v>505.8833333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3587,7 +3627,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3603,22 +3643,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C86" t="n">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D86" t="n">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E86" t="n">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F86" t="n">
-        <v>801.408</v>
+        <v>485.4541</v>
       </c>
       <c r="G86" t="n">
-        <v>512.3333333333334</v>
+        <v>505.8833333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3628,7 +3668,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3644,7 +3684,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C87" t="n">
         <v>511</v>
@@ -3653,13 +3693,13 @@
         <v>511</v>
       </c>
       <c r="E87" t="n">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F87" t="n">
-        <v>1243.3523</v>
+        <v>801.408</v>
       </c>
       <c r="G87" t="n">
-        <v>511.6666666666667</v>
+        <v>505.8666666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3669,7 +3709,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3688,19 +3728,19 @@
         <v>510</v>
       </c>
       <c r="C88" t="n">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D88" t="n">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E88" t="n">
         <v>510</v>
       </c>
       <c r="F88" t="n">
-        <v>725.9853000000001</v>
+        <v>1243.3523</v>
       </c>
       <c r="G88" t="n">
-        <v>510.6666666666667</v>
+        <v>505.85</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3710,7 +3750,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3726,22 +3766,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C89" t="n">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D89" t="n">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E89" t="n">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F89" t="n">
-        <v>50</v>
+        <v>725.9853000000001</v>
       </c>
       <c r="G89" t="n">
-        <v>511</v>
+        <v>505.6833333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3751,7 +3791,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -3767,22 +3807,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C90" t="n">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D90" t="n">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E90" t="n">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="F90" t="n">
         <v>50</v>
       </c>
       <c r="G90" t="n">
-        <v>510.6666666666667</v>
+        <v>505.55</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3792,7 +3832,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -3820,10 +3860,10 @@
         <v>510</v>
       </c>
       <c r="F91" t="n">
-        <v>813.9852</v>
+        <v>50</v>
       </c>
       <c r="G91" t="n">
-        <v>510.6666666666667</v>
+        <v>505.3833333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3833,7 +3873,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -3861,10 +3901,10 @@
         <v>510</v>
       </c>
       <c r="F92" t="n">
-        <v>2069.5922</v>
+        <v>813.9852</v>
       </c>
       <c r="G92" t="n">
-        <v>510</v>
+        <v>505.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3874,7 +3914,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -3893,19 +3933,19 @@
         <v>510</v>
       </c>
       <c r="C93" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D93" t="n">
         <v>510</v>
       </c>
       <c r="E93" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F93" t="n">
-        <v>810.8011</v>
+        <v>2069.5922</v>
       </c>
       <c r="G93" t="n">
-        <v>509.6666666666667</v>
+        <v>505.0333333333334</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3915,7 +3955,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -3934,19 +3974,19 @@
         <v>510</v>
       </c>
       <c r="C94" t="n">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D94" t="n">
         <v>510</v>
       </c>
       <c r="E94" t="n">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F94" t="n">
-        <v>736.9841</v>
+        <v>810.8011</v>
       </c>
       <c r="G94" t="n">
-        <v>509.6666666666667</v>
+        <v>504.9833333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3956,7 +3996,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -3984,10 +4024,10 @@
         <v>510</v>
       </c>
       <c r="F95" t="n">
-        <v>287.2882</v>
+        <v>736.9841</v>
       </c>
       <c r="G95" t="n">
-        <v>509.6666666666667</v>
+        <v>504.95</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3997,7 +4037,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4013,22 +4053,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C96" t="n">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="D96" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E96" t="n">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="F96" t="n">
-        <v>364.2805</v>
+        <v>287.2882</v>
       </c>
       <c r="G96" t="n">
-        <v>509</v>
+        <v>504.9666666666666</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4038,7 +4078,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4054,22 +4094,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C97" t="n">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D97" t="n">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="E97" t="n">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F97" t="n">
-        <v>474.7332</v>
+        <v>364.2805</v>
       </c>
       <c r="G97" t="n">
-        <v>507.6666666666667</v>
+        <v>505</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4079,7 +4119,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4095,22 +4135,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C98" t="n">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D98" t="n">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E98" t="n">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F98" t="n">
-        <v>1.0088</v>
+        <v>474.7332</v>
       </c>
       <c r="G98" t="n">
-        <v>506.6666666666667</v>
+        <v>505.05</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4120,7 +4160,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4139,19 +4179,19 @@
         <v>507</v>
       </c>
       <c r="C99" t="n">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D99" t="n">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E99" t="n">
         <v>507</v>
       </c>
       <c r="F99" t="n">
-        <v>331.0639</v>
+        <v>1.0088</v>
       </c>
       <c r="G99" t="n">
-        <v>507.3333333333333</v>
+        <v>505.1666666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4161,7 +4201,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4177,7 +4217,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C100" t="n">
         <v>509</v>
@@ -4186,13 +4226,13 @@
         <v>509</v>
       </c>
       <c r="E100" t="n">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F100" t="n">
-        <v>62.7796</v>
+        <v>331.0639</v>
       </c>
       <c r="G100" t="n">
-        <v>508.3333333333333</v>
+        <v>505.3166666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4202,7 +4242,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4218,22 +4258,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C101" t="n">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D101" t="n">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E101" t="n">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F101" t="n">
-        <v>369.545</v>
+        <v>62.7796</v>
       </c>
       <c r="G101" t="n">
-        <v>509.3333333333333</v>
+        <v>505.5666666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4243,7 +4283,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4259,22 +4299,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="C102" t="n">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="D102" t="n">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="E102" t="n">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="F102" t="n">
-        <v>1746.6871</v>
+        <v>369.545</v>
       </c>
       <c r="G102" t="n">
-        <v>507.3333333333333</v>
+        <v>505.8166666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4284,7 +4324,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4300,22 +4340,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C103" t="n">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D103" t="n">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E103" t="n">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>1746.6871</v>
       </c>
       <c r="G103" t="n">
-        <v>507.3333333333333</v>
+        <v>505.95</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4325,7 +4365,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4341,22 +4381,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="C104" t="n">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="D104" t="n">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="E104" t="n">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="F104" t="n">
-        <v>826.7125</v>
+        <v>1</v>
       </c>
       <c r="G104" t="n">
-        <v>505</v>
+        <v>506.1833333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4366,7 +4406,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4382,22 +4422,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C105" t="n">
         <v>503</v>
       </c>
       <c r="D105" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E105" t="n">
         <v>503</v>
       </c>
       <c r="F105" t="n">
-        <v>11.4387</v>
+        <v>826.7125</v>
       </c>
       <c r="G105" t="n">
-        <v>505</v>
+        <v>506.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4407,7 +4447,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4423,22 +4463,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C106" t="n">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D106" t="n">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E106" t="n">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F106" t="n">
-        <v>1.0019</v>
+        <v>11.4387</v>
       </c>
       <c r="G106" t="n">
-        <v>504.3333333333333</v>
+        <v>506.3333333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4448,7 +4488,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4464,22 +4504,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C107" t="n">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="D107" t="n">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="E107" t="n">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="F107" t="n">
-        <v>1857.04</v>
+        <v>1.0019</v>
       </c>
       <c r="G107" t="n">
-        <v>504</v>
+        <v>506.55</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4489,7 +4529,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4505,22 +4545,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C108" t="n">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D108" t="n">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E108" t="n">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F108" t="n">
-        <v>1.3307</v>
+        <v>1857.04</v>
       </c>
       <c r="G108" t="n">
-        <v>505.3333333333333</v>
+        <v>506.6333333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4530,7 +4570,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4549,19 +4589,19 @@
         <v>507</v>
       </c>
       <c r="C109" t="n">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D109" t="n">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E109" t="n">
         <v>507</v>
       </c>
       <c r="F109" t="n">
-        <v>1295.5998</v>
+        <v>1.3307</v>
       </c>
       <c r="G109" t="n">
-        <v>505.6666666666667</v>
+        <v>506.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4571,7 +4611,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4587,22 +4627,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
+        <v>507</v>
+      </c>
+      <c r="C110" t="n">
         <v>508</v>
       </c>
-      <c r="C110" t="n">
-        <v>509</v>
-      </c>
       <c r="D110" t="n">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E110" t="n">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F110" t="n">
-        <v>990.9521999999999</v>
+        <v>1295.5998</v>
       </c>
       <c r="G110" t="n">
-        <v>508</v>
+        <v>506.9833333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4612,7 +4652,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4628,22 +4668,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C111" t="n">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="D111" t="n">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="E111" t="n">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="F111" t="n">
-        <v>14.6133</v>
+        <v>990.9521999999999</v>
       </c>
       <c r="G111" t="n">
-        <v>507.3333333333333</v>
+        <v>507.15</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4653,7 +4693,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4669,22 +4709,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C112" t="n">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D112" t="n">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E112" t="n">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F112" t="n">
         <v>14.6133</v>
       </c>
       <c r="G112" t="n">
-        <v>507.6666666666667</v>
+        <v>507.2666666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4694,7 +4734,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4710,22 +4750,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C113" t="n">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="D113" t="n">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="E113" t="n">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="F113" t="n">
-        <v>64.76609999999999</v>
+        <v>14.6133</v>
       </c>
       <c r="G113" t="n">
-        <v>506.3333333333333</v>
+        <v>507.35</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4735,7 +4775,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4754,19 +4794,19 @@
         <v>505</v>
       </c>
       <c r="C114" t="n">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D114" t="n">
         <v>505</v>
       </c>
       <c r="E114" t="n">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F114" t="n">
-        <v>5809.7914</v>
+        <v>64.76609999999999</v>
       </c>
       <c r="G114" t="n">
-        <v>506</v>
+        <v>507.3333333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4776,7 +4816,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4792,22 +4832,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C115" t="n">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D115" t="n">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E115" t="n">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F115" t="n">
-        <v>352.5557</v>
+        <v>5809.7914</v>
       </c>
       <c r="G115" t="n">
-        <v>505.3333333333333</v>
+        <v>507.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4817,7 +4857,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -4845,10 +4885,10 @@
         <v>507</v>
       </c>
       <c r="F116" t="n">
-        <v>5191.0867</v>
+        <v>352.5557</v>
       </c>
       <c r="G116" t="n">
-        <v>506</v>
+        <v>507.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4858,7 +4898,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -4874,22 +4914,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C117" t="n">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="D117" t="n">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E117" t="n">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="F117" t="n">
-        <v>930.7911</v>
+        <v>5191.0867</v>
       </c>
       <c r="G117" t="n">
-        <v>505</v>
+        <v>507.2833333333334</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4899,7 +4939,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -4915,22 +4955,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C118" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D118" t="n">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="E118" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F118" t="n">
-        <v>5647.2578</v>
+        <v>930.7911</v>
       </c>
       <c r="G118" t="n">
-        <v>502.6666666666667</v>
+        <v>507.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4940,7 +4980,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -4956,22 +4996,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C119" t="n">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="D119" t="n">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E119" t="n">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="F119" t="n">
-        <v>8470.4414</v>
+        <v>5647.2578</v>
       </c>
       <c r="G119" t="n">
-        <v>502.6666666666667</v>
+        <v>506.9166666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4981,7 +5021,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -4997,7 +5037,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C120" t="n">
         <v>507</v>
@@ -5006,13 +5046,13 @@
         <v>507</v>
       </c>
       <c r="E120" t="n">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F120" t="n">
-        <v>67.3653</v>
+        <v>8470.4414</v>
       </c>
       <c r="G120" t="n">
-        <v>504.6666666666667</v>
+        <v>506.95</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5022,7 +5062,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -5050,10 +5090,10 @@
         <v>507</v>
       </c>
       <c r="F121" t="n">
-        <v>479.6104</v>
+        <v>67.3653</v>
       </c>
       <c r="G121" t="n">
-        <v>507</v>
+        <v>507.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5063,7 +5103,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5091,28 +5131,28 @@
         <v>507</v>
       </c>
       <c r="F122" t="n">
-        <v>137.2752</v>
+        <v>479.6104</v>
       </c>
       <c r="G122" t="n">
-        <v>507</v>
+        <v>507.1333333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>1.011032064128257</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -5120,22 +5160,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C123" t="n">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D123" t="n">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E123" t="n">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F123" t="n">
-        <v>1202.2336</v>
+        <v>137.2752</v>
       </c>
       <c r="G123" t="n">
-        <v>508</v>
+        <v>507.1166666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5144,8 +5184,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>504</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5155,22 +5201,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C124" t="n">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D124" t="n">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E124" t="n">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F124" t="n">
-        <v>9647.730100000001</v>
+        <v>1202.2336</v>
       </c>
       <c r="G124" t="n">
-        <v>509.6666666666667</v>
+        <v>507.15</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5179,8 +5225,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>504</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5190,22 +5242,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="C125" t="n">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="D125" t="n">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="E125" t="n">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="F125" t="n">
-        <v>2281.775</v>
+        <v>9647.730100000001</v>
       </c>
       <c r="G125" t="n">
-        <v>514</v>
+        <v>507.2166666666666</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5214,8 +5266,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>504</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5228,19 +5286,19 @@
         <v>520</v>
       </c>
       <c r="C126" t="n">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D126" t="n">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="E126" t="n">
         <v>520</v>
       </c>
       <c r="F126" t="n">
-        <v>1081.6187</v>
+        <v>2281.775</v>
       </c>
       <c r="G126" t="n">
-        <v>519.6666666666666</v>
+        <v>507.4333333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5249,8 +5307,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>504</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5260,7 +5324,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="C127" t="n">
         <v>527</v>
@@ -5269,23 +5333,29 @@
         <v>527</v>
       </c>
       <c r="E127" t="n">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="F127" t="n">
-        <v>5421.5872</v>
+        <v>1081.6187</v>
       </c>
       <c r="G127" t="n">
-        <v>524.6666666666666</v>
+        <v>507.7333333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>504</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5295,22 +5365,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C128" t="n">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D128" t="n">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E128" t="n">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F128" t="n">
-        <v>7918.3561</v>
+        <v>5421.5872</v>
       </c>
       <c r="G128" t="n">
-        <v>527.3333333333334</v>
+        <v>508.0666666666667</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5319,10 +5389,16 @@
         <v>1</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>504</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M128" t="n">
-        <v>1</v>
+        <v>1.040634920634921</v>
       </c>
     </row>
     <row r="129">
@@ -5333,7 +5409,7 @@
         <v>528</v>
       </c>
       <c r="C129" t="n">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D129" t="n">
         <v>529</v>
@@ -5342,10 +5418,10 @@
         <v>528</v>
       </c>
       <c r="F129" t="n">
-        <v>138.3876</v>
+        <v>7918.3561</v>
       </c>
       <c r="G129" t="n">
-        <v>528</v>
+        <v>508.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5365,28 +5441,28 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
+        <v>528</v>
+      </c>
+      <c r="C130" t="n">
         <v>529</v>
       </c>
-      <c r="C130" t="n">
-        <v>533</v>
-      </c>
       <c r="D130" t="n">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="E130" t="n">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F130" t="n">
-        <v>2491.3421</v>
+        <v>138.3876</v>
       </c>
       <c r="G130" t="n">
-        <v>530</v>
+        <v>508.7333333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -5400,28 +5476,28 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C131" t="n">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D131" t="n">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E131" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="F131" t="n">
-        <v>135.9908</v>
+        <v>2491.3421</v>
       </c>
       <c r="G131" t="n">
-        <v>532</v>
+        <v>509.1666666666667</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -5435,22 +5511,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C132" t="n">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D132" t="n">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E132" t="n">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F132" t="n">
-        <v>157.5878</v>
+        <v>135.9908</v>
       </c>
       <c r="G132" t="n">
-        <v>534</v>
+        <v>509.7166666666666</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5470,22 +5546,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C133" t="n">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="D133" t="n">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="E133" t="n">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F133" t="n">
-        <v>1433.1764</v>
+        <v>157.5878</v>
       </c>
       <c r="G133" t="n">
-        <v>538</v>
+        <v>510.3166666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5505,22 +5581,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="C134" t="n">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D134" t="n">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E134" t="n">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="F134" t="n">
-        <v>84.11920000000001</v>
+        <v>1433.1764</v>
       </c>
       <c r="G134" t="n">
-        <v>541.3333333333334</v>
+        <v>510.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5540,22 +5616,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C135" t="n">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D135" t="n">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E135" t="n">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="F135" t="n">
-        <v>254.8247</v>
+        <v>84.11920000000001</v>
       </c>
       <c r="G135" t="n">
-        <v>543.6666666666666</v>
+        <v>511.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5575,28 +5651,28 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="C136" t="n">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="D136" t="n">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="E136" t="n">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="F136" t="n">
-        <v>1503.129</v>
+        <v>254.8247</v>
       </c>
       <c r="G136" t="n">
-        <v>539.3333333333334</v>
+        <v>512.1833333333333</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -5610,28 +5686,28 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C137" t="n">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D137" t="n">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="E137" t="n">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F137" t="n">
-        <v>680.5788</v>
+        <v>1503.129</v>
       </c>
       <c r="G137" t="n">
-        <v>534.6666666666666</v>
+        <v>512.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -5645,22 +5721,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C138" t="n">
         <v>530</v>
       </c>
       <c r="D138" t="n">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E138" t="n">
         <v>530</v>
       </c>
       <c r="F138" t="n">
-        <v>2661.9591</v>
+        <v>680.5788</v>
       </c>
       <c r="G138" t="n">
-        <v>530.6666666666666</v>
+        <v>513.0833333333334</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5680,22 +5756,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C139" t="n">
+        <v>530</v>
+      </c>
+      <c r="D139" t="n">
         <v>531</v>
       </c>
-      <c r="D139" t="n">
-        <v>532</v>
-      </c>
       <c r="E139" t="n">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F139" t="n">
-        <v>3337.0589</v>
+        <v>2661.9591</v>
       </c>
       <c r="G139" t="n">
-        <v>530.3333333333334</v>
+        <v>513.4666666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5715,22 +5791,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="C140" t="n">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="D140" t="n">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="E140" t="n">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="F140" t="n">
-        <v>2</v>
+        <v>3337.0589</v>
       </c>
       <c r="G140" t="n">
-        <v>534</v>
+        <v>513.8666666666667</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5750,22 +5826,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C141" t="n">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D141" t="n">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E141" t="n">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F141" t="n">
-        <v>183.9899</v>
+        <v>2</v>
       </c>
       <c r="G141" t="n">
-        <v>538.3333333333334</v>
+        <v>514.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5788,19 +5864,19 @@
         <v>542</v>
       </c>
       <c r="C142" t="n">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D142" t="n">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E142" t="n">
         <v>542</v>
       </c>
       <c r="F142" t="n">
-        <v>1951.7305</v>
+        <v>183.9899</v>
       </c>
       <c r="G142" t="n">
-        <v>542</v>
+        <v>515.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5832,10 +5908,10 @@
         <v>542</v>
       </c>
       <c r="F143" t="n">
-        <v>363.7749</v>
+        <v>1951.7305</v>
       </c>
       <c r="G143" t="n">
-        <v>542.3333333333334</v>
+        <v>515.6833333333333</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5855,22 +5931,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="C144" t="n">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="D144" t="n">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="E144" t="n">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="F144" t="n">
-        <v>89.11799999999999</v>
+        <v>363.7749</v>
       </c>
       <c r="G144" t="n">
-        <v>539</v>
+        <v>516.1833333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5890,22 +5966,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C145" t="n">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D145" t="n">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E145" t="n">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F145" t="n">
-        <v>183.7044</v>
+        <v>89.11799999999999</v>
       </c>
       <c r="G145" t="n">
-        <v>535.6666666666666</v>
+        <v>516.5166666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5925,22 +6001,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C146" t="n">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D146" t="n">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E146" t="n">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F146" t="n">
-        <v>2175.575</v>
+        <v>183.7044</v>
       </c>
       <c r="G146" t="n">
-        <v>532</v>
+        <v>516.8333333333334</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5969,13 +6045,13 @@
         <v>531</v>
       </c>
       <c r="E147" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F147" t="n">
-        <v>3999.246</v>
+        <v>2175.575</v>
       </c>
       <c r="G147" t="n">
-        <v>531.3333333333334</v>
+        <v>517.1666666666666</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5995,22 +6071,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C148" t="n">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="D148" t="n">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="E148" t="n">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F148" t="n">
-        <v>1</v>
+        <v>3999.246</v>
       </c>
       <c r="G148" t="n">
-        <v>533</v>
+        <v>517.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6030,22 +6106,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C149" t="n">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D149" t="n">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E149" t="n">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="F149" t="n">
-        <v>74.14149999999999</v>
+        <v>1</v>
       </c>
       <c r="G149" t="n">
-        <v>534.3333333333334</v>
+        <v>517.95</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6077,10 +6153,10 @@
         <v>535</v>
       </c>
       <c r="F150" t="n">
-        <v>1</v>
+        <v>74.14149999999999</v>
       </c>
       <c r="G150" t="n">
-        <v>535.6666666666666</v>
+        <v>518.3333333333334</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6100,22 +6176,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C151" t="n">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D151" t="n">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E151" t="n">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F151" t="n">
-        <v>724.5876</v>
+        <v>1</v>
       </c>
       <c r="G151" t="n">
-        <v>535.3333333333334</v>
+        <v>518.75</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6147,10 +6223,10 @@
         <v>536</v>
       </c>
       <c r="F152" t="n">
-        <v>41.3976</v>
+        <v>724.5876</v>
       </c>
       <c r="G152" t="n">
-        <v>535.6666666666666</v>
+        <v>519.1833333333333</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6173,19 +6249,19 @@
         <v>536</v>
       </c>
       <c r="C153" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D153" t="n">
         <v>536</v>
       </c>
       <c r="E153" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F153" t="n">
-        <v>2000</v>
+        <v>41.3976</v>
       </c>
       <c r="G153" t="n">
-        <v>535.6666666666666</v>
+        <v>519.6166666666667</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6200,6 +6276,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>536</v>
+      </c>
+      <c r="C154" t="n">
+        <v>535</v>
+      </c>
+      <c r="D154" t="n">
+        <v>536</v>
+      </c>
+      <c r="E154" t="n">
+        <v>535</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G154" t="n">
+        <v>520.05</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-27 BackTest VALOR.xlsx
+++ b/BackTest/2019-10-27 BackTest VALOR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M154"/>
+  <dimension ref="A1:N164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>1562.49</v>
       </c>
       <c r="G2" t="n">
+        <v>510.2</v>
+      </c>
+      <c r="H2" t="n">
         <v>519.75</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>2403.6272</v>
       </c>
       <c r="G3" t="n">
+        <v>509.8666666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>519.3</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>14.9625</v>
       </c>
       <c r="G4" t="n">
+        <v>509.5333333333334</v>
+      </c>
+      <c r="H4" t="n">
         <v>518.4</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>1171.3651</v>
       </c>
       <c r="G5" t="n">
+        <v>509.2666666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>517.8666666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>181.2113</v>
       </c>
       <c r="G6" t="n">
+        <v>508.9333333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>517.3</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>1029.1667</v>
       </c>
       <c r="G7" t="n">
+        <v>507.4</v>
+      </c>
+      <c r="H7" t="n">
         <v>516.7166666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,24 +681,21 @@
         <v>712.1743</v>
       </c>
       <c r="G8" t="n">
+        <v>505.6666666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>516.1833333333333</v>
       </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>501</v>
+        <v>0</v>
       </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -699,22 +719,21 @@
         <v>1.4721</v>
       </c>
       <c r="G9" t="n">
+        <v>504.2</v>
+      </c>
+      <c r="H9" t="n">
         <v>515.85</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,22 +757,21 @@
         <v>3168.5279</v>
       </c>
       <c r="G10" t="n">
+        <v>503.9333333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>515.5833333333334</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -777,22 +795,21 @@
         <v>140.2809</v>
       </c>
       <c r="G11" t="n">
+        <v>504.1333333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>515.4333333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -816,22 +833,21 @@
         <v>1.3015</v>
       </c>
       <c r="G12" t="n">
+        <v>504.4666666666666</v>
+      </c>
+      <c r="H12" t="n">
         <v>515.3333333333334</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -855,22 +871,21 @@
         <v>531.8034</v>
       </c>
       <c r="G13" t="n">
+        <v>504.5333333333334</v>
+      </c>
+      <c r="H13" t="n">
         <v>515.1333333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,22 +909,21 @@
         <v>2.9315</v>
       </c>
       <c r="G14" t="n">
+        <v>505.2666666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>515.2333333333333</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -933,22 +947,21 @@
         <v>142.1985</v>
       </c>
       <c r="G15" t="n">
+        <v>504.9333333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>514.8833333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -972,22 +985,21 @@
         <v>220.1315</v>
       </c>
       <c r="G16" t="n">
+        <v>505</v>
+      </c>
+      <c r="H16" t="n">
         <v>514.05</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1011,22 +1023,21 @@
         <v>301.3715</v>
       </c>
       <c r="G17" t="n">
+        <v>505.1333333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>513.55</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1050,22 +1061,21 @@
         <v>4681.4019</v>
       </c>
       <c r="G18" t="n">
+        <v>506.3333333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>513.3</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1089,22 +1099,21 @@
         <v>2.1213</v>
       </c>
       <c r="G19" t="n">
+        <v>507.5333333333334</v>
+      </c>
+      <c r="H19" t="n">
         <v>513.1333333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1128,22 +1137,21 @@
         <v>321.9065</v>
       </c>
       <c r="G20" t="n">
+        <v>507.8</v>
+      </c>
+      <c r="H20" t="n">
         <v>512.6833333333333</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1167,22 +1175,21 @@
         <v>1005.698868773946</v>
       </c>
       <c r="G21" t="n">
+        <v>509.2</v>
+      </c>
+      <c r="H21" t="n">
         <v>512.5333333333333</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1206,22 +1213,21 @@
         <v>313.5556</v>
       </c>
       <c r="G22" t="n">
+        <v>510.5333333333334</v>
+      </c>
+      <c r="H22" t="n">
         <v>512.2</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1245,22 +1251,21 @@
         <v>397.6143</v>
       </c>
       <c r="G23" t="n">
+        <v>512</v>
+      </c>
+      <c r="H23" t="n">
         <v>512.0666666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1284,22 +1289,21 @@
         <v>602.3857</v>
       </c>
       <c r="G24" t="n">
+        <v>513.2</v>
+      </c>
+      <c r="H24" t="n">
         <v>511.95</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,22 +1327,21 @@
         <v>1.1489</v>
       </c>
       <c r="G25" t="n">
+        <v>514.4666666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>511.85</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1362,22 +1365,21 @@
         <v>175.3855</v>
       </c>
       <c r="G26" t="n">
+        <v>514.7333333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>511.6833333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1401,22 +1403,23 @@
         <v>19.4459</v>
       </c>
       <c r="G27" t="n">
+        <v>514.8</v>
+      </c>
+      <c r="H27" t="n">
         <v>511.5</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1438,18 +1441,21 @@
         <v>56.0694</v>
       </c>
       <c r="G28" t="n">
+        <v>514.8</v>
+      </c>
+      <c r="H28" t="n">
         <v>511.35</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1473,18 +1479,21 @@
         <v>110.971</v>
       </c>
       <c r="G29" t="n">
+        <v>514.6666666666666</v>
+      </c>
+      <c r="H29" t="n">
         <v>511.3166666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1508,18 +1517,21 @@
         <v>1353.0187</v>
       </c>
       <c r="G30" t="n">
+        <v>515.6</v>
+      </c>
+      <c r="H30" t="n">
         <v>511.4</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1543,18 +1555,21 @@
         <v>238.8468</v>
       </c>
       <c r="G31" t="n">
+        <v>516.5333333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>511.4833333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,18 +1593,21 @@
         <v>2.3262</v>
       </c>
       <c r="G32" t="n">
+        <v>517.6666666666666</v>
+      </c>
+      <c r="H32" t="n">
         <v>511.6166666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1613,18 +1631,21 @@
         <v>61.1532</v>
       </c>
       <c r="G33" t="n">
+        <v>517.7333333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>511.7333333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1648,18 +1669,21 @@
         <v>1664.0758</v>
       </c>
       <c r="G34" t="n">
+        <v>517.2666666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>511.75</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1683,18 +1707,21 @@
         <v>741.9627</v>
       </c>
       <c r="G35" t="n">
+        <v>517.7333333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>511.7666666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1718,18 +1745,21 @@
         <v>3710.3173</v>
       </c>
       <c r="G36" t="n">
+        <v>516.8666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>511.7333333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1753,18 +1783,21 @@
         <v>301.3675</v>
       </c>
       <c r="G37" t="n">
+        <v>515.8</v>
+      </c>
+      <c r="H37" t="n">
         <v>511.6333333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1788,18 +1821,21 @@
         <v>519.9666</v>
       </c>
       <c r="G38" t="n">
+        <v>514.6666666666666</v>
+      </c>
+      <c r="H38" t="n">
         <v>511.5</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1823,18 +1859,21 @@
         <v>7423.8066</v>
       </c>
       <c r="G39" t="n">
+        <v>513.3333333333334</v>
+      </c>
+      <c r="H39" t="n">
         <v>511.3166666666667</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1858,18 +1897,21 @@
         <v>33.2331</v>
       </c>
       <c r="G40" t="n">
+        <v>511.9333333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>510.9</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1893,18 +1935,21 @@
         <v>3472.5643</v>
       </c>
       <c r="G41" t="n">
+        <v>510.6666666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>510.6166666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1928,18 +1973,21 @@
         <v>103.4322</v>
       </c>
       <c r="G42" t="n">
+        <v>509.5333333333334</v>
+      </c>
+      <c r="H42" t="n">
         <v>510.1166666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1963,18 +2011,21 @@
         <v>3075.0746</v>
       </c>
       <c r="G43" t="n">
+        <v>508.4</v>
+      </c>
+      <c r="H43" t="n">
         <v>509.6166666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1998,18 +2049,21 @@
         <v>65.50490000000001</v>
       </c>
       <c r="G44" t="n">
+        <v>506.7333333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>509.35</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2033,18 +2087,21 @@
         <v>415.3717</v>
       </c>
       <c r="G45" t="n">
+        <v>505.1333333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>509.1166666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2068,18 +2125,21 @@
         <v>1.8143</v>
       </c>
       <c r="G46" t="n">
+        <v>503.8666666666667</v>
+      </c>
+      <c r="H46" t="n">
         <v>509.0333333333334</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2103,18 +2163,21 @@
         <v>1305.7472</v>
       </c>
       <c r="G47" t="n">
+        <v>502.0666666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>508.7666666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2138,18 +2201,25 @@
         <v>2711.5455</v>
       </c>
       <c r="G48" t="n">
+        <v>500.5333333333334</v>
+      </c>
+      <c r="H48" t="n">
         <v>508.6166666666667</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>494</v>
+      </c>
+      <c r="L48" t="n">
+        <v>494</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2173,18 +2243,29 @@
         <v>4694.4813</v>
       </c>
       <c r="G49" t="n">
+        <v>499.5333333333334</v>
+      </c>
+      <c r="H49" t="n">
         <v>508.4666666666666</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>497</v>
+      </c>
+      <c r="L49" t="n">
+        <v>494</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2208,18 +2289,29 @@
         <v>1442.3912</v>
       </c>
       <c r="G50" t="n">
+        <v>498.5333333333334</v>
+      </c>
+      <c r="H50" t="n">
         <v>508.3333333333333</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>497</v>
+      </c>
+      <c r="L50" t="n">
+        <v>494</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2243,18 +2335,25 @@
         <v>1</v>
       </c>
       <c r="G51" t="n">
+        <v>497.8666666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>508.2166666666666</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>497</v>
+      </c>
+      <c r="L51" t="n">
+        <v>497</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2278,18 +2377,29 @@
         <v>146.084</v>
       </c>
       <c r="G52" t="n">
+        <v>497.4</v>
+      </c>
+      <c r="H52" t="n">
         <v>507.7833333333334</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>499</v>
+      </c>
+      <c r="L52" t="n">
+        <v>497</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2313,18 +2423,29 @@
         <v>98.2816</v>
       </c>
       <c r="G53" t="n">
+        <v>497.4666666666666</v>
+      </c>
+      <c r="H53" t="n">
         <v>507.45</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>498</v>
+      </c>
+      <c r="L53" t="n">
+        <v>497</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2348,22 +2469,25 @@
         <v>1</v>
       </c>
       <c r="G54" t="n">
+        <v>497.8666666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>507.15</v>
       </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
         <v>504</v>
       </c>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>504</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2387,24 +2511,27 @@
         <v>2.1972</v>
       </c>
       <c r="G55" t="n">
+        <v>497.8666666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>507.05</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>504</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>504</v>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M55" t="n">
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2428,24 +2555,27 @@
         <v>27</v>
       </c>
       <c r="G56" t="n">
+        <v>498.7333333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>507.0666666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>504</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>504</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2469,24 +2599,29 @@
         <v>146.0011</v>
       </c>
       <c r="G57" t="n">
+        <v>500</v>
+      </c>
+      <c r="H57" t="n">
         <v>507.2</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="n">
-        <v>504</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+        <v>507</v>
+      </c>
+      <c r="L57" t="n">
+        <v>504</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2510,24 +2645,27 @@
         <v>91.1726</v>
       </c>
       <c r="G58" t="n">
+        <v>500.7333333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>507.1166666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>504</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>504</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2551,24 +2689,27 @@
         <v>51.0047</v>
       </c>
       <c r="G59" t="n">
+        <v>502.2</v>
+      </c>
+      <c r="H59" t="n">
         <v>507.2166666666666</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>504</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>504</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2592,24 +2733,27 @@
         <v>40.596</v>
       </c>
       <c r="G60" t="n">
+        <v>502.8</v>
+      </c>
+      <c r="H60" t="n">
         <v>507.1166666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>504</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>504</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2633,24 +2777,27 @@
         <v>4233.5346</v>
       </c>
       <c r="G61" t="n">
-        <v>507</v>
+        <v>502.6</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>504</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>504</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2674,24 +2821,27 @@
         <v>633.6624</v>
       </c>
       <c r="G62" t="n">
+        <v>503.3333333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>507.05</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>504</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>504</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2715,24 +2865,27 @@
         <v>1.2933</v>
       </c>
       <c r="G63" t="n">
+        <v>504.0666666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>507.1666666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>504</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>504</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,24 +2909,27 @@
         <v>1208.7657</v>
       </c>
       <c r="G64" t="n">
+        <v>504.8</v>
+      </c>
+      <c r="H64" t="n">
         <v>507.2833333333334</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>504</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>504</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2797,24 +2953,29 @@
         <v>2</v>
       </c>
       <c r="G65" t="n">
+        <v>505.5333333333334</v>
+      </c>
+      <c r="H65" t="n">
         <v>507.4</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="n">
-        <v>504</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+        <v>508</v>
+      </c>
+      <c r="L65" t="n">
+        <v>504</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2838,24 +2999,29 @@
         <v>82</v>
       </c>
       <c r="G66" t="n">
+        <v>506.0666666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>507.5</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="n">
-        <v>504</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+        <v>508</v>
+      </c>
+      <c r="L66" t="n">
+        <v>504</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2879,24 +3045,27 @@
         <v>5536.3259</v>
       </c>
       <c r="G67" t="n">
+        <v>506.8</v>
+      </c>
+      <c r="H67" t="n">
         <v>507.6333333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>504</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>504</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2920,24 +3089,27 @@
         <v>1722.2808</v>
       </c>
       <c r="G68" t="n">
+        <v>507</v>
+      </c>
+      <c r="H68" t="n">
         <v>507.7833333333334</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>504</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>504</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2961,24 +3133,27 @@
         <v>218.1143</v>
       </c>
       <c r="G69" t="n">
+        <v>507.1333333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>507.8833333333333</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>504</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>504</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3002,24 +3177,27 @@
         <v>148.7353</v>
       </c>
       <c r="G70" t="n">
+        <v>507.7333333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>508</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>504</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>504</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3043,24 +3221,27 @@
         <v>2445.456365877712</v>
       </c>
       <c r="G71" t="n">
+        <v>507.7333333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>507.9666666666666</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>504</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>504</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3084,24 +3265,27 @@
         <v>481.7978</v>
       </c>
       <c r="G72" t="n">
+        <v>506.8666666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>507.8</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>504</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>504</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3125,24 +3309,29 @@
         <v>5960.6041</v>
       </c>
       <c r="G73" t="n">
+        <v>506.4</v>
+      </c>
+      <c r="H73" t="n">
         <v>507.5833333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="n">
-        <v>504</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+        <v>501</v>
+      </c>
+      <c r="L73" t="n">
+        <v>504</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3166,24 +3355,27 @@
         <v>3.92156862745098</v>
       </c>
       <c r="G74" t="n">
+        <v>505.9333333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>507.3833333333333</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>504</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>504</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3207,24 +3399,27 @@
         <v>1</v>
       </c>
       <c r="G75" t="n">
+        <v>506.1333333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>507.4166666666667</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>504</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>504</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,24 +3443,27 @@
         <v>4017.7926</v>
       </c>
       <c r="G76" t="n">
+        <v>506.3333333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>507.3333333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>504</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>504</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3289,24 +3487,27 @@
         <v>742.1592000000001</v>
       </c>
       <c r="G77" t="n">
+        <v>506.0666666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>507.2833333333334</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>504</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>504</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3330,24 +3531,27 @@
         <v>7</v>
       </c>
       <c r="G78" t="n">
+        <v>506</v>
+      </c>
+      <c r="H78" t="n">
         <v>507.0833333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>504</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>504</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3371,24 +3575,27 @@
         <v>50</v>
       </c>
       <c r="G79" t="n">
+        <v>505.9333333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>506.8833333333333</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>504</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>504</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3412,24 +3619,27 @@
         <v>100</v>
       </c>
       <c r="G80" t="n">
+        <v>505.8666666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>506.9166666666667</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>504</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>504</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3453,24 +3663,27 @@
         <v>218.1144</v>
       </c>
       <c r="G81" t="n">
+        <v>505.6</v>
+      </c>
+      <c r="H81" t="n">
         <v>506.6</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>504</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>504</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3494,24 +3707,29 @@
         <v>3928.146</v>
       </c>
       <c r="G82" t="n">
+        <v>505.4666666666666</v>
+      </c>
+      <c r="H82" t="n">
         <v>506.3666666666667</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="n">
-        <v>504</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+        <v>503</v>
+      </c>
+      <c r="L82" t="n">
+        <v>504</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3535,24 +3753,27 @@
         <v>1052.7</v>
       </c>
       <c r="G83" t="n">
+        <v>505.4666666666666</v>
+      </c>
+      <c r="H83" t="n">
         <v>506.15</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>504</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>504</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3576,24 +3797,27 @@
         <v>2258.3007</v>
       </c>
       <c r="G84" t="n">
+        <v>505.7333333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>506.0166666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>504</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>504</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3617,24 +3841,27 @@
         <v>2.3235</v>
       </c>
       <c r="G85" t="n">
+        <v>506</v>
+      </c>
+      <c r="H85" t="n">
         <v>505.8833333333333</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>504</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>504</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3658,24 +3885,27 @@
         <v>485.4541</v>
       </c>
       <c r="G86" t="n">
+        <v>506.4</v>
+      </c>
+      <c r="H86" t="n">
         <v>505.8833333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>504</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>504</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3699,24 +3929,27 @@
         <v>801.408</v>
       </c>
       <c r="G87" t="n">
+        <v>507.0666666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>505.8666666666667</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>504</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>504</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3740,24 +3973,27 @@
         <v>1243.3523</v>
       </c>
       <c r="G88" t="n">
+        <v>507.8666666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>505.85</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>504</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>504</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3781,24 +4017,27 @@
         <v>725.9853000000001</v>
       </c>
       <c r="G89" t="n">
+        <v>507.8666666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>505.6833333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>504</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>504</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3822,24 +4061,27 @@
         <v>50</v>
       </c>
       <c r="G90" t="n">
+        <v>508.1333333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>505.55</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>504</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>504</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3863,24 +4105,27 @@
         <v>50</v>
       </c>
       <c r="G91" t="n">
+        <v>508.7333333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>505.3833333333333</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>504</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>504</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3904,24 +4149,27 @@
         <v>813.9852</v>
       </c>
       <c r="G92" t="n">
+        <v>509.3333333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>505.2</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>504</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>504</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3945,24 +4193,27 @@
         <v>2069.5922</v>
       </c>
       <c r="G93" t="n">
+        <v>509.5333333333334</v>
+      </c>
+      <c r="H93" t="n">
         <v>505.0333333333334</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>504</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>504</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3986,24 +4237,29 @@
         <v>810.8011</v>
       </c>
       <c r="G94" t="n">
+        <v>509.6666666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>504.9833333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="n">
-        <v>504</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+        <v>510</v>
+      </c>
+      <c r="L94" t="n">
+        <v>504</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4027,24 +4283,29 @@
         <v>736.9841</v>
       </c>
       <c r="G95" t="n">
+        <v>509.8666666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>504.95</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="n">
-        <v>504</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+        <v>509</v>
+      </c>
+      <c r="L95" t="n">
+        <v>504</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4068,24 +4329,29 @@
         <v>287.2882</v>
       </c>
       <c r="G96" t="n">
+        <v>510.3333333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>504.9666666666666</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="n">
-        <v>504</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+        <v>510</v>
+      </c>
+      <c r="L96" t="n">
+        <v>504</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4109,24 +4375,29 @@
         <v>364.2805</v>
       </c>
       <c r="G97" t="n">
+        <v>510.3333333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>505</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="n">
-        <v>504</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+        <v>510</v>
+      </c>
+      <c r="L97" t="n">
+        <v>504</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4150,24 +4421,29 @@
         <v>474.7332</v>
       </c>
       <c r="G98" t="n">
+        <v>510.2666666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>505.05</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="n">
-        <v>504</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+        <v>507</v>
+      </c>
+      <c r="L98" t="n">
+        <v>504</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4191,24 +4467,29 @@
         <v>1.0088</v>
       </c>
       <c r="G99" t="n">
+        <v>509.9333333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>505.1666666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="n">
-        <v>504</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+        <v>506</v>
+      </c>
+      <c r="L99" t="n">
+        <v>504</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4232,24 +4513,29 @@
         <v>331.0639</v>
       </c>
       <c r="G100" t="n">
+        <v>509.6666666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>505.3166666666667</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="n">
-        <v>504</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+        <v>507</v>
+      </c>
+      <c r="L100" t="n">
+        <v>504</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,24 +4559,29 @@
         <v>62.7796</v>
       </c>
       <c r="G101" t="n">
+        <v>509.4</v>
+      </c>
+      <c r="H101" t="n">
         <v>505.5666666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="n">
-        <v>504</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+        <v>509</v>
+      </c>
+      <c r="L101" t="n">
+        <v>504</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,24 +4605,29 @@
         <v>369.545</v>
       </c>
       <c r="G102" t="n">
+        <v>509.3333333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>505.8166666666667</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="n">
-        <v>504</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+        <v>509</v>
+      </c>
+      <c r="L102" t="n">
+        <v>504</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4355,24 +4651,29 @@
         <v>1746.6871</v>
       </c>
       <c r="G103" t="n">
+        <v>508.8</v>
+      </c>
+      <c r="H103" t="n">
         <v>505.95</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="n">
-        <v>504</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+        <v>510</v>
+      </c>
+      <c r="L103" t="n">
+        <v>504</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4396,24 +4697,29 @@
         <v>1</v>
       </c>
       <c r="G104" t="n">
+        <v>508.7333333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>506.1833333333333</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="n">
-        <v>504</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+        <v>503</v>
+      </c>
+      <c r="L104" t="n">
+        <v>504</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4437,24 +4743,29 @@
         <v>826.7125</v>
       </c>
       <c r="G105" t="n">
+        <v>508.1333333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>506.3</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="n">
-        <v>504</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+        <v>509</v>
+      </c>
+      <c r="L105" t="n">
+        <v>504</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4478,24 +4789,29 @@
         <v>11.4387</v>
       </c>
       <c r="G106" t="n">
+        <v>507.6666666666667</v>
+      </c>
+      <c r="H106" t="n">
         <v>506.3333333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="n">
-        <v>504</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+        <v>503</v>
+      </c>
+      <c r="L106" t="n">
+        <v>504</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4519,24 +4835,27 @@
         <v>1.0019</v>
       </c>
       <c r="G107" t="n">
+        <v>507.4666666666666</v>
+      </c>
+      <c r="H107" t="n">
         <v>506.55</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>504</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>504</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4560,24 +4879,27 @@
         <v>1857.04</v>
       </c>
       <c r="G108" t="n">
+        <v>506.9333333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>506.6333333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>504</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>504</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4604,21 +4926,24 @@
         <v>506.8</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>506.8</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>504</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>504</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4642,24 +4967,27 @@
         <v>1295.5998</v>
       </c>
       <c r="G110" t="n">
+        <v>506.6666666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>506.9833333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>504</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>504</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,24 +5011,27 @@
         <v>990.9521999999999</v>
       </c>
       <c r="G111" t="n">
+        <v>506.6</v>
+      </c>
+      <c r="H111" t="n">
         <v>507.15</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>504</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>504</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4724,24 +5055,27 @@
         <v>14.6133</v>
       </c>
       <c r="G112" t="n">
+        <v>506.4666666666666</v>
+      </c>
+      <c r="H112" t="n">
         <v>507.2666666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>504</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>504</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4765,24 +5099,27 @@
         <v>14.6133</v>
       </c>
       <c r="G113" t="n">
+        <v>506.6666666666667</v>
+      </c>
+      <c r="H113" t="n">
         <v>507.35</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>504</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>504</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4806,24 +5143,27 @@
         <v>64.76609999999999</v>
       </c>
       <c r="G114" t="n">
+        <v>506.5333333333334</v>
+      </c>
+      <c r="H114" t="n">
         <v>507.3333333333333</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>504</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>504</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4847,24 +5187,27 @@
         <v>5809.7914</v>
       </c>
       <c r="G115" t="n">
+        <v>506.2</v>
+      </c>
+      <c r="H115" t="n">
         <v>507.4</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>504</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>504</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4888,24 +5231,27 @@
         <v>352.5557</v>
       </c>
       <c r="G116" t="n">
+        <v>506.0666666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>507.4</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>504</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>504</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4929,24 +5275,27 @@
         <v>5191.0867</v>
       </c>
       <c r="G117" t="n">
+        <v>505.8666666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>507.2833333333334</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>504</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>504</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4970,24 +5319,27 @@
         <v>930.7911</v>
       </c>
       <c r="G118" t="n">
+        <v>505.7333333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>507.2</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>504</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>504</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5011,24 +5363,27 @@
         <v>5647.2578</v>
       </c>
       <c r="G119" t="n">
+        <v>505.1333333333333</v>
+      </c>
+      <c r="H119" t="n">
         <v>506.9166666666667</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>504</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>504</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5052,24 +5407,27 @@
         <v>8470.4414</v>
       </c>
       <c r="G120" t="n">
+        <v>505.4</v>
+      </c>
+      <c r="H120" t="n">
         <v>506.95</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>504</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>504</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5093,24 +5451,27 @@
         <v>67.3653</v>
       </c>
       <c r="G121" t="n">
+        <v>505.6666666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>507.1</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>504</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>504</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5134,24 +5495,27 @@
         <v>479.6104</v>
       </c>
       <c r="G122" t="n">
+        <v>505.6666666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>507.1333333333333</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>504</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>504</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5175,24 +5539,27 @@
         <v>137.2752</v>
       </c>
       <c r="G123" t="n">
+        <v>506</v>
+      </c>
+      <c r="H123" t="n">
         <v>507.1166666666667</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>504</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>504</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5216,24 +5583,27 @@
         <v>1202.2336</v>
       </c>
       <c r="G124" t="n">
+        <v>506.2</v>
+      </c>
+      <c r="H124" t="n">
         <v>507.15</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>504</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>504</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5257,24 +5627,27 @@
         <v>9647.730100000001</v>
       </c>
       <c r="G125" t="n">
+        <v>506.4666666666666</v>
+      </c>
+      <c r="H125" t="n">
         <v>507.2166666666666</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>504</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>504</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5298,24 +5671,27 @@
         <v>2281.775</v>
       </c>
       <c r="G126" t="n">
+        <v>507.2</v>
+      </c>
+      <c r="H126" t="n">
         <v>507.4333333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>504</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>504</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5339,24 +5715,27 @@
         <v>1081.6187</v>
       </c>
       <c r="G127" t="n">
+        <v>508.6666666666667</v>
+      </c>
+      <c r="H127" t="n">
         <v>507.7333333333333</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>504</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>504</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5380,25 +5759,28 @@
         <v>5421.5872</v>
       </c>
       <c r="G128" t="n">
+        <v>509.8666666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>508.0666666666667</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
-        <v>1</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>504</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1.040634920634921</v>
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>504</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -5421,18 +5803,27 @@
         <v>7918.3561</v>
       </c>
       <c r="G129" t="n">
+        <v>511.4</v>
+      </c>
+      <c r="H129" t="n">
         <v>508.4</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
-        <v>1</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>504</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5456,18 +5847,27 @@
         <v>138.3876</v>
       </c>
       <c r="G130" t="n">
+        <v>513.0666666666667</v>
+      </c>
+      <c r="H130" t="n">
         <v>508.7333333333333</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="L130" t="n">
+        <v>504</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5491,18 +5891,27 @@
         <v>2491.3421</v>
       </c>
       <c r="G131" t="n">
+        <v>514.8</v>
+      </c>
+      <c r="H131" t="n">
         <v>509.1666666666667</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="L131" t="n">
+        <v>504</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5526,18 +5935,27 @@
         <v>135.9908</v>
       </c>
       <c r="G132" t="n">
+        <v>516.6</v>
+      </c>
+      <c r="H132" t="n">
         <v>509.7166666666666</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>504</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5561,18 +5979,27 @@
         <v>157.5878</v>
       </c>
       <c r="G133" t="n">
+        <v>518.8666666666667</v>
+      </c>
+      <c r="H133" t="n">
         <v>510.3166666666667</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>504</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5596,18 +6023,27 @@
         <v>1433.1764</v>
       </c>
       <c r="G134" t="n">
+        <v>521.8666666666667</v>
+      </c>
+      <c r="H134" t="n">
         <v>510.9</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>504</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5631,18 +6067,27 @@
         <v>84.11920000000001</v>
       </c>
       <c r="G135" t="n">
+        <v>524.3333333333334</v>
+      </c>
+      <c r="H135" t="n">
         <v>511.5</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>504</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5666,18 +6111,27 @@
         <v>254.8247</v>
       </c>
       <c r="G136" t="n">
+        <v>526.6666666666666</v>
+      </c>
+      <c r="H136" t="n">
         <v>512.1833333333333</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>504</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,18 +6155,27 @@
         <v>1503.129</v>
       </c>
       <c r="G137" t="n">
+        <v>528.3333333333334</v>
+      </c>
+      <c r="H137" t="n">
         <v>512.7</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>504</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5736,18 +6199,27 @@
         <v>680.5788</v>
       </c>
       <c r="G138" t="n">
+        <v>529.8666666666667</v>
+      </c>
+      <c r="H138" t="n">
         <v>513.0833333333334</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>504</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5771,18 +6243,27 @@
         <v>2661.9591</v>
       </c>
       <c r="G139" t="n">
+        <v>531.2</v>
+      </c>
+      <c r="H139" t="n">
         <v>513.4666666666667</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>504</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5806,18 +6287,27 @@
         <v>3337.0589</v>
       </c>
       <c r="G140" t="n">
+        <v>532.4666666666667</v>
+      </c>
+      <c r="H140" t="n">
         <v>513.8666666666667</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>504</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5841,18 +6331,27 @@
         <v>2</v>
       </c>
       <c r="G141" t="n">
+        <v>533.8666666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>514.5</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>504</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5876,18 +6375,27 @@
         <v>183.9899</v>
       </c>
       <c r="G142" t="n">
+        <v>534.9333333333333</v>
+      </c>
+      <c r="H142" t="n">
         <v>515.1</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>504</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5911,18 +6419,27 @@
         <v>1951.7305</v>
       </c>
       <c r="G143" t="n">
+        <v>535.9333333333333</v>
+      </c>
+      <c r="H143" t="n">
         <v>515.6833333333333</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>504</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5946,19 +6463,28 @@
         <v>363.7749</v>
       </c>
       <c r="G144" t="n">
+        <v>536.8666666666667</v>
+      </c>
+      <c r="H144" t="n">
         <v>516.1833333333333</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
+      <c r="L144" t="n">
+        <v>504</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>1.070396825396825</v>
       </c>
     </row>
     <row r="145">
@@ -5981,18 +6507,21 @@
         <v>89.11799999999999</v>
       </c>
       <c r="G145" t="n">
+        <v>537.1333333333333</v>
+      </c>
+      <c r="H145" t="n">
         <v>516.5166666666667</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6016,18 +6545,21 @@
         <v>183.7044</v>
       </c>
       <c r="G146" t="n">
+        <v>537.0666666666667</v>
+      </c>
+      <c r="H146" t="n">
         <v>516.8333333333334</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6051,18 +6583,21 @@
         <v>2175.575</v>
       </c>
       <c r="G147" t="n">
+        <v>536.8666666666667</v>
+      </c>
+      <c r="H147" t="n">
         <v>517.1666666666666</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6086,18 +6621,21 @@
         <v>3999.246</v>
       </c>
       <c r="G148" t="n">
+        <v>536.6</v>
+      </c>
+      <c r="H148" t="n">
         <v>517.5</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6121,18 +6659,21 @@
         <v>1</v>
       </c>
       <c r="G149" t="n">
+        <v>536.0666666666667</v>
+      </c>
+      <c r="H149" t="n">
         <v>517.95</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6156,18 +6697,21 @@
         <v>74.14149999999999</v>
       </c>
       <c r="G150" t="n">
+        <v>535.4666666666667</v>
+      </c>
+      <c r="H150" t="n">
         <v>518.3333333333334</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6191,18 +6735,21 @@
         <v>1</v>
       </c>
       <c r="G151" t="n">
+        <v>535</v>
+      </c>
+      <c r="H151" t="n">
         <v>518.75</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6226,18 +6773,21 @@
         <v>724.5876</v>
       </c>
       <c r="G152" t="n">
+        <v>535.2666666666667</v>
+      </c>
+      <c r="H152" t="n">
         <v>519.1833333333333</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6261,18 +6811,21 @@
         <v>41.3976</v>
       </c>
       <c r="G153" t="n">
+        <v>535.6666666666666</v>
+      </c>
+      <c r="H153" t="n">
         <v>519.6166666666667</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>1</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6296,18 +6849,401 @@
         <v>2000</v>
       </c>
       <c r="G154" t="n">
+        <v>536</v>
+      </c>
+      <c r="H154" t="n">
         <v>520.05</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>1</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>535</v>
+      </c>
+      <c r="C155" t="n">
+        <v>535</v>
+      </c>
+      <c r="D155" t="n">
+        <v>535</v>
+      </c>
+      <c r="E155" t="n">
+        <v>535</v>
+      </c>
+      <c r="F155" t="n">
+        <v>3.2276</v>
+      </c>
+      <c r="G155" t="n">
+        <v>536.2666666666667</v>
+      </c>
+      <c r="H155" t="n">
+        <v>520.4666666666667</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>535</v>
+      </c>
+      <c r="C156" t="n">
+        <v>530</v>
+      </c>
+      <c r="D156" t="n">
+        <v>535</v>
+      </c>
+      <c r="E156" t="n">
+        <v>530</v>
+      </c>
+      <c r="F156" t="n">
+        <v>7022.4757</v>
+      </c>
+      <c r="G156" t="n">
+        <v>535.5333333333333</v>
+      </c>
+      <c r="H156" t="n">
+        <v>520.8</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>530</v>
+      </c>
+      <c r="C157" t="n">
+        <v>530</v>
+      </c>
+      <c r="D157" t="n">
+        <v>530</v>
+      </c>
+      <c r="E157" t="n">
+        <v>530</v>
+      </c>
+      <c r="F157" t="n">
+        <v>668.0086</v>
+      </c>
+      <c r="G157" t="n">
+        <v>534.6666666666666</v>
+      </c>
+      <c r="H157" t="n">
+        <v>521.1833333333333</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>530</v>
+      </c>
+      <c r="C158" t="n">
+        <v>533</v>
+      </c>
+      <c r="D158" t="n">
+        <v>533</v>
+      </c>
+      <c r="E158" t="n">
+        <v>530</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1333.8383</v>
+      </c>
+      <c r="G158" t="n">
+        <v>534.0666666666667</v>
+      </c>
+      <c r="H158" t="n">
+        <v>521.6333333333333</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>533</v>
+      </c>
+      <c r="C159" t="n">
+        <v>533</v>
+      </c>
+      <c r="D159" t="n">
+        <v>533</v>
+      </c>
+      <c r="E159" t="n">
+        <v>533</v>
+      </c>
+      <c r="F159" t="n">
+        <v>416.075</v>
+      </c>
+      <c r="G159" t="n">
+        <v>533.4666666666667</v>
+      </c>
+      <c r="H159" t="n">
+        <v>522.0666666666667</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>533</v>
+      </c>
+      <c r="C160" t="n">
+        <v>533</v>
+      </c>
+      <c r="D160" t="n">
+        <v>533</v>
+      </c>
+      <c r="E160" t="n">
+        <v>533</v>
+      </c>
+      <c r="F160" t="n">
+        <v>368.7</v>
+      </c>
+      <c r="G160" t="n">
+        <v>533.4666666666667</v>
+      </c>
+      <c r="H160" t="n">
+        <v>522.4666666666667</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>534</v>
+      </c>
+      <c r="C161" t="n">
+        <v>534</v>
+      </c>
+      <c r="D161" t="n">
+        <v>534</v>
+      </c>
+      <c r="E161" t="n">
+        <v>534</v>
+      </c>
+      <c r="F161" t="n">
+        <v>351.5834</v>
+      </c>
+      <c r="G161" t="n">
+        <v>533.6</v>
+      </c>
+      <c r="H161" t="n">
+        <v>522.8833333333333</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>535</v>
+      </c>
+      <c r="C162" t="n">
+        <v>535</v>
+      </c>
+      <c r="D162" t="n">
+        <v>535</v>
+      </c>
+      <c r="E162" t="n">
+        <v>535</v>
+      </c>
+      <c r="F162" t="n">
+        <v>370.0878</v>
+      </c>
+      <c r="G162" t="n">
+        <v>533.8666666666667</v>
+      </c>
+      <c r="H162" t="n">
+        <v>523.3</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>533</v>
+      </c>
+      <c r="C163" t="n">
+        <v>533</v>
+      </c>
+      <c r="D163" t="n">
+        <v>533</v>
+      </c>
+      <c r="E163" t="n">
+        <v>533</v>
+      </c>
+      <c r="F163" t="n">
+        <v>183.5299</v>
+      </c>
+      <c r="G163" t="n">
+        <v>534</v>
+      </c>
+      <c r="H163" t="n">
+        <v>523.8</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>533</v>
+      </c>
+      <c r="C164" t="n">
+        <v>530</v>
+      </c>
+      <c r="D164" t="n">
+        <v>533</v>
+      </c>
+      <c r="E164" t="n">
+        <v>530</v>
+      </c>
+      <c r="F164" t="n">
+        <v>481.235</v>
+      </c>
+      <c r="G164" t="n">
+        <v>533.5333333333333</v>
+      </c>
+      <c r="H164" t="n">
+        <v>524.15</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-27 BackTest VALOR.xlsx
+++ b/BackTest/2019-10-27 BackTest VALOR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M193"/>
+  <dimension ref="A1:N151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,34 +427,39 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="C2" t="n">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="D2" t="n">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="E2" t="n">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="F2" t="n">
-        <v>9.975</v>
+        <v>142.1985</v>
       </c>
       <c r="G2" t="n">
-        <v>-44938.04128848921</v>
+        <v>513.3333333333334</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,34 +467,35 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C3" t="n">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D3" t="n">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="E3" t="n">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F3" t="n">
-        <v>3560.8344</v>
+        <v>220.1315</v>
       </c>
       <c r="G3" t="n">
-        <v>-48498.87568848921</v>
+        <v>511.3333333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,34 +503,35 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C4" t="n">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="D4" t="n">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="E4" t="n">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="F4" t="n">
-        <v>882.1882000000001</v>
+        <v>301.3715</v>
       </c>
       <c r="G4" t="n">
-        <v>-48498.87568848921</v>
+        <v>505.3333333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,34 +539,35 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C5" t="n">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="D5" t="n">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="E5" t="n">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="F5" t="n">
-        <v>263.3376</v>
+        <v>4681.4019</v>
       </c>
       <c r="G5" t="n">
-        <v>-48498.87568848921</v>
+        <v>509.6666666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,34 +575,35 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="C6" t="n">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="D6" t="n">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="E6" t="n">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="F6" t="n">
-        <v>701.0453</v>
+        <v>2.1213</v>
       </c>
       <c r="G6" t="n">
-        <v>-48498.87568848921</v>
+        <v>514</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C7" t="n">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="D7" t="n">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="E7" t="n">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="F7" t="n">
-        <v>469.1188</v>
+        <v>321.9065</v>
       </c>
       <c r="G7" t="n">
-        <v>-48498.87568848921</v>
+        <v>514.3333333333334</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,34 +647,35 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="C8" t="n">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="D8" t="n">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="E8" t="n">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>1005.698868773946</v>
       </c>
       <c r="G8" t="n">
-        <v>-48498.87568848921</v>
+        <v>515.3333333333334</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,34 +683,35 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C9" t="n">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D9" t="n">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E9" t="n">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>313.5556</v>
       </c>
       <c r="G9" t="n">
-        <v>-48495.87568848921</v>
+        <v>516</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,34 +719,35 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="C10" t="n">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="D10" t="n">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="E10" t="n">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="F10" t="n">
-        <v>921.9818</v>
+        <v>397.6143</v>
       </c>
       <c r="G10" t="n">
-        <v>-49417.85748848921</v>
+        <v>521</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,34 +755,35 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C11" t="n">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D11" t="n">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E11" t="n">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F11" t="n">
-        <v>2.8285</v>
+        <v>602.3857</v>
       </c>
       <c r="G11" t="n">
-        <v>-49415.0289884892</v>
+        <v>520.3333333333334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,34 +791,35 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C12" t="n">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D12" t="n">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E12" t="n">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F12" t="n">
-        <v>2.0837</v>
+        <v>1.1489</v>
       </c>
       <c r="G12" t="n">
-        <v>-49415.0289884892</v>
+        <v>520.3333333333334</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,34 +827,35 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C13" t="n">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D13" t="n">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="E13" t="n">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F13" t="n">
-        <v>1575.3509</v>
+        <v>175.3855</v>
       </c>
       <c r="G13" t="n">
-        <v>-50990.3798884892</v>
+        <v>518</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C14" t="n">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D14" t="n">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E14" t="n">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>19.4459</v>
       </c>
       <c r="G14" t="n">
-        <v>-51000.3798884892</v>
+        <v>515.3333333333334</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C15" t="n">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="D15" t="n">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="E15" t="n">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="F15" t="n">
-        <v>937.2</v>
+        <v>56.0694</v>
       </c>
       <c r="G15" t="n">
-        <v>-51937.5798884892</v>
+        <v>512.3333333333334</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="C16" t="n">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="D16" t="n">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="E16" t="n">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="F16" t="n">
-        <v>1.9876</v>
+        <v>110.971</v>
       </c>
       <c r="G16" t="n">
-        <v>-51935.5922884892</v>
+        <v>514.6666666666666</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="C17" t="n">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="D17" t="n">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="E17" t="n">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F17" t="n">
-        <v>166.9191</v>
+        <v>1353.0187</v>
       </c>
       <c r="G17" t="n">
-        <v>-52102.5113884892</v>
+        <v>517.3333333333334</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="C18" t="n">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="D18" t="n">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="E18" t="n">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F18" t="n">
-        <v>995.4235</v>
+        <v>238.8468</v>
       </c>
       <c r="G18" t="n">
-        <v>-52102.5113884892</v>
+        <v>520</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="C19" t="n">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="D19" t="n">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="E19" t="n">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="F19" t="n">
-        <v>120.0579</v>
+        <v>2.3262</v>
       </c>
       <c r="G19" t="n">
-        <v>-52222.5692884892</v>
+        <v>520.3333333333334</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="C20" t="n">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="D20" t="n">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="E20" t="n">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F20" t="n">
-        <v>36.1137</v>
+        <v>61.1532</v>
       </c>
       <c r="G20" t="n">
-        <v>-52186.4555884892</v>
+        <v>520.3333333333334</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="C21" t="n">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="D21" t="n">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="E21" t="n">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="F21" t="n">
-        <v>1.741</v>
+        <v>1664.0758</v>
       </c>
       <c r="G21" t="n">
-        <v>-52184.71458848919</v>
+        <v>517.6666666666666</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="C22" t="n">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="D22" t="n">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="E22" t="n">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="F22" t="n">
-        <v>1.5669</v>
+        <v>741.9627</v>
       </c>
       <c r="G22" t="n">
-        <v>-52184.71458848919</v>
+        <v>514.6666666666666</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="C23" t="n">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="D23" t="n">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="E23" t="n">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>3710.3173</v>
       </c>
       <c r="G23" t="n">
-        <v>-52184.71458848919</v>
+        <v>511</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C24" t="n">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D24" t="n">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E24" t="n">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>301.3675</v>
       </c>
       <c r="G24" t="n">
-        <v>-52186.71458848919</v>
+        <v>508.6666666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C25" t="n">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D25" t="n">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E25" t="n">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F25" t="n">
-        <v>995.7152</v>
+        <v>519.9666</v>
       </c>
       <c r="G25" t="n">
-        <v>-52186.71458848919</v>
+        <v>505.6666666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="C26" t="n">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="D26" t="n">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="E26" t="n">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="F26" t="n">
-        <v>3387.2463</v>
+        <v>7423.8066</v>
       </c>
       <c r="G26" t="n">
-        <v>-52186.71458848919</v>
+        <v>502.6666666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="C27" t="n">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="D27" t="n">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="E27" t="n">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="F27" t="n">
-        <v>1.9765</v>
+        <v>33.2331</v>
       </c>
       <c r="G27" t="n">
-        <v>-52184.7380884892</v>
+        <v>501</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="C28" t="n">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="D28" t="n">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="F28" t="n">
-        <v>50</v>
+        <v>3472.5643</v>
       </c>
       <c r="G28" t="n">
-        <v>-52184.7380884892</v>
+        <v>498</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="C29" t="n">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="D29" t="n">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="E29" t="n">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="F29" t="n">
-        <v>3.8788</v>
+        <v>103.4322</v>
       </c>
       <c r="G29" t="n">
-        <v>-52184.7380884892</v>
+        <v>496.3333333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="C30" t="n">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="D30" t="n">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="E30" t="n">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="F30" t="n">
-        <v>1641.9261</v>
+        <v>3075.0746</v>
       </c>
       <c r="G30" t="n">
-        <v>-53826.66418848919</v>
+        <v>494.6666666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="C31" t="n">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="D31" t="n">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="E31" t="n">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="F31" t="n">
-        <v>1562.49</v>
+        <v>65.50490000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>-55389.15418848919</v>
+        <v>495</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C32" t="n">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D32" t="n">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="E32" t="n">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F32" t="n">
-        <v>2403.6272</v>
+        <v>415.3717</v>
       </c>
       <c r="G32" t="n">
-        <v>-57792.78138848919</v>
+        <v>495.3333333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1530,10 +1566,10 @@
         <v>501</v>
       </c>
       <c r="F33" t="n">
-        <v>14.9625</v>
+        <v>1.8143</v>
       </c>
       <c r="G33" t="n">
-        <v>-57792.78138848919</v>
+        <v>497.3333333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C34" t="n">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="D34" t="n">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="E34" t="n">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="F34" t="n">
-        <v>1171.3651</v>
+        <v>1305.7472</v>
       </c>
       <c r="G34" t="n">
-        <v>-57792.78138848919</v>
+        <v>497</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C35" t="n">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D35" t="n">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E35" t="n">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F35" t="n">
-        <v>181.2113</v>
+        <v>2711.5455</v>
       </c>
       <c r="G35" t="n">
-        <v>-57792.78138848919</v>
+        <v>497.3333333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C36" t="n">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D36" t="n">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E36" t="n">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F36" t="n">
-        <v>1029.1667</v>
+        <v>4694.4813</v>
       </c>
       <c r="G36" t="n">
-        <v>-57792.78138848919</v>
+        <v>496</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C37" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D37" t="n">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E37" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F37" t="n">
-        <v>712.1743</v>
+        <v>1442.3912</v>
       </c>
       <c r="G37" t="n">
-        <v>-58504.95568848919</v>
+        <v>497</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C38" t="n">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D38" t="n">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E38" t="n">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F38" t="n">
-        <v>1.4721</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>-58503.48358848919</v>
+        <v>497.6666666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C39" t="n">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D39" t="n">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="E39" t="n">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F39" t="n">
-        <v>3168.5279</v>
+        <v>146.084</v>
       </c>
       <c r="G39" t="n">
-        <v>-58503.48358848919</v>
+        <v>498</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="C40" t="n">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D40" t="n">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E40" t="n">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="F40" t="n">
-        <v>140.2809</v>
+        <v>98.2816</v>
       </c>
       <c r="G40" t="n">
-        <v>-58363.2026884892</v>
+        <v>500.3333333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C41" t="n">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D41" t="n">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F41" t="n">
-        <v>1.3015</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>-58361.9011884892</v>
+        <v>502.6666666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C42" t="n">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="D42" t="n">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="E42" t="n">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="F42" t="n">
-        <v>531.8034</v>
+        <v>2.1972</v>
       </c>
       <c r="G42" t="n">
-        <v>-57830.0977884892</v>
+        <v>503.3333333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="C43" t="n">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="D43" t="n">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="E43" t="n">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="F43" t="n">
-        <v>2.9315</v>
+        <v>27</v>
       </c>
       <c r="G43" t="n">
-        <v>-57827.1662884892</v>
+        <v>504.3333333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1906,19 +1953,19 @@
         <v>506</v>
       </c>
       <c r="C44" t="n">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="D44" t="n">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="E44" t="n">
         <v>506</v>
       </c>
       <c r="F44" t="n">
-        <v>142.1985</v>
+        <v>146.0011</v>
       </c>
       <c r="G44" t="n">
-        <v>-57969.3647884892</v>
+        <v>507</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1950,10 +1998,10 @@
         <v>506</v>
       </c>
       <c r="F45" t="n">
-        <v>220.1315</v>
+        <v>91.1726</v>
       </c>
       <c r="G45" t="n">
-        <v>-57969.3647884892</v>
+        <v>509</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="C46" t="n">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="D46" t="n">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="E46" t="n">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="F46" t="n">
-        <v>301.3715</v>
+        <v>51.0047</v>
       </c>
       <c r="G46" t="n">
-        <v>-58270.7362884892</v>
+        <v>512.3333333333334</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2011,19 +2061,19 @@
         <v>505</v>
       </c>
       <c r="C47" t="n">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="D47" t="n">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="E47" t="n">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="F47" t="n">
-        <v>4681.4019</v>
+        <v>40.596</v>
       </c>
       <c r="G47" t="n">
-        <v>-53589.3343884892</v>
+        <v>509.3333333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C48" t="n">
-        <v>519</v>
+        <v>498</v>
       </c>
       <c r="D48" t="n">
-        <v>519</v>
+        <v>500</v>
       </c>
       <c r="E48" t="n">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F48" t="n">
-        <v>2.1213</v>
+        <v>4233.5346</v>
       </c>
       <c r="G48" t="n">
-        <v>-53589.3343884892</v>
+        <v>506.6666666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,13 +2123,14 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C49" t="n">
         <v>505</v>
@@ -2087,13 +2139,13 @@
         <v>505</v>
       </c>
       <c r="E49" t="n">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F49" t="n">
-        <v>321.9065</v>
+        <v>633.6624</v>
       </c>
       <c r="G49" t="n">
-        <v>-53911.2408884892</v>
+        <v>502.6666666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="C50" t="n">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="D50" t="n">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="E50" t="n">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="F50" t="n">
-        <v>1005.698868773946</v>
+        <v>1.2933</v>
       </c>
       <c r="G50" t="n">
-        <v>-52905.54201971526</v>
+        <v>503.6666666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="C51" t="n">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="D51" t="n">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="E51" t="n">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="F51" t="n">
-        <v>313.5556</v>
+        <v>1208.7657</v>
       </c>
       <c r="G51" t="n">
-        <v>-53219.09761971526</v>
+        <v>507</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="C52" t="n">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="D52" t="n">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="E52" t="n">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="F52" t="n">
-        <v>397.6143</v>
+        <v>2</v>
       </c>
       <c r="G52" t="n">
-        <v>-53616.71191971526</v>
+        <v>508</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="C53" t="n">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="D53" t="n">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="E53" t="n">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="F53" t="n">
-        <v>602.3857</v>
+        <v>82</v>
       </c>
       <c r="G53" t="n">
-        <v>-53616.71191971526</v>
+        <v>507.6666666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="C54" t="n">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="D54" t="n">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="E54" t="n">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="F54" t="n">
-        <v>1.1489</v>
+        <v>5536.3259</v>
       </c>
       <c r="G54" t="n">
-        <v>-53615.56301971526</v>
+        <v>508</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C55" t="n">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="D55" t="n">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="E55" t="n">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F55" t="n">
-        <v>175.3855</v>
+        <v>1722.2808</v>
       </c>
       <c r="G55" t="n">
-        <v>-53790.94851971525</v>
+        <v>507.6666666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C56" t="n">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D56" t="n">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E56" t="n">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F56" t="n">
-        <v>19.4459</v>
+        <v>218.1143</v>
       </c>
       <c r="G56" t="n">
-        <v>-53810.39441971525</v>
+        <v>508</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C57" t="n">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D57" t="n">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E57" t="n">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="F57" t="n">
-        <v>56.0694</v>
+        <v>148.7353</v>
       </c>
       <c r="G57" t="n">
-        <v>-53810.39441971525</v>
+        <v>508</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="C58" t="n">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="D58" t="n">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="E58" t="n">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="F58" t="n">
-        <v>110.971</v>
+        <v>2445.456365877712</v>
       </c>
       <c r="G58" t="n">
-        <v>-53699.42341971525</v>
+        <v>508</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="C59" t="n">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="D59" t="n">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="E59" t="n">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="F59" t="n">
-        <v>1353.0187</v>
+        <v>481.7978</v>
       </c>
       <c r="G59" t="n">
-        <v>-53699.42341971525</v>
+        <v>505.6666666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="C60" t="n">
-        <v>520</v>
+        <v>499</v>
       </c>
       <c r="D60" t="n">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="E60" t="n">
-        <v>520</v>
+        <v>499</v>
       </c>
       <c r="F60" t="n">
-        <v>238.8468</v>
+        <v>5960.6041</v>
       </c>
       <c r="G60" t="n">
-        <v>-53699.42341971525</v>
+        <v>502.3333333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="C61" t="n">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="D61" t="n">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="E61" t="n">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="F61" t="n">
-        <v>2.3262</v>
+        <v>3.92156862745098</v>
       </c>
       <c r="G61" t="n">
-        <v>-53697.09721971525</v>
+        <v>503.3333333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="C62" t="n">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="D62" t="n">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="E62" t="n">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="F62" t="n">
-        <v>61.1532</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>-53758.25041971525</v>
+        <v>505.6666666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="C63" t="n">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="D63" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E63" t="n">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="F63" t="n">
-        <v>1664.0758</v>
+        <v>4017.7926</v>
       </c>
       <c r="G63" t="n">
-        <v>-55422.32621971525</v>
+        <v>506.3333333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="C64" t="n">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="D64" t="n">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="E64" t="n">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="F64" t="n">
-        <v>741.9627</v>
+        <v>742.1592000000001</v>
       </c>
       <c r="G64" t="n">
-        <v>-55422.32621971525</v>
+        <v>503.3333333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C65" t="n">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D65" t="n">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F65" t="n">
-        <v>3710.3173</v>
+        <v>7</v>
       </c>
       <c r="G65" t="n">
-        <v>-59132.64351971525</v>
+        <v>503</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,6 +2735,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2676,194 +2745,231 @@
         <v>507</v>
       </c>
       <c r="C66" t="n">
+        <v>507</v>
+      </c>
+      <c r="D66" t="n">
+        <v>507</v>
+      </c>
+      <c r="E66" t="n">
+        <v>507</v>
+      </c>
+      <c r="F66" t="n">
+        <v>50</v>
+      </c>
+      <c r="G66" t="n">
         <v>505</v>
       </c>
-      <c r="D66" t="n">
-        <v>507</v>
-      </c>
-      <c r="E66" t="n">
-        <v>505</v>
-      </c>
-      <c r="F66" t="n">
-        <v>301.3675</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-59434.01101971525</v>
-      </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>507</v>
+      </c>
+      <c r="K66" t="n">
+        <v>507</v>
+      </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C67" t="n">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D67" t="n">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="E67" t="n">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F67" t="n">
-        <v>519.9666</v>
+        <v>100</v>
       </c>
       <c r="G67" t="n">
-        <v>-59953.97761971525</v>
+        <v>507</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>507</v>
+      </c>
+      <c r="K67" t="n">
+        <v>507</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C68" t="n">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="D68" t="n">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="E68" t="n">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="F68" t="n">
-        <v>7423.8066</v>
+        <v>218.1144</v>
       </c>
       <c r="G68" t="n">
-        <v>-67377.78421971525</v>
+        <v>505.6666666666667</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>507</v>
+      </c>
+      <c r="K68" t="n">
+        <v>507</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="C69" t="n">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="D69" t="n">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="E69" t="n">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="F69" t="n">
-        <v>33.2331</v>
+        <v>3928.146</v>
       </c>
       <c r="G69" t="n">
-        <v>-67377.78421971525</v>
+        <v>505.6666666666667</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>503</v>
+      </c>
+      <c r="K69" t="n">
+        <v>503</v>
+      </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="C70" t="n">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="D70" t="n">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="E70" t="n">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="F70" t="n">
-        <v>3472.5643</v>
+        <v>1052.7</v>
       </c>
       <c r="G70" t="n">
-        <v>-70850.34851971525</v>
+        <v>505.6666666666667</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>507</v>
+      </c>
+      <c r="K70" t="n">
+        <v>503</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="C71" t="n">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="D71" t="n">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="E71" t="n">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="F71" t="n">
-        <v>103.4322</v>
+        <v>2258.3007</v>
       </c>
       <c r="G71" t="n">
-        <v>-70746.91631971525</v>
+        <v>508.6666666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2872,33 +2978,40 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>503</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="C72" t="n">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="D72" t="n">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="E72" t="n">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="F72" t="n">
-        <v>3075.0746</v>
+        <v>2.3235</v>
       </c>
       <c r="G72" t="n">
-        <v>-70746.91631971525</v>
+        <v>510.6666666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +3025,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="C73" t="n">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="D73" t="n">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="E73" t="n">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="F73" t="n">
-        <v>65.50490000000001</v>
+        <v>485.4541</v>
       </c>
       <c r="G73" t="n">
-        <v>-70746.91631971525</v>
+        <v>512.6666666666666</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3061,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="C74" t="n">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="D74" t="n">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="E74" t="n">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="F74" t="n">
-        <v>415.3717</v>
+        <v>801.408</v>
       </c>
       <c r="G74" t="n">
-        <v>-70331.54461971525</v>
+        <v>512.3333333333334</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3097,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="C75" t="n">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="D75" t="n">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="E75" t="n">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="F75" t="n">
-        <v>1.8143</v>
+        <v>1243.3523</v>
       </c>
       <c r="G75" t="n">
-        <v>-70329.73031971525</v>
+        <v>511.6666666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3133,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="C76" t="n">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="D76" t="n">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="E76" t="n">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="F76" t="n">
-        <v>1305.7472</v>
+        <v>725.9853000000001</v>
       </c>
       <c r="G76" t="n">
-        <v>-71635.47751971525</v>
+        <v>510.6666666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,168 +3169,197 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="C77" t="n">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="D77" t="n">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="E77" t="n">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="F77" t="n">
-        <v>2711.5455</v>
+        <v>50</v>
       </c>
       <c r="G77" t="n">
-        <v>-68923.93201971526</v>
+        <v>511</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>510</v>
+      </c>
+      <c r="K77" t="n">
+        <v>510</v>
+      </c>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="C78" t="n">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="D78" t="n">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="E78" t="n">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="F78" t="n">
-        <v>4694.4813</v>
+        <v>50</v>
       </c>
       <c r="G78" t="n">
-        <v>-68923.93201971526</v>
+        <v>510.6666666666667</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>512</v>
+      </c>
+      <c r="K78" t="n">
+        <v>510</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="C79" t="n">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="D79" t="n">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="E79" t="n">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="F79" t="n">
-        <v>1442.3912</v>
+        <v>813.9852</v>
       </c>
       <c r="G79" t="n">
-        <v>-68923.93201971526</v>
+        <v>510.6666666666667</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>510</v>
+      </c>
+      <c r="K79" t="n">
+        <v>510</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="C80" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="D80" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="E80" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>2069.5922</v>
       </c>
       <c r="G80" t="n">
-        <v>-68922.93201971526</v>
+        <v>510</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>510</v>
+      </c>
+      <c r="K80" t="n">
+        <v>510</v>
+      </c>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="C81" t="n">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="D81" t="n">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="E81" t="n">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="F81" t="n">
-        <v>146.084</v>
+        <v>810.8011</v>
       </c>
       <c r="G81" t="n">
-        <v>-69069.01601971526</v>
+        <v>509.6666666666667</v>
       </c>
       <c r="H81" t="n">
         <v>1</v>
@@ -3222,37 +3368,42 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="K81" t="n">
-        <v>499</v>
-      </c>
-      <c r="L81" t="inlineStr"/>
+        <v>510</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="C82" t="n">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="D82" t="n">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="E82" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="F82" t="n">
-        <v>98.2816</v>
+        <v>736.9841</v>
       </c>
       <c r="G82" t="n">
-        <v>-68970.73441971526</v>
+        <v>509.6666666666667</v>
       </c>
       <c r="H82" t="n">
         <v>1</v>
@@ -3261,41 +3412,42 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="K82" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C83" t="n">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="D83" t="n">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="E83" t="n">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>287.2882</v>
       </c>
       <c r="G83" t="n">
-        <v>-68969.73441971526</v>
+        <v>509.6666666666667</v>
       </c>
       <c r="H83" t="n">
         <v>1</v>
@@ -3304,10 +3456,10 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="K83" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3317,38 +3469,41 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C84" t="n">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="D84" t="n">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="E84" t="n">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="F84" t="n">
-        <v>2.1972</v>
+        <v>364.2805</v>
       </c>
       <c r="G84" t="n">
-        <v>-68971.93161971525</v>
+        <v>509</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>510</v>
+      </c>
       <c r="K84" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3358,38 +3513,41 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C85" t="n">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D85" t="n">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E85" t="n">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F85" t="n">
-        <v>27</v>
+        <v>474.7332</v>
       </c>
       <c r="G85" t="n">
-        <v>-68944.93161971525</v>
+        <v>507.6666666666667</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>507</v>
+      </c>
       <c r="K85" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3399,38 +3557,41 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
+        <v>507</v>
+      </c>
+      <c r="C86" t="n">
+        <v>507</v>
+      </c>
+      <c r="D86" t="n">
+        <v>507</v>
+      </c>
+      <c r="E86" t="n">
+        <v>507</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1.0088</v>
+      </c>
+      <c r="G86" t="n">
+        <v>506.6666666666667</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
         <v>506</v>
       </c>
-      <c r="C86" t="n">
-        <v>514</v>
-      </c>
-      <c r="D86" t="n">
-        <v>514</v>
-      </c>
-      <c r="E86" t="n">
-        <v>506</v>
-      </c>
-      <c r="F86" t="n">
-        <v>146.0011</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-68798.93051971526</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3440,6 +3601,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3449,29 +3611,31 @@
         <v>507</v>
       </c>
       <c r="C87" t="n">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="D87" t="n">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E87" t="n">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F87" t="n">
-        <v>91.1726</v>
+        <v>331.0639</v>
       </c>
       <c r="G87" t="n">
-        <v>-68890.10311971526</v>
+        <v>507.3333333333333</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>507</v>
+      </c>
       <c r="K87" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3481,38 +3645,41 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="C88" t="n">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="D88" t="n">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="E88" t="n">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F88" t="n">
-        <v>51.0047</v>
+        <v>62.7796</v>
       </c>
       <c r="G88" t="n">
-        <v>-68839.09841971526</v>
+        <v>508.3333333333333</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>509</v>
+      </c>
       <c r="K88" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3522,38 +3689,41 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="C89" t="n">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="D89" t="n">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="E89" t="n">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="F89" t="n">
-        <v>40.596</v>
+        <v>369.545</v>
       </c>
       <c r="G89" t="n">
-        <v>-68879.69441971526</v>
+        <v>509.3333333333333</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>509</v>
+      </c>
       <c r="K89" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -3563,38 +3733,41 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="C90" t="n">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="D90" t="n">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="E90" t="n">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="F90" t="n">
-        <v>4233.5346</v>
+        <v>1746.6871</v>
       </c>
       <c r="G90" t="n">
-        <v>-73113.22901971526</v>
+        <v>507.3333333333333</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>510</v>
+      </c>
       <c r="K90" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -3604,38 +3777,41 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="C91" t="n">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="D91" t="n">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="E91" t="n">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="F91" t="n">
-        <v>633.6624</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>-72479.56661971526</v>
+        <v>507.3333333333333</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>503</v>
+      </c>
       <c r="K91" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -3645,38 +3821,41 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C92" t="n">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D92" t="n">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="E92" t="n">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="F92" t="n">
-        <v>1.2933</v>
+        <v>826.7125</v>
       </c>
       <c r="G92" t="n">
-        <v>-72478.27331971526</v>
+        <v>505</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>509</v>
+      </c>
       <c r="K92" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -3686,38 +3865,41 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C93" t="n">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D93" t="n">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="E93" t="n">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F93" t="n">
-        <v>1208.7657</v>
+        <v>11.4387</v>
       </c>
       <c r="G93" t="n">
-        <v>-72478.27331971526</v>
+        <v>505</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>503</v>
+      </c>
       <c r="K93" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -3727,38 +3909,41 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C94" t="n">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D94" t="n">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E94" t="n">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F94" t="n">
-        <v>2</v>
+        <v>1.0019</v>
       </c>
       <c r="G94" t="n">
-        <v>-72478.27331971526</v>
+        <v>504.3333333333333</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>503</v>
+      </c>
       <c r="K94" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -3768,38 +3953,41 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C95" t="n">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D95" t="n">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="E95" t="n">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F95" t="n">
-        <v>82</v>
+        <v>1857.04</v>
       </c>
       <c r="G95" t="n">
-        <v>-72560.27331971526</v>
+        <v>504</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>507</v>
+      </c>
       <c r="K95" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -3809,38 +3997,41 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C96" t="n">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D96" t="n">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E96" t="n">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F96" t="n">
-        <v>5536.3259</v>
+        <v>1.3307</v>
       </c>
       <c r="G96" t="n">
-        <v>-67023.94741971526</v>
+        <v>505.3333333333333</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>502</v>
+      </c>
       <c r="K96" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -3850,38 +4041,41 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C97" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D97" t="n">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E97" t="n">
         <v>507</v>
       </c>
       <c r="F97" t="n">
-        <v>1722.2808</v>
+        <v>1295.5998</v>
       </c>
       <c r="G97" t="n">
-        <v>-68746.22821971525</v>
+        <v>505.6666666666667</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>507</v>
+      </c>
       <c r="K97" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -3891,6 +4085,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3900,29 +4095,31 @@
         <v>508</v>
       </c>
       <c r="C98" t="n">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D98" t="n">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E98" t="n">
         <v>508</v>
       </c>
       <c r="F98" t="n">
-        <v>218.1143</v>
+        <v>990.9521999999999</v>
       </c>
       <c r="G98" t="n">
-        <v>-68528.11391971525</v>
+        <v>508</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>508</v>
+      </c>
       <c r="K98" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -3932,38 +4129,41 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>505</v>
+      </c>
+      <c r="C99" t="n">
+        <v>505</v>
+      </c>
+      <c r="D99" t="n">
+        <v>505</v>
+      </c>
+      <c r="E99" t="n">
+        <v>505</v>
+      </c>
+      <c r="F99" t="n">
+        <v>14.6133</v>
+      </c>
+      <c r="G99" t="n">
+        <v>507.3333333333333</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
         <v>509</v>
       </c>
-      <c r="C99" t="n">
-        <v>509</v>
-      </c>
-      <c r="D99" t="n">
-        <v>509</v>
-      </c>
-      <c r="E99" t="n">
-        <v>509</v>
-      </c>
-      <c r="F99" t="n">
-        <v>148.7353</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-68379.37861971525</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -3973,6 +4173,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3982,29 +4183,31 @@
         <v>509</v>
       </c>
       <c r="C100" t="n">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D100" t="n">
         <v>509</v>
       </c>
       <c r="E100" t="n">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F100" t="n">
-        <v>2445.456365877712</v>
+        <v>14.6133</v>
       </c>
       <c r="G100" t="n">
-        <v>-70824.83498559297</v>
+        <v>507.6666666666667</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>505</v>
+      </c>
       <c r="K100" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4014,38 +4217,41 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C101" t="n">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D101" t="n">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E101" t="n">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="F101" t="n">
-        <v>481.7978</v>
+        <v>64.76609999999999</v>
       </c>
       <c r="G101" t="n">
-        <v>-71306.63278559297</v>
+        <v>506.3333333333333</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>509</v>
+      </c>
       <c r="K101" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4055,38 +4261,41 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C102" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="D102" t="n">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="E102" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="F102" t="n">
-        <v>5960.6041</v>
+        <v>5809.7914</v>
       </c>
       <c r="G102" t="n">
-        <v>-77267.23688559297</v>
+        <v>506</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>505</v>
+      </c>
       <c r="K102" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4096,38 +4305,41 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C103" t="n">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D103" t="n">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E103" t="n">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F103" t="n">
-        <v>3.92156862745098</v>
+        <v>352.5557</v>
       </c>
       <c r="G103" t="n">
-        <v>-77263.31531696551</v>
+        <v>505.3333333333333</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>504</v>
+      </c>
       <c r="K103" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4137,38 +4349,41 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C104" t="n">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D104" t="n">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E104" t="n">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F104" t="n">
-        <v>1</v>
+        <v>5191.0867</v>
       </c>
       <c r="G104" t="n">
-        <v>-77264.31531696551</v>
+        <v>506</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>507</v>
+      </c>
       <c r="K104" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4178,38 +4393,41 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C105" t="n">
         <v>501</v>
       </c>
       <c r="D105" t="n">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="E105" t="n">
         <v>501</v>
       </c>
       <c r="F105" t="n">
-        <v>4017.7926</v>
+        <v>930.7911</v>
       </c>
       <c r="G105" t="n">
-        <v>-81282.10791696551</v>
+        <v>505</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>507</v>
+      </c>
       <c r="K105" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4219,38 +4437,41 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>503</v>
+      </c>
+      <c r="C106" t="n">
+        <v>500</v>
+      </c>
+      <c r="D106" t="n">
+        <v>503</v>
+      </c>
+      <c r="E106" t="n">
+        <v>500</v>
+      </c>
+      <c r="F106" t="n">
+        <v>5647.2578</v>
+      </c>
+      <c r="G106" t="n">
+        <v>502.6666666666667</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
         <v>501</v>
       </c>
-      <c r="C106" t="n">
-        <v>501</v>
-      </c>
-      <c r="D106" t="n">
-        <v>501</v>
-      </c>
-      <c r="E106" t="n">
-        <v>501</v>
-      </c>
-      <c r="F106" t="n">
-        <v>742.1592000000001</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-81282.10791696551</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4260,13 +4481,14 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C107" t="n">
         <v>507</v>
@@ -4275,23 +4497,25 @@
         <v>507</v>
       </c>
       <c r="E107" t="n">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F107" t="n">
-        <v>7</v>
+        <v>8470.4414</v>
       </c>
       <c r="G107" t="n">
-        <v>-81275.10791696551</v>
+        <v>502.6666666666667</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>500</v>
+      </c>
       <c r="K107" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4301,6 +4525,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4319,20 +4544,22 @@
         <v>507</v>
       </c>
       <c r="F108" t="n">
-        <v>50</v>
+        <v>67.3653</v>
       </c>
       <c r="G108" t="n">
-        <v>-81275.10791696551</v>
+        <v>504.6666666666667</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>507</v>
+      </c>
       <c r="K108" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4342,6 +4569,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4360,10 +4588,10 @@
         <v>507</v>
       </c>
       <c r="F109" t="n">
-        <v>100</v>
+        <v>479.6104</v>
       </c>
       <c r="G109" t="n">
-        <v>-81275.10791696551</v>
+        <v>507</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4373,7 +4601,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4383,38 +4611,41 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C110" t="n">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D110" t="n">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="E110" t="n">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F110" t="n">
-        <v>218.1144</v>
+        <v>137.2752</v>
       </c>
       <c r="G110" t="n">
-        <v>-81493.22231696552</v>
+        <v>507</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>507</v>
+      </c>
       <c r="K110" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4424,28 +4655,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C111" t="n">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="D111" t="n">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="E111" t="n">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="F111" t="n">
-        <v>3928.146</v>
+        <v>1202.2336</v>
       </c>
       <c r="G111" t="n">
-        <v>-77565.07631696553</v>
+        <v>508</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4455,7 +4687,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4465,28 +4697,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C112" t="n">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="D112" t="n">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="E112" t="n">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="F112" t="n">
-        <v>1052.7</v>
+        <v>9647.730100000001</v>
       </c>
       <c r="G112" t="n">
-        <v>-77565.07631696553</v>
+        <v>509.6666666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4496,7 +4729,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4506,28 +4739,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="C113" t="n">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="D113" t="n">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="E113" t="n">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="F113" t="n">
-        <v>2258.3007</v>
+        <v>2281.775</v>
       </c>
       <c r="G113" t="n">
-        <v>-75306.77561696552</v>
+        <v>514</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4537,7 +4771,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4547,28 +4781,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="C114" t="n">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="D114" t="n">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="E114" t="n">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="F114" t="n">
-        <v>2.3235</v>
+        <v>1081.6187</v>
       </c>
       <c r="G114" t="n">
-        <v>-75304.45211696552</v>
+        <v>519.6666666666666</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4578,7 +4813,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4588,28 +4823,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="C115" t="n">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="D115" t="n">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="E115" t="n">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="F115" t="n">
-        <v>485.4541</v>
+        <v>5421.5872</v>
       </c>
       <c r="G115" t="n">
-        <v>-75304.45211696552</v>
+        <v>524.6666666666666</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4619,7 +4855,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -4629,28 +4865,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="C116" t="n">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="D116" t="n">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="E116" t="n">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="F116" t="n">
-        <v>801.408</v>
+        <v>7918.3561</v>
       </c>
       <c r="G116" t="n">
-        <v>-76105.86011696552</v>
+        <v>527.3333333333334</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4660,7 +4897,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -4670,28 +4907,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="C117" t="n">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="D117" t="n">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="E117" t="n">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="F117" t="n">
-        <v>1243.3523</v>
+        <v>138.3876</v>
       </c>
       <c r="G117" t="n">
-        <v>-76105.86011696552</v>
+        <v>528</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4701,7 +4939,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -4711,28 +4949,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>510</v>
+        <v>529</v>
       </c>
       <c r="C118" t="n">
-        <v>510</v>
+        <v>533</v>
       </c>
       <c r="D118" t="n">
-        <v>510</v>
+        <v>533</v>
       </c>
       <c r="E118" t="n">
-        <v>510</v>
+        <v>529</v>
       </c>
       <c r="F118" t="n">
-        <v>725.9853000000001</v>
+        <v>2491.3421</v>
       </c>
       <c r="G118" t="n">
-        <v>-76831.84541696552</v>
+        <v>530</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4742,7 +4981,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -4752,28 +4991,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="C119" t="n">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="D119" t="n">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="E119" t="n">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="F119" t="n">
-        <v>50</v>
+        <v>135.9908</v>
       </c>
       <c r="G119" t="n">
-        <v>-76781.84541696552</v>
+        <v>532</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4783,7 +5023,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -4793,28 +5033,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>510</v>
+        <v>535</v>
       </c>
       <c r="C120" t="n">
-        <v>510</v>
+        <v>535</v>
       </c>
       <c r="D120" t="n">
-        <v>510</v>
+        <v>535</v>
       </c>
       <c r="E120" t="n">
-        <v>510</v>
+        <v>535</v>
       </c>
       <c r="F120" t="n">
-        <v>50</v>
+        <v>157.5878</v>
       </c>
       <c r="G120" t="n">
-        <v>-76831.84541696552</v>
+        <v>534</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4824,7 +5065,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -4834,28 +5075,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>510</v>
+        <v>536</v>
       </c>
       <c r="C121" t="n">
-        <v>510</v>
+        <v>545</v>
       </c>
       <c r="D121" t="n">
-        <v>510</v>
+        <v>545</v>
       </c>
       <c r="E121" t="n">
-        <v>510</v>
+        <v>536</v>
       </c>
       <c r="F121" t="n">
-        <v>813.9852</v>
+        <v>1433.1764</v>
       </c>
       <c r="G121" t="n">
-        <v>-76831.84541696552</v>
+        <v>538</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4865,7 +5107,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -4875,28 +5117,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>510</v>
+        <v>544</v>
       </c>
       <c r="C122" t="n">
-        <v>510</v>
+        <v>544</v>
       </c>
       <c r="D122" t="n">
-        <v>510</v>
+        <v>544</v>
       </c>
       <c r="E122" t="n">
-        <v>510</v>
+        <v>544</v>
       </c>
       <c r="F122" t="n">
-        <v>2069.5922</v>
+        <v>84.11920000000001</v>
       </c>
       <c r="G122" t="n">
-        <v>-76831.84541696552</v>
+        <v>541.3333333333334</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4906,7 +5149,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -4916,28 +5159,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>510</v>
+        <v>542</v>
       </c>
       <c r="C123" t="n">
-        <v>509</v>
+        <v>542</v>
       </c>
       <c r="D123" t="n">
-        <v>510</v>
+        <v>542</v>
       </c>
       <c r="E123" t="n">
-        <v>509</v>
+        <v>542</v>
       </c>
       <c r="F123" t="n">
-        <v>810.8011</v>
+        <v>254.8247</v>
       </c>
       <c r="G123" t="n">
-        <v>-77642.64651696551</v>
+        <v>543.6666666666666</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4947,7 +5191,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -4957,28 +5201,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>510</v>
+        <v>533</v>
       </c>
       <c r="C124" t="n">
-        <v>510</v>
+        <v>532</v>
       </c>
       <c r="D124" t="n">
-        <v>510</v>
+        <v>533</v>
       </c>
       <c r="E124" t="n">
-        <v>510</v>
+        <v>532</v>
       </c>
       <c r="F124" t="n">
-        <v>736.9841</v>
+        <v>1503.129</v>
       </c>
       <c r="G124" t="n">
-        <v>-76905.66241696551</v>
+        <v>539.3333333333334</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4988,7 +5233,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -4998,28 +5243,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="C125" t="n">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="D125" t="n">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="E125" t="n">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="F125" t="n">
-        <v>287.2882</v>
+        <v>680.5788</v>
       </c>
       <c r="G125" t="n">
-        <v>-76905.66241696551</v>
+        <v>534.6666666666666</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5029,7 +5275,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5039,28 +5285,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>509</v>
+        <v>531</v>
       </c>
       <c r="C126" t="n">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="D126" t="n">
-        <v>509</v>
+        <v>531</v>
       </c>
       <c r="E126" t="n">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="F126" t="n">
-        <v>364.2805</v>
+        <v>2661.9591</v>
       </c>
       <c r="G126" t="n">
-        <v>-77269.9429169655</v>
+        <v>530.6666666666666</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5070,7 +5317,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5080,28 +5327,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>506</v>
+        <v>532</v>
       </c>
       <c r="C127" t="n">
-        <v>506</v>
+        <v>531</v>
       </c>
       <c r="D127" t="n">
-        <v>506</v>
+        <v>532</v>
       </c>
       <c r="E127" t="n">
-        <v>506</v>
+        <v>531</v>
       </c>
       <c r="F127" t="n">
-        <v>474.7332</v>
+        <v>3337.0589</v>
       </c>
       <c r="G127" t="n">
-        <v>-77744.67611696551</v>
+        <v>530.3333333333334</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5111,7 +5359,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5121,28 +5369,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>507</v>
+        <v>541</v>
       </c>
       <c r="C128" t="n">
-        <v>507</v>
+        <v>541</v>
       </c>
       <c r="D128" t="n">
-        <v>507</v>
+        <v>541</v>
       </c>
       <c r="E128" t="n">
-        <v>507</v>
+        <v>541</v>
       </c>
       <c r="F128" t="n">
-        <v>1.0088</v>
+        <v>2</v>
       </c>
       <c r="G128" t="n">
-        <v>-77743.66731696551</v>
+        <v>534</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5152,7 +5401,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5162,28 +5411,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>507</v>
+        <v>542</v>
       </c>
       <c r="C129" t="n">
-        <v>509</v>
+        <v>543</v>
       </c>
       <c r="D129" t="n">
-        <v>509</v>
+        <v>543</v>
       </c>
       <c r="E129" t="n">
-        <v>507</v>
+        <v>542</v>
       </c>
       <c r="F129" t="n">
-        <v>331.0639</v>
+        <v>183.9899</v>
       </c>
       <c r="G129" t="n">
-        <v>-77412.60341696552</v>
+        <v>538.3333333333334</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5193,7 +5443,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5203,28 +5453,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>509</v>
+        <v>542</v>
       </c>
       <c r="C130" t="n">
-        <v>509</v>
+        <v>542</v>
       </c>
       <c r="D130" t="n">
-        <v>509</v>
+        <v>542</v>
       </c>
       <c r="E130" t="n">
-        <v>509</v>
+        <v>542</v>
       </c>
       <c r="F130" t="n">
-        <v>62.7796</v>
+        <v>1951.7305</v>
       </c>
       <c r="G130" t="n">
-        <v>-77412.60341696552</v>
+        <v>542</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5234,7 +5485,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5244,28 +5495,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>510</v>
+        <v>542</v>
       </c>
       <c r="C131" t="n">
-        <v>510</v>
+        <v>542</v>
       </c>
       <c r="D131" t="n">
-        <v>510</v>
+        <v>542</v>
       </c>
       <c r="E131" t="n">
-        <v>510</v>
+        <v>542</v>
       </c>
       <c r="F131" t="n">
-        <v>369.545</v>
+        <v>363.7749</v>
       </c>
       <c r="G131" t="n">
-        <v>-77043.05841696552</v>
+        <v>542.3333333333334</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5275,7 +5527,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5285,28 +5537,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>505</v>
+        <v>533</v>
       </c>
       <c r="C132" t="n">
-        <v>503</v>
+        <v>533</v>
       </c>
       <c r="D132" t="n">
-        <v>505</v>
+        <v>533</v>
       </c>
       <c r="E132" t="n">
-        <v>503</v>
+        <v>533</v>
       </c>
       <c r="F132" t="n">
-        <v>1746.6871</v>
+        <v>89.11799999999999</v>
       </c>
       <c r="G132" t="n">
-        <v>-78789.74551696551</v>
+        <v>539</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5316,7 +5569,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5326,28 +5579,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>509</v>
+        <v>532</v>
       </c>
       <c r="C133" t="n">
-        <v>509</v>
+        <v>532</v>
       </c>
       <c r="D133" t="n">
-        <v>509</v>
+        <v>532</v>
       </c>
       <c r="E133" t="n">
-        <v>509</v>
+        <v>532</v>
       </c>
       <c r="F133" t="n">
-        <v>1</v>
+        <v>183.7044</v>
       </c>
       <c r="G133" t="n">
-        <v>-78788.74551696551</v>
+        <v>535.6666666666666</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5357,7 +5611,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5367,151 +5621,143 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>504</v>
+        <v>531</v>
       </c>
       <c r="C134" t="n">
-        <v>503</v>
+        <v>531</v>
       </c>
       <c r="D134" t="n">
-        <v>504</v>
+        <v>531</v>
       </c>
       <c r="E134" t="n">
-        <v>503</v>
+        <v>531</v>
       </c>
       <c r="F134" t="n">
-        <v>826.7125</v>
+        <v>2175.575</v>
       </c>
       <c r="G134" t="n">
-        <v>-79615.45801696551</v>
+        <v>532</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M134" t="n">
-        <v>1</v>
-      </c>
+        <v>1.036176470588235</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>503</v>
+        <v>531</v>
       </c>
       <c r="C135" t="n">
-        <v>503</v>
+        <v>531</v>
       </c>
       <c r="D135" t="n">
-        <v>503</v>
+        <v>531</v>
       </c>
       <c r="E135" t="n">
-        <v>503</v>
+        <v>530</v>
       </c>
       <c r="F135" t="n">
-        <v>11.4387</v>
+        <v>3999.246</v>
       </c>
       <c r="G135" t="n">
-        <v>-79615.45801696551</v>
+        <v>531.3333333333334</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>499</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>507</v>
+        <v>537</v>
       </c>
       <c r="C136" t="n">
-        <v>507</v>
+        <v>537</v>
       </c>
       <c r="D136" t="n">
-        <v>507</v>
+        <v>537</v>
       </c>
       <c r="E136" t="n">
-        <v>507</v>
+        <v>537</v>
       </c>
       <c r="F136" t="n">
-        <v>1.0019</v>
+        <v>1</v>
       </c>
       <c r="G136" t="n">
-        <v>-79614.45611696551</v>
+        <v>533</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>499</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>503</v>
+        <v>535</v>
       </c>
       <c r="C137" t="n">
-        <v>502</v>
+        <v>535</v>
       </c>
       <c r="D137" t="n">
-        <v>503</v>
+        <v>535</v>
       </c>
       <c r="E137" t="n">
-        <v>502</v>
+        <v>535</v>
       </c>
       <c r="F137" t="n">
-        <v>1857.04</v>
+        <v>74.14149999999999</v>
       </c>
       <c r="G137" t="n">
-        <v>-81471.4961169655</v>
+        <v>534.3333333333334</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5520,162 +5766,142 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>499</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>507</v>
+        <v>535</v>
       </c>
       <c r="C138" t="n">
-        <v>507</v>
+        <v>535</v>
       </c>
       <c r="D138" t="n">
-        <v>507</v>
+        <v>535</v>
       </c>
       <c r="E138" t="n">
-        <v>507</v>
+        <v>535</v>
       </c>
       <c r="F138" t="n">
-        <v>1.3307</v>
+        <v>1</v>
       </c>
       <c r="G138" t="n">
-        <v>-81470.16541696549</v>
+        <v>535.6666666666666</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>499</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>507</v>
+        <v>536</v>
       </c>
       <c r="C139" t="n">
-        <v>508</v>
+        <v>536</v>
       </c>
       <c r="D139" t="n">
-        <v>508</v>
+        <v>536</v>
       </c>
       <c r="E139" t="n">
-        <v>507</v>
+        <v>536</v>
       </c>
       <c r="F139" t="n">
-        <v>1295.5998</v>
+        <v>724.5876</v>
       </c>
       <c r="G139" t="n">
-        <v>-80174.5656169655</v>
+        <v>535.3333333333334</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>499</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>508</v>
+        <v>536</v>
       </c>
       <c r="C140" t="n">
-        <v>509</v>
+        <v>536</v>
       </c>
       <c r="D140" t="n">
-        <v>509</v>
+        <v>536</v>
       </c>
       <c r="E140" t="n">
-        <v>508</v>
+        <v>536</v>
       </c>
       <c r="F140" t="n">
-        <v>990.9521999999999</v>
+        <v>41.3976</v>
       </c>
       <c r="G140" t="n">
-        <v>-79183.6134169655</v>
+        <v>535.6666666666666</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>499</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>505</v>
+        <v>536</v>
       </c>
       <c r="C141" t="n">
-        <v>505</v>
+        <v>535</v>
       </c>
       <c r="D141" t="n">
-        <v>505</v>
+        <v>536</v>
       </c>
       <c r="E141" t="n">
-        <v>505</v>
+        <v>535</v>
       </c>
       <c r="F141" t="n">
-        <v>14.6133</v>
+        <v>2000</v>
       </c>
       <c r="G141" t="n">
-        <v>-79198.2267169655</v>
+        <v>535.6666666666666</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5684,2149 +5910,372 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>499</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>509</v>
+        <v>535</v>
       </c>
       <c r="C142" t="n">
-        <v>509</v>
+        <v>535</v>
       </c>
       <c r="D142" t="n">
-        <v>509</v>
+        <v>535</v>
       </c>
       <c r="E142" t="n">
-        <v>509</v>
+        <v>535</v>
       </c>
       <c r="F142" t="n">
-        <v>14.6133</v>
+        <v>3.2276</v>
       </c>
       <c r="G142" t="n">
-        <v>-79183.6134169655</v>
+        <v>535.3333333333334</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>499</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>505</v>
+        <v>535</v>
       </c>
       <c r="C143" t="n">
-        <v>505</v>
+        <v>530</v>
       </c>
       <c r="D143" t="n">
-        <v>505</v>
+        <v>535</v>
       </c>
       <c r="E143" t="n">
-        <v>505</v>
+        <v>530</v>
       </c>
       <c r="F143" t="n">
-        <v>64.76609999999999</v>
+        <v>7022.4757</v>
       </c>
       <c r="G143" t="n">
-        <v>-79248.37951696549</v>
+        <v>533.3333333333334</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>499</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>505</v>
+        <v>530</v>
       </c>
       <c r="C144" t="n">
-        <v>504</v>
+        <v>530</v>
       </c>
       <c r="D144" t="n">
-        <v>505</v>
+        <v>530</v>
       </c>
       <c r="E144" t="n">
-        <v>504</v>
+        <v>530</v>
       </c>
       <c r="F144" t="n">
-        <v>5809.7914</v>
+        <v>668.0086</v>
       </c>
       <c r="G144" t="n">
-        <v>-85058.17091696549</v>
+        <v>531.6666666666666</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>499</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="C145" t="n">
-        <v>507</v>
+        <v>533</v>
       </c>
       <c r="D145" t="n">
-        <v>507</v>
+        <v>533</v>
       </c>
       <c r="E145" t="n">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="F145" t="n">
-        <v>352.5557</v>
+        <v>1333.8383</v>
       </c>
       <c r="G145" t="n">
-        <v>-84705.6152169655</v>
+        <v>531</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>499</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>507</v>
+        <v>533</v>
       </c>
       <c r="C146" t="n">
-        <v>507</v>
+        <v>533</v>
       </c>
       <c r="D146" t="n">
-        <v>507</v>
+        <v>533</v>
       </c>
       <c r="E146" t="n">
-        <v>507</v>
+        <v>533</v>
       </c>
       <c r="F146" t="n">
-        <v>5191.0867</v>
+        <v>416.075</v>
       </c>
       <c r="G146" t="n">
-        <v>-84705.6152169655</v>
+        <v>532</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>499</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>505</v>
+        <v>533</v>
       </c>
       <c r="C147" t="n">
-        <v>501</v>
+        <v>533</v>
       </c>
       <c r="D147" t="n">
-        <v>505</v>
+        <v>533</v>
       </c>
       <c r="E147" t="n">
-        <v>501</v>
+        <v>533</v>
       </c>
       <c r="F147" t="n">
-        <v>930.7911</v>
+        <v>368.7</v>
       </c>
       <c r="G147" t="n">
-        <v>-85636.4063169655</v>
+        <v>533</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>499</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>503</v>
+        <v>534</v>
       </c>
       <c r="C148" t="n">
-        <v>500</v>
+        <v>534</v>
       </c>
       <c r="D148" t="n">
-        <v>503</v>
+        <v>534</v>
       </c>
       <c r="E148" t="n">
-        <v>500</v>
+        <v>534</v>
       </c>
       <c r="F148" t="n">
-        <v>5647.2578</v>
+        <v>351.5834</v>
       </c>
       <c r="G148" t="n">
-        <v>-91283.6641169655</v>
+        <v>533.3333333333334</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>499</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>506</v>
+        <v>535</v>
       </c>
       <c r="C149" t="n">
-        <v>507</v>
+        <v>535</v>
       </c>
       <c r="D149" t="n">
-        <v>507</v>
+        <v>535</v>
       </c>
       <c r="E149" t="n">
-        <v>506</v>
+        <v>535</v>
       </c>
       <c r="F149" t="n">
-        <v>8470.4414</v>
+        <v>370.0878</v>
       </c>
       <c r="G149" t="n">
-        <v>-82813.22271696551</v>
+        <v>534</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>499</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>507</v>
+        <v>533</v>
       </c>
       <c r="C150" t="n">
-        <v>507</v>
+        <v>533</v>
       </c>
       <c r="D150" t="n">
-        <v>507</v>
+        <v>533</v>
       </c>
       <c r="E150" t="n">
-        <v>507</v>
+        <v>533</v>
       </c>
       <c r="F150" t="n">
-        <v>67.3653</v>
+        <v>183.5299</v>
       </c>
       <c r="G150" t="n">
-        <v>-82813.22271696551</v>
+        <v>534</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>499</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>507</v>
+        <v>533</v>
       </c>
       <c r="C151" t="n">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="D151" t="n">
-        <v>507</v>
+        <v>533</v>
       </c>
       <c r="E151" t="n">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="F151" t="n">
-        <v>479.6104</v>
+        <v>481.235</v>
       </c>
       <c r="G151" t="n">
-        <v>-82813.22271696551</v>
+        <v>532.6666666666666</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>499</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>507</v>
-      </c>
-      <c r="C152" t="n">
-        <v>507</v>
-      </c>
-      <c r="D152" t="n">
-        <v>507</v>
-      </c>
-      <c r="E152" t="n">
-        <v>507</v>
-      </c>
-      <c r="F152" t="n">
-        <v>137.2752</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-82813.22271696551</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>499</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>510</v>
-      </c>
-      <c r="C153" t="n">
-        <v>510</v>
-      </c>
-      <c r="D153" t="n">
-        <v>510</v>
-      </c>
-      <c r="E153" t="n">
-        <v>510</v>
-      </c>
-      <c r="F153" t="n">
-        <v>1202.2336</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-81610.9891169655</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>499</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>511</v>
-      </c>
-      <c r="C154" t="n">
-        <v>512</v>
-      </c>
-      <c r="D154" t="n">
-        <v>512</v>
-      </c>
-      <c r="E154" t="n">
-        <v>511</v>
-      </c>
-      <c r="F154" t="n">
-        <v>9647.730100000001</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-71963.2590169655</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>499</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>520</v>
-      </c>
-      <c r="C155" t="n">
-        <v>520</v>
-      </c>
-      <c r="D155" t="n">
-        <v>520</v>
-      </c>
-      <c r="E155" t="n">
-        <v>520</v>
-      </c>
-      <c r="F155" t="n">
-        <v>2281.775</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-69681.48401696551</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>499</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>520</v>
-      </c>
-      <c r="C156" t="n">
-        <v>527</v>
-      </c>
-      <c r="D156" t="n">
-        <v>527</v>
-      </c>
-      <c r="E156" t="n">
-        <v>520</v>
-      </c>
-      <c r="F156" t="n">
-        <v>1081.6187</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-68599.8653169655</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>499</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>527</v>
-      </c>
-      <c r="C157" t="n">
-        <v>527</v>
-      </c>
-      <c r="D157" t="n">
-        <v>527</v>
-      </c>
-      <c r="E157" t="n">
-        <v>527</v>
-      </c>
-      <c r="F157" t="n">
-        <v>5421.5872</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-68599.8653169655</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>499</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>528</v>
-      </c>
-      <c r="C158" t="n">
-        <v>528</v>
-      </c>
-      <c r="D158" t="n">
-        <v>529</v>
-      </c>
-      <c r="E158" t="n">
-        <v>528</v>
-      </c>
-      <c r="F158" t="n">
-        <v>7918.3561</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-60681.5092169655</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>499</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>528</v>
-      </c>
-      <c r="C159" t="n">
-        <v>529</v>
-      </c>
-      <c r="D159" t="n">
-        <v>529</v>
-      </c>
-      <c r="E159" t="n">
-        <v>528</v>
-      </c>
-      <c r="F159" t="n">
-        <v>138.3876</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-60543.1216169655</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>499</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>529</v>
-      </c>
-      <c r="C160" t="n">
-        <v>533</v>
-      </c>
-      <c r="D160" t="n">
-        <v>533</v>
-      </c>
-      <c r="E160" t="n">
-        <v>529</v>
-      </c>
-      <c r="F160" t="n">
-        <v>2491.3421</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-58051.7795169655</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>499</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>534</v>
-      </c>
-      <c r="C161" t="n">
-        <v>534</v>
-      </c>
-      <c r="D161" t="n">
-        <v>534</v>
-      </c>
-      <c r="E161" t="n">
-        <v>534</v>
-      </c>
-      <c r="F161" t="n">
-        <v>135.9908</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-57915.7887169655</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>499</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>535</v>
-      </c>
-      <c r="C162" t="n">
-        <v>535</v>
-      </c>
-      <c r="D162" t="n">
-        <v>535</v>
-      </c>
-      <c r="E162" t="n">
-        <v>535</v>
-      </c>
-      <c r="F162" t="n">
-        <v>157.5878</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-57758.2009169655</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>499</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>536</v>
-      </c>
-      <c r="C163" t="n">
-        <v>545</v>
-      </c>
-      <c r="D163" t="n">
-        <v>545</v>
-      </c>
-      <c r="E163" t="n">
-        <v>536</v>
-      </c>
-      <c r="F163" t="n">
-        <v>1433.1764</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-56325.0245169655</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>499</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>544</v>
-      </c>
-      <c r="C164" t="n">
-        <v>544</v>
-      </c>
-      <c r="D164" t="n">
-        <v>544</v>
-      </c>
-      <c r="E164" t="n">
-        <v>544</v>
-      </c>
-      <c r="F164" t="n">
-        <v>84.11920000000001</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-56409.1437169655</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>499</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>542</v>
-      </c>
-      <c r="C165" t="n">
-        <v>542</v>
-      </c>
-      <c r="D165" t="n">
-        <v>542</v>
-      </c>
-      <c r="E165" t="n">
-        <v>542</v>
-      </c>
-      <c r="F165" t="n">
-        <v>254.8247</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-56663.9684169655</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>499</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>533</v>
-      </c>
-      <c r="C166" t="n">
-        <v>532</v>
-      </c>
-      <c r="D166" t="n">
-        <v>533</v>
-      </c>
-      <c r="E166" t="n">
-        <v>532</v>
-      </c>
-      <c r="F166" t="n">
-        <v>1503.129</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-58167.0974169655</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>499</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>530</v>
-      </c>
-      <c r="C167" t="n">
-        <v>530</v>
-      </c>
-      <c r="D167" t="n">
-        <v>530</v>
-      </c>
-      <c r="E167" t="n">
-        <v>530</v>
-      </c>
-      <c r="F167" t="n">
-        <v>680.5788</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-58847.6762169655</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>499</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>531</v>
-      </c>
-      <c r="C168" t="n">
-        <v>530</v>
-      </c>
-      <c r="D168" t="n">
-        <v>531</v>
-      </c>
-      <c r="E168" t="n">
-        <v>530</v>
-      </c>
-      <c r="F168" t="n">
-        <v>2661.9591</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-58847.6762169655</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>499</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>532</v>
-      </c>
-      <c r="C169" t="n">
-        <v>531</v>
-      </c>
-      <c r="D169" t="n">
-        <v>532</v>
-      </c>
-      <c r="E169" t="n">
-        <v>531</v>
-      </c>
-      <c r="F169" t="n">
-        <v>3337.0589</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-55510.61731696551</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>499</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>541</v>
-      </c>
-      <c r="C170" t="n">
-        <v>541</v>
-      </c>
-      <c r="D170" t="n">
-        <v>541</v>
-      </c>
-      <c r="E170" t="n">
-        <v>541</v>
-      </c>
-      <c r="F170" t="n">
-        <v>2</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-55508.61731696551</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>499</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>542</v>
-      </c>
-      <c r="C171" t="n">
-        <v>543</v>
-      </c>
-      <c r="D171" t="n">
-        <v>543</v>
-      </c>
-      <c r="E171" t="n">
-        <v>542</v>
-      </c>
-      <c r="F171" t="n">
-        <v>183.9899</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-55324.62741696551</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>499</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>542</v>
-      </c>
-      <c r="C172" t="n">
-        <v>542</v>
-      </c>
-      <c r="D172" t="n">
-        <v>542</v>
-      </c>
-      <c r="E172" t="n">
-        <v>542</v>
-      </c>
-      <c r="F172" t="n">
-        <v>1951.7305</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-57276.35791696551</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>499</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>542</v>
-      </c>
-      <c r="C173" t="n">
-        <v>542</v>
-      </c>
-      <c r="D173" t="n">
-        <v>542</v>
-      </c>
-      <c r="E173" t="n">
-        <v>542</v>
-      </c>
-      <c r="F173" t="n">
-        <v>363.7749</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-57276.35791696551</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>499</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>533</v>
-      </c>
-      <c r="C174" t="n">
-        <v>533</v>
-      </c>
-      <c r="D174" t="n">
-        <v>533</v>
-      </c>
-      <c r="E174" t="n">
-        <v>533</v>
-      </c>
-      <c r="F174" t="n">
-        <v>89.11799999999999</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-57365.47591696551</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>499</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>532</v>
-      </c>
-      <c r="C175" t="n">
-        <v>532</v>
-      </c>
-      <c r="D175" t="n">
-        <v>532</v>
-      </c>
-      <c r="E175" t="n">
-        <v>532</v>
-      </c>
-      <c r="F175" t="n">
-        <v>183.7044</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-57549.18031696551</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>499</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>531</v>
-      </c>
-      <c r="C176" t="n">
-        <v>531</v>
-      </c>
-      <c r="D176" t="n">
-        <v>531</v>
-      </c>
-      <c r="E176" t="n">
-        <v>531</v>
-      </c>
-      <c r="F176" t="n">
-        <v>2175.575</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-59724.75531696551</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>499</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>531</v>
-      </c>
-      <c r="C177" t="n">
-        <v>531</v>
-      </c>
-      <c r="D177" t="n">
-        <v>531</v>
-      </c>
-      <c r="E177" t="n">
-        <v>530</v>
-      </c>
-      <c r="F177" t="n">
-        <v>3999.246</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-59724.75531696551</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>499</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>537</v>
-      </c>
-      <c r="C178" t="n">
-        <v>537</v>
-      </c>
-      <c r="D178" t="n">
-        <v>537</v>
-      </c>
-      <c r="E178" t="n">
-        <v>537</v>
-      </c>
-      <c r="F178" t="n">
-        <v>1</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-59723.75531696551</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>499</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>535</v>
-      </c>
-      <c r="C179" t="n">
-        <v>535</v>
-      </c>
-      <c r="D179" t="n">
-        <v>535</v>
-      </c>
-      <c r="E179" t="n">
-        <v>535</v>
-      </c>
-      <c r="F179" t="n">
-        <v>74.14149999999999</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-59797.89681696551</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>499</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>535</v>
-      </c>
-      <c r="C180" t="n">
-        <v>535</v>
-      </c>
-      <c r="D180" t="n">
-        <v>535</v>
-      </c>
-      <c r="E180" t="n">
-        <v>535</v>
-      </c>
-      <c r="F180" t="n">
-        <v>1</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-59797.89681696551</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>499</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>536</v>
-      </c>
-      <c r="C181" t="n">
-        <v>536</v>
-      </c>
-      <c r="D181" t="n">
-        <v>536</v>
-      </c>
-      <c r="E181" t="n">
-        <v>536</v>
-      </c>
-      <c r="F181" t="n">
-        <v>724.5876</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-59073.30921696551</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>499</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>536</v>
-      </c>
-      <c r="C182" t="n">
-        <v>536</v>
-      </c>
-      <c r="D182" t="n">
-        <v>536</v>
-      </c>
-      <c r="E182" t="n">
-        <v>536</v>
-      </c>
-      <c r="F182" t="n">
-        <v>41.3976</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-59073.30921696551</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>499</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>536</v>
-      </c>
-      <c r="C183" t="n">
-        <v>535</v>
-      </c>
-      <c r="D183" t="n">
-        <v>536</v>
-      </c>
-      <c r="E183" t="n">
-        <v>535</v>
-      </c>
-      <c r="F183" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-61073.30921696551</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>499</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>535</v>
-      </c>
-      <c r="C184" t="n">
-        <v>535</v>
-      </c>
-      <c r="D184" t="n">
-        <v>535</v>
-      </c>
-      <c r="E184" t="n">
-        <v>535</v>
-      </c>
-      <c r="F184" t="n">
-        <v>3.2276</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-61073.30921696551</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>499</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>535</v>
-      </c>
-      <c r="C185" t="n">
-        <v>530</v>
-      </c>
-      <c r="D185" t="n">
-        <v>535</v>
-      </c>
-      <c r="E185" t="n">
-        <v>530</v>
-      </c>
-      <c r="F185" t="n">
-        <v>7022.4757</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-68095.78491696551</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>499</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>530</v>
-      </c>
-      <c r="C186" t="n">
-        <v>530</v>
-      </c>
-      <c r="D186" t="n">
-        <v>530</v>
-      </c>
-      <c r="E186" t="n">
-        <v>530</v>
-      </c>
-      <c r="F186" t="n">
-        <v>668.0086</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-68095.78491696551</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>499</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>530</v>
-      </c>
-      <c r="C187" t="n">
-        <v>533</v>
-      </c>
-      <c r="D187" t="n">
-        <v>533</v>
-      </c>
-      <c r="E187" t="n">
-        <v>530</v>
-      </c>
-      <c r="F187" t="n">
-        <v>1333.8383</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-66761.94661696551</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>499</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>533</v>
-      </c>
-      <c r="C188" t="n">
-        <v>533</v>
-      </c>
-      <c r="D188" t="n">
-        <v>533</v>
-      </c>
-      <c r="E188" t="n">
-        <v>533</v>
-      </c>
-      <c r="F188" t="n">
-        <v>416.075</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-66761.94661696551</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>499</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>533</v>
-      </c>
-      <c r="C189" t="n">
-        <v>533</v>
-      </c>
-      <c r="D189" t="n">
-        <v>533</v>
-      </c>
-      <c r="E189" t="n">
-        <v>533</v>
-      </c>
-      <c r="F189" t="n">
-        <v>368.7</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-66761.94661696551</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>499</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>534</v>
-      </c>
-      <c r="C190" t="n">
-        <v>534</v>
-      </c>
-      <c r="D190" t="n">
-        <v>534</v>
-      </c>
-      <c r="E190" t="n">
-        <v>534</v>
-      </c>
-      <c r="F190" t="n">
-        <v>351.5834</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-66410.3632169655</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>499</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>535</v>
-      </c>
-      <c r="C191" t="n">
-        <v>535</v>
-      </c>
-      <c r="D191" t="n">
-        <v>535</v>
-      </c>
-      <c r="E191" t="n">
-        <v>535</v>
-      </c>
-      <c r="F191" t="n">
-        <v>370.0878</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-66040.27541696551</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>499</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>533</v>
-      </c>
-      <c r="C192" t="n">
-        <v>533</v>
-      </c>
-      <c r="D192" t="n">
-        <v>533</v>
-      </c>
-      <c r="E192" t="n">
-        <v>533</v>
-      </c>
-      <c r="F192" t="n">
-        <v>183.5299</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-66223.8053169655</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>499</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>533</v>
-      </c>
-      <c r="C193" t="n">
-        <v>530</v>
-      </c>
-      <c r="D193" t="n">
-        <v>533</v>
-      </c>
-      <c r="E193" t="n">
-        <v>530</v>
-      </c>
-      <c r="F193" t="n">
-        <v>481.235</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-66705.0403169655</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>499</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
+      <c r="N151" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-27 BackTest VALOR.xlsx
+++ b/BackTest/2019-10-27 BackTest VALOR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N151"/>
+  <dimension ref="A1:N222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>506</v>
+        <v>527</v>
       </c>
       <c r="C2" t="n">
-        <v>506</v>
+        <v>555</v>
       </c>
       <c r="D2" t="n">
-        <v>506</v>
+        <v>555</v>
       </c>
       <c r="E2" t="n">
-        <v>506</v>
+        <v>527</v>
       </c>
       <c r="F2" t="n">
-        <v>142.1985</v>
+        <v>64</v>
       </c>
       <c r="G2" t="n">
-        <v>513.3333333333334</v>
+        <v>-27035.4251</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>507</v>
+        <v>533</v>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>533</v>
       </c>
       <c r="D3" t="n">
-        <v>507</v>
+        <v>533</v>
       </c>
       <c r="E3" t="n">
-        <v>506</v>
+        <v>533</v>
       </c>
       <c r="F3" t="n">
-        <v>220.1315</v>
+        <v>2136.2732</v>
       </c>
       <c r="G3" t="n">
-        <v>511.3333333333333</v>
+        <v>-29171.6983</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,28 +510,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>505</v>
+        <v>535</v>
       </c>
       <c r="C4" t="n">
-        <v>504</v>
+        <v>535</v>
       </c>
       <c r="D4" t="n">
-        <v>505</v>
+        <v>535</v>
       </c>
       <c r="E4" t="n">
-        <v>504</v>
+        <v>535</v>
       </c>
       <c r="F4" t="n">
-        <v>301.3715</v>
+        <v>90.0069</v>
       </c>
       <c r="G4" t="n">
-        <v>505.3333333333333</v>
+        <v>-29081.6914</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>505</v>
+        <v>535</v>
       </c>
       <c r="C5" t="n">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="D5" t="n">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="E5" t="n">
-        <v>502</v>
+        <v>535</v>
       </c>
       <c r="F5" t="n">
-        <v>4681.4019</v>
+        <v>394.9366</v>
       </c>
       <c r="G5" t="n">
-        <v>509.6666666666667</v>
+        <v>-28686.7548</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -582,28 +582,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>502</v>
+        <v>530</v>
       </c>
       <c r="C6" t="n">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="D6" t="n">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="E6" t="n">
-        <v>502</v>
+        <v>530</v>
       </c>
       <c r="F6" t="n">
-        <v>2.1213</v>
+        <v>345.2716</v>
       </c>
       <c r="G6" t="n">
-        <v>514</v>
+        <v>-29032.0264</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -618,28 +618,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>505</v>
+        <v>524</v>
       </c>
       <c r="C7" t="n">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="D7" t="n">
-        <v>505</v>
+        <v>524</v>
       </c>
       <c r="E7" t="n">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="F7" t="n">
-        <v>321.9065</v>
+        <v>1699.9713</v>
       </c>
       <c r="G7" t="n">
-        <v>514.3333333333334</v>
+        <v>-30731.9977</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C8" t="n">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D8" t="n">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="E8" t="n">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F8" t="n">
-        <v>1005.698868773946</v>
+        <v>189.6068</v>
       </c>
       <c r="G8" t="n">
-        <v>515.3333333333334</v>
+        <v>-30921.6045</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C9" t="n">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D9" t="n">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E9" t="n">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F9" t="n">
-        <v>313.5556</v>
+        <v>19.1144</v>
       </c>
       <c r="G9" t="n">
-        <v>516</v>
+        <v>-30921.6045</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C10" t="n">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D10" t="n">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E10" t="n">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F10" t="n">
-        <v>397.6143</v>
+        <v>19.1044</v>
       </c>
       <c r="G10" t="n">
-        <v>521</v>
+        <v>-30940.7089</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C11" t="n">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D11" t="n">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="E11" t="n">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="F11" t="n">
-        <v>602.3857</v>
+        <v>14.3583</v>
       </c>
       <c r="G11" t="n">
-        <v>520.3333333333334</v>
+        <v>-30926.3506</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C12" t="n">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D12" t="n">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="E12" t="n">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F12" t="n">
-        <v>1.1489</v>
+        <v>24.4104</v>
       </c>
       <c r="G12" t="n">
-        <v>520.3333333333334</v>
+        <v>-30950.761</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C13" t="n">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="D13" t="n">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="E13" t="n">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="F13" t="n">
-        <v>175.3855</v>
+        <v>6333.7123</v>
       </c>
       <c r="G13" t="n">
-        <v>518</v>
+        <v>-24617.0487</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>512</v>
+        <v>556</v>
       </c>
       <c r="C14" t="n">
-        <v>512</v>
+        <v>556</v>
       </c>
       <c r="D14" t="n">
-        <v>512</v>
+        <v>556</v>
       </c>
       <c r="E14" t="n">
-        <v>512</v>
+        <v>556</v>
       </c>
       <c r="F14" t="n">
-        <v>19.4459</v>
+        <v>17.98561151079137</v>
       </c>
       <c r="G14" t="n">
-        <v>515.3333333333334</v>
+        <v>-24599.06308848921</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="C15" t="n">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="D15" t="n">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="E15" t="n">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="F15" t="n">
-        <v>56.0694</v>
+        <v>742.1591</v>
       </c>
       <c r="G15" t="n">
-        <v>512.3333333333334</v>
+        <v>-25341.22218848921</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C16" t="n">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="D16" t="n">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="E16" t="n">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F16" t="n">
-        <v>110.971</v>
+        <v>7207.5689</v>
       </c>
       <c r="G16" t="n">
-        <v>514.6666666666666</v>
+        <v>-25341.22218848921</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="C17" t="n">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="D17" t="n">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="E17" t="n">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="F17" t="n">
-        <v>1353.0187</v>
+        <v>675.4807</v>
       </c>
       <c r="G17" t="n">
-        <v>517.3333333333334</v>
+        <v>-26016.70288848921</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="C18" t="n">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="D18" t="n">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="E18" t="n">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="F18" t="n">
-        <v>238.8468</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>520</v>
+        <v>-26015.70288848921</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="C19" t="n">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="D19" t="n">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="E19" t="n">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="F19" t="n">
-        <v>2.3262</v>
+        <v>457.0717</v>
       </c>
       <c r="G19" t="n">
-        <v>520.3333333333334</v>
+        <v>-26472.77458848921</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="C20" t="n">
-        <v>520</v>
+        <v>541</v>
       </c>
       <c r="D20" t="n">
-        <v>520</v>
+        <v>541</v>
       </c>
       <c r="E20" t="n">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="F20" t="n">
-        <v>61.1532</v>
+        <v>1983.7866</v>
       </c>
       <c r="G20" t="n">
-        <v>520.3333333333334</v>
+        <v>-24488.98798848921</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="C21" t="n">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="D21" t="n">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="E21" t="n">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="F21" t="n">
-        <v>1664.0758</v>
+        <v>1183.8181</v>
       </c>
       <c r="G21" t="n">
-        <v>517.6666666666666</v>
+        <v>-25672.80608848921</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="C22" t="n">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="D22" t="n">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="E22" t="n">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="F22" t="n">
-        <v>741.9627</v>
+        <v>1978.8272</v>
       </c>
       <c r="G22" t="n">
-        <v>514.6666666666666</v>
+        <v>-27651.63328848921</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="C23" t="n">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="D23" t="n">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="E23" t="n">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="F23" t="n">
-        <v>3710.3173</v>
+        <v>1486.8161</v>
       </c>
       <c r="G23" t="n">
-        <v>511</v>
+        <v>-27651.63328848921</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="C24" t="n">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="D24" t="n">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="E24" t="n">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="F24" t="n">
-        <v>301.3675</v>
+        <v>462.9043</v>
       </c>
       <c r="G24" t="n">
-        <v>508.6666666666667</v>
+        <v>-28114.53758848921</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>504</v>
+        <v>523</v>
       </c>
       <c r="C25" t="n">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="D25" t="n">
-        <v>504</v>
+        <v>523</v>
       </c>
       <c r="E25" t="n">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="F25" t="n">
-        <v>519.9666</v>
+        <v>2181.2141</v>
       </c>
       <c r="G25" t="n">
-        <v>505.6666666666667</v>
+        <v>-28114.53758848921</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="C26" t="n">
-        <v>500</v>
+        <v>521</v>
       </c>
       <c r="D26" t="n">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="E26" t="n">
-        <v>500</v>
+        <v>521</v>
       </c>
       <c r="F26" t="n">
-        <v>7423.8066</v>
+        <v>14224.2612</v>
       </c>
       <c r="G26" t="n">
-        <v>502.6666666666667</v>
+        <v>-42338.79878848921</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="C27" t="n">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="D27" t="n">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="E27" t="n">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="F27" t="n">
-        <v>33.2331</v>
+        <v>21.2256</v>
       </c>
       <c r="G27" t="n">
-        <v>501</v>
+        <v>-42317.57318848921</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="C28" t="n">
-        <v>494</v>
+        <v>515</v>
       </c>
       <c r="D28" t="n">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="E28" t="n">
-        <v>494</v>
+        <v>515</v>
       </c>
       <c r="F28" t="n">
-        <v>3472.5643</v>
+        <v>2619.4681</v>
       </c>
       <c r="G28" t="n">
-        <v>498</v>
+        <v>-44937.04128848921</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="C29" t="n">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="D29" t="n">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="E29" t="n">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="F29" t="n">
-        <v>103.4322</v>
+        <v>3858.8524</v>
       </c>
       <c r="G29" t="n">
-        <v>496.3333333333333</v>
+        <v>-44937.04128848921</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="C30" t="n">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="D30" t="n">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="E30" t="n">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="F30" t="n">
-        <v>3075.0746</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>494.6666666666667</v>
+        <v>-44938.04128848921</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="C31" t="n">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="D31" t="n">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="E31" t="n">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="F31" t="n">
-        <v>65.50490000000001</v>
+        <v>9.975</v>
       </c>
       <c r="G31" t="n">
-        <v>495</v>
+        <v>-44938.04128848921</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="C32" t="n">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="D32" t="n">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="E32" t="n">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="F32" t="n">
-        <v>415.3717</v>
+        <v>3560.8344</v>
       </c>
       <c r="G32" t="n">
-        <v>495.3333333333333</v>
+        <v>-48498.87568848921</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="C33" t="n">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="D33" t="n">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="E33" t="n">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="F33" t="n">
-        <v>1.8143</v>
+        <v>882.1882000000001</v>
       </c>
       <c r="G33" t="n">
-        <v>497.3333333333333</v>
+        <v>-48498.87568848921</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="C34" t="n">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="D34" t="n">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="E34" t="n">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="F34" t="n">
-        <v>1305.7472</v>
+        <v>263.3376</v>
       </c>
       <c r="G34" t="n">
-        <v>497</v>
+        <v>-48498.87568848921</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="C35" t="n">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="D35" t="n">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="E35" t="n">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="F35" t="n">
-        <v>2711.5455</v>
+        <v>701.0453</v>
       </c>
       <c r="G35" t="n">
-        <v>497.3333333333333</v>
+        <v>-48498.87568848921</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="C36" t="n">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="D36" t="n">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="E36" t="n">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="F36" t="n">
-        <v>4694.4813</v>
+        <v>469.1188</v>
       </c>
       <c r="G36" t="n">
-        <v>496</v>
+        <v>-48498.87568848921</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="C37" t="n">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="D37" t="n">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="E37" t="n">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="F37" t="n">
-        <v>1442.3912</v>
+        <v>5</v>
       </c>
       <c r="G37" t="n">
-        <v>497</v>
+        <v>-48498.87568848921</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>499</v>
+        <v>525</v>
       </c>
       <c r="C38" t="n">
-        <v>499</v>
+        <v>525</v>
       </c>
       <c r="D38" t="n">
-        <v>499</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>499</v>
+        <v>525</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G38" t="n">
-        <v>497.6666666666667</v>
+        <v>-48495.87568848921</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="C39" t="n">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="D39" t="n">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="E39" t="n">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="F39" t="n">
-        <v>146.084</v>
+        <v>921.9818</v>
       </c>
       <c r="G39" t="n">
-        <v>498</v>
+        <v>-49417.85748848921</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>499</v>
+        <v>525</v>
       </c>
       <c r="C40" t="n">
-        <v>504</v>
+        <v>525</v>
       </c>
       <c r="D40" t="n">
-        <v>505</v>
+        <v>525</v>
       </c>
       <c r="E40" t="n">
-        <v>499</v>
+        <v>525</v>
       </c>
       <c r="F40" t="n">
-        <v>98.2816</v>
+        <v>2.8285</v>
       </c>
       <c r="G40" t="n">
-        <v>500.3333333333333</v>
+        <v>-49415.0289884892</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="C41" t="n">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="D41" t="n">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="E41" t="n">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>2.0837</v>
       </c>
       <c r="G41" t="n">
-        <v>502.6666666666667</v>
+        <v>-49415.0289884892</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="C42" t="n">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="D42" t="n">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="E42" t="n">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="F42" t="n">
-        <v>2.1972</v>
+        <v>1575.3509</v>
       </c>
       <c r="G42" t="n">
-        <v>503.3333333333333</v>
+        <v>-50990.3798884892</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C43" t="n">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="D43" t="n">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="E43" t="n">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="F43" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="G43" t="n">
-        <v>504.3333333333333</v>
+        <v>-51000.3798884892</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>509</v>
+      </c>
+      <c r="C44" t="n">
         <v>506</v>
       </c>
-      <c r="C44" t="n">
-        <v>514</v>
-      </c>
       <c r="D44" t="n">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="E44" t="n">
         <v>506</v>
       </c>
       <c r="F44" t="n">
-        <v>146.0011</v>
+        <v>937.2</v>
       </c>
       <c r="G44" t="n">
-        <v>507</v>
+        <v>-51937.5798884892</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C45" t="n">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="D45" t="n">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="E45" t="n">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="F45" t="n">
-        <v>91.1726</v>
+        <v>1.9876</v>
       </c>
       <c r="G45" t="n">
-        <v>509</v>
+        <v>-51935.5922884892</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="C46" t="n">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="D46" t="n">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="E46" t="n">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="F46" t="n">
-        <v>51.0047</v>
+        <v>166.9191</v>
       </c>
       <c r="G46" t="n">
-        <v>512.3333333333334</v>
+        <v>-52102.5113884892</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C47" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D47" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E47" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F47" t="n">
-        <v>40.596</v>
+        <v>995.4235</v>
       </c>
       <c r="G47" t="n">
-        <v>509.3333333333333</v>
+        <v>-52102.5113884892</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="C48" t="n">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="D48" t="n">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="E48" t="n">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="F48" t="n">
-        <v>4233.5346</v>
+        <v>120.0579</v>
       </c>
       <c r="G48" t="n">
-        <v>506.6666666666667</v>
+        <v>-52222.5692884892</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C49" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D49" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E49" t="n">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F49" t="n">
-        <v>633.6624</v>
+        <v>36.1137</v>
       </c>
       <c r="G49" t="n">
-        <v>502.6666666666667</v>
+        <v>-52186.4555884892</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="C50" t="n">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="D50" t="n">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="E50" t="n">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="F50" t="n">
-        <v>1.2933</v>
+        <v>1.741</v>
       </c>
       <c r="G50" t="n">
-        <v>503.6666666666667</v>
+        <v>-52184.71458848919</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="C51" t="n">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="D51" t="n">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="E51" t="n">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="F51" t="n">
-        <v>1208.7657</v>
+        <v>1.5669</v>
       </c>
       <c r="G51" t="n">
-        <v>507</v>
+        <v>-52184.71458848919</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="C52" t="n">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="D52" t="n">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="E52" t="n">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>508</v>
+        <v>-52184.71458848919</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C53" t="n">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D53" t="n">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E53" t="n">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F53" t="n">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="G53" t="n">
-        <v>507.6666666666667</v>
+        <v>-52186.71458848919</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C54" t="n">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D54" t="n">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E54" t="n">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F54" t="n">
-        <v>5536.3259</v>
+        <v>995.7152</v>
       </c>
       <c r="G54" t="n">
-        <v>508</v>
+        <v>-52186.71458848919</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C55" t="n">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D55" t="n">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="E55" t="n">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F55" t="n">
-        <v>1722.2808</v>
+        <v>3387.2463</v>
       </c>
       <c r="G55" t="n">
-        <v>507.6666666666667</v>
+        <v>-52186.71458848919</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C56" t="n">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="D56" t="n">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="E56" t="n">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="F56" t="n">
-        <v>218.1143</v>
+        <v>1.9765</v>
       </c>
       <c r="G56" t="n">
-        <v>508</v>
+        <v>-52184.7380884892</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C57" t="n">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D57" t="n">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E57" t="n">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F57" t="n">
-        <v>148.7353</v>
+        <v>50</v>
       </c>
       <c r="G57" t="n">
-        <v>508</v>
+        <v>-52184.7380884892</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C58" t="n">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D58" t="n">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E58" t="n">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="F58" t="n">
-        <v>2445.456365877712</v>
+        <v>3.8788</v>
       </c>
       <c r="G58" t="n">
-        <v>508</v>
+        <v>-52184.7380884892</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C59" t="n">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D59" t="n">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E59" t="n">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="F59" t="n">
-        <v>481.7978</v>
+        <v>1641.9261</v>
       </c>
       <c r="G59" t="n">
-        <v>505.6666666666667</v>
+        <v>-53826.66418848919</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C60" t="n">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="D60" t="n">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="E60" t="n">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="F60" t="n">
-        <v>5960.6041</v>
+        <v>1562.49</v>
       </c>
       <c r="G60" t="n">
-        <v>502.3333333333333</v>
+        <v>-55389.15418848919</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="C61" t="n">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="D61" t="n">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="E61" t="n">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="F61" t="n">
-        <v>3.92156862745098</v>
+        <v>2403.6272</v>
       </c>
       <c r="G61" t="n">
-        <v>503.3333333333333</v>
+        <v>-57792.78138848919</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="C62" t="n">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="D62" t="n">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="E62" t="n">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>14.9625</v>
       </c>
       <c r="G62" t="n">
-        <v>505.6666666666667</v>
+        <v>-57792.78138848919</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2646,10 +2646,10 @@
         <v>501</v>
       </c>
       <c r="F63" t="n">
-        <v>4017.7926</v>
+        <v>1171.3651</v>
       </c>
       <c r="G63" t="n">
-        <v>506.3333333333333</v>
+        <v>-57792.78138848919</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2682,10 +2682,10 @@
         <v>501</v>
       </c>
       <c r="F64" t="n">
-        <v>742.1592000000001</v>
+        <v>181.2113</v>
       </c>
       <c r="G64" t="n">
-        <v>503.3333333333333</v>
+        <v>-57792.78138848919</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C65" t="n">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="E65" t="n">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="F65" t="n">
-        <v>7</v>
+        <v>1029.1667</v>
       </c>
       <c r="G65" t="n">
-        <v>503</v>
+        <v>-57792.78138848919</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,35 +2742,31 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="C66" t="n">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="D66" t="n">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="E66" t="n">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="F66" t="n">
-        <v>50</v>
+        <v>712.1743</v>
       </c>
       <c r="G66" t="n">
-        <v>505</v>
+        <v>-58504.95568848919</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>507</v>
-      </c>
-      <c r="K66" t="n">
-        <v>507</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
@@ -2782,40 +2778,32 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C67" t="n">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D67" t="n">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E67" t="n">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F67" t="n">
-        <v>100</v>
+        <v>1.4721</v>
       </c>
       <c r="G67" t="n">
-        <v>507</v>
+        <v>-58503.48358848919</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>507</v>
-      </c>
-      <c r="K67" t="n">
-        <v>507</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2826,40 +2814,32 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C68" t="n">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D68" t="n">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E68" t="n">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F68" t="n">
-        <v>218.1144</v>
+        <v>3168.5279</v>
       </c>
       <c r="G68" t="n">
-        <v>505.6666666666667</v>
+        <v>-58503.48358848919</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>507</v>
-      </c>
-      <c r="K68" t="n">
-        <v>507</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2870,35 +2850,31 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C69" t="n">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D69" t="n">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E69" t="n">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F69" t="n">
-        <v>3928.146</v>
+        <v>140.2809</v>
       </c>
       <c r="G69" t="n">
-        <v>505.6666666666667</v>
+        <v>-58363.2026884892</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>503</v>
-      </c>
-      <c r="K69" t="n">
-        <v>503</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
@@ -2910,40 +2886,32 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C70" t="n">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D70" t="n">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="E70" t="n">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="F70" t="n">
-        <v>1052.7</v>
+        <v>1.3015</v>
       </c>
       <c r="G70" t="n">
-        <v>505.6666666666667</v>
+        <v>-58361.9011884892</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>507</v>
-      </c>
-      <c r="K70" t="n">
-        <v>503</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2954,7 +2922,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C71" t="n">
         <v>512</v>
@@ -2963,13 +2931,13 @@
         <v>512</v>
       </c>
       <c r="E71" t="n">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F71" t="n">
-        <v>2258.3007</v>
+        <v>531.8034</v>
       </c>
       <c r="G71" t="n">
-        <v>508.6666666666667</v>
+        <v>-57830.0977884892</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2978,14 +2946,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>503</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2996,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="C72" t="n">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="D72" t="n">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="E72" t="n">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="F72" t="n">
-        <v>2.3235</v>
+        <v>2.9315</v>
       </c>
       <c r="G72" t="n">
-        <v>510.6666666666667</v>
+        <v>-57827.1662884892</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3032,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="C73" t="n">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="D73" t="n">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="E73" t="n">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="F73" t="n">
-        <v>485.4541</v>
+        <v>142.1985</v>
       </c>
       <c r="G73" t="n">
-        <v>512.6666666666666</v>
+        <v>-57969.3647884892</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3068,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C74" t="n">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D74" t="n">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E74" t="n">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F74" t="n">
-        <v>801.408</v>
+        <v>220.1315</v>
       </c>
       <c r="G74" t="n">
-        <v>512.3333333333334</v>
+        <v>-57969.3647884892</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3104,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C75" t="n">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="D75" t="n">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="E75" t="n">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="F75" t="n">
-        <v>1243.3523</v>
+        <v>301.3715</v>
       </c>
       <c r="G75" t="n">
-        <v>511.6666666666667</v>
+        <v>-58270.7362884892</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3140,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C76" t="n">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="D76" t="n">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="E76" t="n">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="F76" t="n">
-        <v>725.9853000000001</v>
+        <v>4681.4019</v>
       </c>
       <c r="G76" t="n">
-        <v>510.6666666666667</v>
+        <v>-53589.3343884892</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3176,35 +3138,31 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="C77" t="n">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="D77" t="n">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="E77" t="n">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="F77" t="n">
-        <v>50</v>
+        <v>2.1213</v>
       </c>
       <c r="G77" t="n">
-        <v>511</v>
+        <v>-53589.3343884892</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>510</v>
-      </c>
-      <c r="K77" t="n">
-        <v>510</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
@@ -3216,40 +3174,32 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C78" t="n">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D78" t="n">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="E78" t="n">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="F78" t="n">
-        <v>50</v>
+        <v>321.9065</v>
       </c>
       <c r="G78" t="n">
-        <v>510.6666666666667</v>
+        <v>-53911.2408884892</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>512</v>
-      </c>
-      <c r="K78" t="n">
-        <v>510</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3260,40 +3210,32 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="C79" t="n">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="D79" t="n">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="E79" t="n">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="F79" t="n">
-        <v>813.9852</v>
+        <v>1005.698868773946</v>
       </c>
       <c r="G79" t="n">
-        <v>510.6666666666667</v>
+        <v>-52905.54201971526</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>510</v>
-      </c>
-      <c r="K79" t="n">
-        <v>510</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3304,35 +3246,31 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C80" t="n">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="D80" t="n">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="E80" t="n">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="F80" t="n">
-        <v>2069.5922</v>
+        <v>313.5556</v>
       </c>
       <c r="G80" t="n">
-        <v>510</v>
+        <v>-53219.09761971526</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>510</v>
-      </c>
-      <c r="K80" t="n">
-        <v>510</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
@@ -3344,40 +3282,32 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="C81" t="n">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="D81" t="n">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="E81" t="n">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="F81" t="n">
-        <v>810.8011</v>
+        <v>397.6143</v>
       </c>
       <c r="G81" t="n">
-        <v>509.6666666666667</v>
+        <v>-53616.71191971526</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>510</v>
-      </c>
-      <c r="K81" t="n">
-        <v>510</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3388,40 +3318,32 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="C82" t="n">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="D82" t="n">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="F82" t="n">
-        <v>736.9841</v>
+        <v>602.3857</v>
       </c>
       <c r="G82" t="n">
-        <v>509.6666666666667</v>
+        <v>-53616.71191971526</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>509</v>
-      </c>
-      <c r="K82" t="n">
-        <v>510</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3432,40 +3354,32 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C83" t="n">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="D83" t="n">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="E83" t="n">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="F83" t="n">
-        <v>287.2882</v>
+        <v>1.1489</v>
       </c>
       <c r="G83" t="n">
-        <v>509.6666666666667</v>
+        <v>-53615.56301971526</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>510</v>
-      </c>
-      <c r="K83" t="n">
-        <v>510</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3476,40 +3390,32 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="C84" t="n">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="D84" t="n">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="E84" t="n">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="F84" t="n">
-        <v>364.2805</v>
+        <v>175.3855</v>
       </c>
       <c r="G84" t="n">
-        <v>509</v>
+        <v>-53790.94851971525</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>510</v>
-      </c>
-      <c r="K84" t="n">
-        <v>510</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3520,40 +3426,32 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="C85" t="n">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="D85" t="n">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="F85" t="n">
-        <v>474.7332</v>
+        <v>19.4459</v>
       </c>
       <c r="G85" t="n">
-        <v>507.6666666666667</v>
+        <v>-53810.39441971525</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>507</v>
-      </c>
-      <c r="K85" t="n">
-        <v>510</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3564,40 +3462,32 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C86" t="n">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="D86" t="n">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="E86" t="n">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="F86" t="n">
-        <v>1.0088</v>
+        <v>56.0694</v>
       </c>
       <c r="G86" t="n">
-        <v>506.6666666666667</v>
+        <v>-53810.39441971525</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>506</v>
-      </c>
-      <c r="K86" t="n">
-        <v>510</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3608,40 +3498,32 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="C87" t="n">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="D87" t="n">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="E87" t="n">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="F87" t="n">
-        <v>331.0639</v>
+        <v>110.971</v>
       </c>
       <c r="G87" t="n">
-        <v>507.3333333333333</v>
+        <v>-53699.42341971525</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>507</v>
-      </c>
-      <c r="K87" t="n">
-        <v>510</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3652,40 +3534,32 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C88" t="n">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="D88" t="n">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="E88" t="n">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="F88" t="n">
-        <v>62.7796</v>
+        <v>1353.0187</v>
       </c>
       <c r="G88" t="n">
-        <v>508.3333333333333</v>
+        <v>-53699.42341971525</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>509</v>
-      </c>
-      <c r="K88" t="n">
-        <v>510</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3696,40 +3570,32 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="C89" t="n">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="D89" t="n">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="E89" t="n">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="F89" t="n">
-        <v>369.545</v>
+        <v>238.8468</v>
       </c>
       <c r="G89" t="n">
-        <v>509.3333333333333</v>
+        <v>-53699.42341971525</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>509</v>
-      </c>
-      <c r="K89" t="n">
-        <v>510</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3740,40 +3606,32 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="C90" t="n">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="D90" t="n">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="E90" t="n">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="F90" t="n">
-        <v>1746.6871</v>
+        <v>2.3262</v>
       </c>
       <c r="G90" t="n">
-        <v>507.3333333333333</v>
+        <v>-53697.09721971525</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>510</v>
-      </c>
-      <c r="K90" t="n">
-        <v>510</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3784,40 +3642,32 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C91" t="n">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="D91" t="n">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="E91" t="n">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>61.1532</v>
       </c>
       <c r="G91" t="n">
-        <v>507.3333333333333</v>
+        <v>-53758.25041971525</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>503</v>
-      </c>
-      <c r="K91" t="n">
-        <v>510</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3828,40 +3678,32 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="C92" t="n">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="D92" t="n">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E92" t="n">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="F92" t="n">
-        <v>826.7125</v>
+        <v>1664.0758</v>
       </c>
       <c r="G92" t="n">
-        <v>505</v>
+        <v>-55422.32621971525</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>509</v>
-      </c>
-      <c r="K92" t="n">
-        <v>510</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3872,40 +3714,32 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="C93" t="n">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="D93" t="n">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="E93" t="n">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="F93" t="n">
-        <v>11.4387</v>
+        <v>741.9627</v>
       </c>
       <c r="G93" t="n">
-        <v>505</v>
+        <v>-55422.32621971525</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>503</v>
-      </c>
-      <c r="K93" t="n">
-        <v>510</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3916,40 +3750,32 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C94" t="n">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D94" t="n">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="E94" t="n">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F94" t="n">
-        <v>1.0019</v>
+        <v>3710.3173</v>
       </c>
       <c r="G94" t="n">
-        <v>504.3333333333333</v>
+        <v>-59132.64351971525</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>503</v>
-      </c>
-      <c r="K94" t="n">
-        <v>510</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3960,40 +3786,32 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C95" t="n">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="D95" t="n">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="E95" t="n">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="F95" t="n">
-        <v>1857.04</v>
+        <v>301.3675</v>
       </c>
       <c r="G95" t="n">
-        <v>504</v>
+        <v>-59434.01101971525</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>507</v>
-      </c>
-      <c r="K95" t="n">
-        <v>510</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4004,40 +3822,32 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C96" t="n">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D96" t="n">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E96" t="n">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F96" t="n">
-        <v>1.3307</v>
+        <v>519.9666</v>
       </c>
       <c r="G96" t="n">
-        <v>505.3333333333333</v>
+        <v>-59953.97761971525</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>502</v>
-      </c>
-      <c r="K96" t="n">
-        <v>510</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4048,40 +3858,32 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="C97" t="n">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="D97" t="n">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="E97" t="n">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F97" t="n">
-        <v>1295.5998</v>
+        <v>7423.8066</v>
       </c>
       <c r="G97" t="n">
-        <v>505.6666666666667</v>
+        <v>-67377.78421971525</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>507</v>
-      </c>
-      <c r="K97" t="n">
-        <v>510</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4092,40 +3894,32 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="C98" t="n">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="D98" t="n">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="E98" t="n">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="F98" t="n">
-        <v>990.9521999999999</v>
+        <v>33.2331</v>
       </c>
       <c r="G98" t="n">
-        <v>508</v>
+        <v>-67377.78421971525</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>508</v>
-      </c>
-      <c r="K98" t="n">
-        <v>510</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4136,40 +3930,32 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C99" t="n">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="D99" t="n">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="E99" t="n">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="F99" t="n">
-        <v>14.6133</v>
+        <v>3472.5643</v>
       </c>
       <c r="G99" t="n">
-        <v>507.3333333333333</v>
+        <v>-70850.34851971525</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>509</v>
-      </c>
-      <c r="K99" t="n">
-        <v>510</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4180,40 +3966,32 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="C100" t="n">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="D100" t="n">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="E100" t="n">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="F100" t="n">
-        <v>14.6133</v>
+        <v>103.4322</v>
       </c>
       <c r="G100" t="n">
-        <v>507.6666666666667</v>
+        <v>-70746.91631971525</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>505</v>
-      </c>
-      <c r="K100" t="n">
-        <v>510</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4224,40 +4002,32 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="C101" t="n">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="D101" t="n">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E101" t="n">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="F101" t="n">
-        <v>64.76609999999999</v>
+        <v>3075.0746</v>
       </c>
       <c r="G101" t="n">
-        <v>506.3333333333333</v>
+        <v>-70746.91631971525</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>509</v>
-      </c>
-      <c r="K101" t="n">
-        <v>510</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4268,40 +4038,32 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="C102" t="n">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="D102" t="n">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="E102" t="n">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="F102" t="n">
-        <v>5809.7914</v>
+        <v>65.50490000000001</v>
       </c>
       <c r="G102" t="n">
-        <v>506</v>
+        <v>-70746.91631971525</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>505</v>
-      </c>
-      <c r="K102" t="n">
-        <v>510</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4312,40 +4074,32 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="C103" t="n">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="D103" t="n">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="E103" t="n">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="F103" t="n">
-        <v>352.5557</v>
+        <v>415.3717</v>
       </c>
       <c r="G103" t="n">
-        <v>505.3333333333333</v>
+        <v>-70331.54461971525</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>504</v>
-      </c>
-      <c r="K103" t="n">
-        <v>510</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4356,40 +4110,32 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C104" t="n">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D104" t="n">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="E104" t="n">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="F104" t="n">
-        <v>5191.0867</v>
+        <v>1.8143</v>
       </c>
       <c r="G104" t="n">
-        <v>506</v>
+        <v>-70329.73031971525</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>507</v>
-      </c>
-      <c r="K104" t="n">
-        <v>510</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4400,38 +4146,36 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="C105" t="n">
+        <v>494</v>
+      </c>
+      <c r="D105" t="n">
+        <v>496</v>
+      </c>
+      <c r="E105" t="n">
+        <v>494</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1305.7472</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-71635.47751971525</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
         <v>501</v>
       </c>
-      <c r="D105" t="n">
-        <v>505</v>
-      </c>
-      <c r="E105" t="n">
-        <v>501</v>
-      </c>
-      <c r="F105" t="n">
-        <v>930.7911</v>
-      </c>
-      <c r="G105" t="n">
-        <v>505</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>507</v>
-      </c>
-      <c r="K105" t="n">
-        <v>510</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M105" t="n">
@@ -4444,22 +4188,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C106" t="n">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D106" t="n">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="E106" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="F106" t="n">
-        <v>5647.2578</v>
+        <v>2711.5455</v>
       </c>
       <c r="G106" t="n">
-        <v>502.6666666666667</v>
+        <v>-68923.93201971526</v>
       </c>
       <c r="H106" t="n">
         <v>1</v>
@@ -4468,11 +4212,9 @@
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>501</v>
-      </c>
-      <c r="K106" t="n">
-        <v>510</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4488,22 +4230,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="C107" t="n">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="D107" t="n">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="E107" t="n">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="F107" t="n">
-        <v>8470.4414</v>
+        <v>4694.4813</v>
       </c>
       <c r="G107" t="n">
-        <v>502.6666666666667</v>
+        <v>-68923.93201971526</v>
       </c>
       <c r="H107" t="n">
         <v>1</v>
@@ -4512,11 +4254,9 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>500</v>
-      </c>
-      <c r="K107" t="n">
-        <v>510</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4532,22 +4272,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="C108" t="n">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="D108" t="n">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="E108" t="n">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="F108" t="n">
-        <v>67.3653</v>
+        <v>1442.3912</v>
       </c>
       <c r="G108" t="n">
-        <v>504.6666666666667</v>
+        <v>-68923.93201971526</v>
       </c>
       <c r="H108" t="n">
         <v>1</v>
@@ -4556,11 +4296,9 @@
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>507</v>
-      </c>
-      <c r="K108" t="n">
-        <v>510</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4576,33 +4314,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="C109" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="D109" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E109" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="F109" t="n">
-        <v>479.6104</v>
+        <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>507</v>
+        <v>-68922.93201971526</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>510</v>
-      </c>
+      <c r="J109" t="n">
+        <v>497</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4618,22 +4356,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="C110" t="n">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="D110" t="n">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="E110" t="n">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="F110" t="n">
-        <v>137.2752</v>
+        <v>146.084</v>
       </c>
       <c r="G110" t="n">
-        <v>507</v>
+        <v>-69069.01601971526</v>
       </c>
       <c r="H110" t="n">
         <v>1</v>
@@ -4642,11 +4380,9 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>507</v>
-      </c>
-      <c r="K110" t="n">
-        <v>510</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4662,33 +4398,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="C111" t="n">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D111" t="n">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="E111" t="n">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="F111" t="n">
-        <v>1202.2336</v>
+        <v>98.2816</v>
       </c>
       <c r="G111" t="n">
-        <v>508</v>
+        <v>-68970.73441971526</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>510</v>
-      </c>
+      <c r="J111" t="n">
+        <v>498</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4704,33 +4440,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C112" t="n">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D112" t="n">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="E112" t="n">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F112" t="n">
-        <v>9647.730100000001</v>
+        <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>509.6666666666667</v>
+        <v>-68969.73441971526</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>510</v>
-      </c>
+      <c r="J112" t="n">
+        <v>504</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4746,33 +4482,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="C113" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="D113" t="n">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="E113" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="F113" t="n">
-        <v>2281.775</v>
+        <v>2.1972</v>
       </c>
       <c r="G113" t="n">
-        <v>514</v>
+        <v>-68971.93161971525</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>510</v>
-      </c>
+      <c r="J113" t="n">
+        <v>506</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4788,33 +4524,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="C114" t="n">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="D114" t="n">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="E114" t="n">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="F114" t="n">
-        <v>1081.6187</v>
+        <v>27</v>
       </c>
       <c r="G114" t="n">
-        <v>519.6666666666666</v>
+        <v>-68944.93161971525</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>510</v>
-      </c>
+      <c r="J114" t="n">
+        <v>500</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4830,33 +4566,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>527</v>
+        <v>506</v>
       </c>
       <c r="C115" t="n">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="D115" t="n">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="E115" t="n">
-        <v>527</v>
+        <v>506</v>
       </c>
       <c r="F115" t="n">
-        <v>5421.5872</v>
+        <v>146.0011</v>
       </c>
       <c r="G115" t="n">
-        <v>524.6666666666666</v>
+        <v>-68798.93051971526</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>510</v>
-      </c>
+      <c r="J115" t="n">
+        <v>507</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4872,33 +4608,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>528</v>
+        <v>507</v>
       </c>
       <c r="C116" t="n">
-        <v>528</v>
+        <v>506</v>
       </c>
       <c r="D116" t="n">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="E116" t="n">
-        <v>528</v>
+        <v>506</v>
       </c>
       <c r="F116" t="n">
-        <v>7918.3561</v>
+        <v>91.1726</v>
       </c>
       <c r="G116" t="n">
-        <v>527.3333333333334</v>
+        <v>-68890.10311971526</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>510</v>
-      </c>
+      <c r="J116" t="n">
+        <v>514</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4914,22 +4650,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="C117" t="n">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="D117" t="n">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="E117" t="n">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="F117" t="n">
-        <v>138.3876</v>
+        <v>51.0047</v>
       </c>
       <c r="G117" t="n">
-        <v>528</v>
+        <v>-68839.09841971526</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4938,9 +4674,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>510</v>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4956,22 +4690,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="C118" t="n">
-        <v>533</v>
+        <v>505</v>
       </c>
       <c r="D118" t="n">
-        <v>533</v>
+        <v>505</v>
       </c>
       <c r="E118" t="n">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="F118" t="n">
-        <v>2491.3421</v>
+        <v>40.596</v>
       </c>
       <c r="G118" t="n">
-        <v>530</v>
+        <v>-68879.69441971526</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4980,9 +4714,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>510</v>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4998,22 +4730,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>534</v>
+        <v>500</v>
       </c>
       <c r="C119" t="n">
-        <v>534</v>
+        <v>498</v>
       </c>
       <c r="D119" t="n">
-        <v>534</v>
+        <v>500</v>
       </c>
       <c r="E119" t="n">
-        <v>534</v>
+        <v>498</v>
       </c>
       <c r="F119" t="n">
-        <v>135.9908</v>
+        <v>4233.5346</v>
       </c>
       <c r="G119" t="n">
-        <v>532</v>
+        <v>-73113.22901971526</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5022,9 +4754,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>510</v>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5040,22 +4770,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>535</v>
+        <v>504</v>
       </c>
       <c r="C120" t="n">
-        <v>535</v>
+        <v>505</v>
       </c>
       <c r="D120" t="n">
-        <v>535</v>
+        <v>505</v>
       </c>
       <c r="E120" t="n">
-        <v>535</v>
+        <v>504</v>
       </c>
       <c r="F120" t="n">
-        <v>157.5878</v>
+        <v>633.6624</v>
       </c>
       <c r="G120" t="n">
-        <v>534</v>
+        <v>-72479.56661971526</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5064,9 +4794,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>510</v>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5082,22 +4810,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>536</v>
+        <v>508</v>
       </c>
       <c r="C121" t="n">
-        <v>545</v>
+        <v>508</v>
       </c>
       <c r="D121" t="n">
-        <v>545</v>
+        <v>508</v>
       </c>
       <c r="E121" t="n">
-        <v>536</v>
+        <v>508</v>
       </c>
       <c r="F121" t="n">
-        <v>1433.1764</v>
+        <v>1.2933</v>
       </c>
       <c r="G121" t="n">
-        <v>538</v>
+        <v>-72478.27331971526</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5106,9 +4834,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>510</v>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5124,22 +4850,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>544</v>
+        <v>507</v>
       </c>
       <c r="C122" t="n">
-        <v>544</v>
+        <v>508</v>
       </c>
       <c r="D122" t="n">
-        <v>544</v>
+        <v>508</v>
       </c>
       <c r="E122" t="n">
-        <v>544</v>
+        <v>507</v>
       </c>
       <c r="F122" t="n">
-        <v>84.11920000000001</v>
+        <v>1208.7657</v>
       </c>
       <c r="G122" t="n">
-        <v>541.3333333333334</v>
+        <v>-72478.27331971526</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5148,9 +4874,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>510</v>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5166,22 +4890,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>542</v>
+        <v>508</v>
       </c>
       <c r="C123" t="n">
-        <v>542</v>
+        <v>508</v>
       </c>
       <c r="D123" t="n">
-        <v>542</v>
+        <v>508</v>
       </c>
       <c r="E123" t="n">
-        <v>542</v>
+        <v>508</v>
       </c>
       <c r="F123" t="n">
-        <v>254.8247</v>
+        <v>2</v>
       </c>
       <c r="G123" t="n">
-        <v>543.6666666666666</v>
+        <v>-72478.27331971526</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5190,9 +4914,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>510</v>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5208,22 +4930,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>533</v>
+        <v>508</v>
       </c>
       <c r="C124" t="n">
-        <v>532</v>
+        <v>507</v>
       </c>
       <c r="D124" t="n">
-        <v>533</v>
+        <v>508</v>
       </c>
       <c r="E124" t="n">
-        <v>532</v>
+        <v>507</v>
       </c>
       <c r="F124" t="n">
-        <v>1503.129</v>
+        <v>82</v>
       </c>
       <c r="G124" t="n">
-        <v>539.3333333333334</v>
+        <v>-72560.27331971526</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5232,9 +4954,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>510</v>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5250,22 +4970,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="C125" t="n">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="D125" t="n">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="E125" t="n">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="F125" t="n">
-        <v>680.5788</v>
+        <v>5536.3259</v>
       </c>
       <c r="G125" t="n">
-        <v>534.6666666666666</v>
+        <v>-67023.94741971526</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5274,9 +4994,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>510</v>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5292,22 +5010,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="C126" t="n">
-        <v>530</v>
+        <v>507</v>
       </c>
       <c r="D126" t="n">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="E126" t="n">
-        <v>530</v>
+        <v>507</v>
       </c>
       <c r="F126" t="n">
-        <v>2661.9591</v>
+        <v>1722.2808</v>
       </c>
       <c r="G126" t="n">
-        <v>530.6666666666666</v>
+        <v>-68746.22821971525</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5316,9 +5034,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>510</v>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5334,22 +5050,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="C127" t="n">
-        <v>531</v>
+        <v>508</v>
       </c>
       <c r="D127" t="n">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="E127" t="n">
-        <v>531</v>
+        <v>508</v>
       </c>
       <c r="F127" t="n">
-        <v>3337.0589</v>
+        <v>218.1143</v>
       </c>
       <c r="G127" t="n">
-        <v>530.3333333333334</v>
+        <v>-68528.11391971525</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5358,9 +5074,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>510</v>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5376,22 +5090,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>541</v>
+        <v>509</v>
       </c>
       <c r="C128" t="n">
-        <v>541</v>
+        <v>509</v>
       </c>
       <c r="D128" t="n">
-        <v>541</v>
+        <v>509</v>
       </c>
       <c r="E128" t="n">
-        <v>541</v>
+        <v>509</v>
       </c>
       <c r="F128" t="n">
-        <v>2</v>
+        <v>148.7353</v>
       </c>
       <c r="G128" t="n">
-        <v>534</v>
+        <v>-68379.37861971525</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5400,9 +5114,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>510</v>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5418,22 +5130,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>542</v>
+        <v>509</v>
       </c>
       <c r="C129" t="n">
-        <v>543</v>
+        <v>507</v>
       </c>
       <c r="D129" t="n">
-        <v>543</v>
+        <v>509</v>
       </c>
       <c r="E129" t="n">
-        <v>542</v>
+        <v>507</v>
       </c>
       <c r="F129" t="n">
-        <v>183.9899</v>
+        <v>2445.456365877712</v>
       </c>
       <c r="G129" t="n">
-        <v>538.3333333333334</v>
+        <v>-70824.83498559297</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5442,9 +5154,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>510</v>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5460,22 +5170,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>542</v>
+        <v>504</v>
       </c>
       <c r="C130" t="n">
-        <v>542</v>
+        <v>501</v>
       </c>
       <c r="D130" t="n">
-        <v>542</v>
+        <v>504</v>
       </c>
       <c r="E130" t="n">
-        <v>542</v>
+        <v>501</v>
       </c>
       <c r="F130" t="n">
-        <v>1951.7305</v>
+        <v>481.7978</v>
       </c>
       <c r="G130" t="n">
-        <v>542</v>
+        <v>-71306.63278559297</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5484,9 +5194,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>510</v>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5502,22 +5210,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>542</v>
+        <v>501</v>
       </c>
       <c r="C131" t="n">
-        <v>542</v>
+        <v>499</v>
       </c>
       <c r="D131" t="n">
-        <v>542</v>
+        <v>501</v>
       </c>
       <c r="E131" t="n">
-        <v>542</v>
+        <v>499</v>
       </c>
       <c r="F131" t="n">
-        <v>363.7749</v>
+        <v>5960.6041</v>
       </c>
       <c r="G131" t="n">
-        <v>542.3333333333334</v>
+        <v>-77267.23688559297</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5526,9 +5234,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>510</v>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5544,22 +5250,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="C132" t="n">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="D132" t="n">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="E132" t="n">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="F132" t="n">
-        <v>89.11799999999999</v>
+        <v>3.92156862745098</v>
       </c>
       <c r="G132" t="n">
-        <v>539</v>
+        <v>-77263.31531696551</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5568,9 +5274,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>510</v>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5586,22 +5290,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="C133" t="n">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="D133" t="n">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="E133" t="n">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="F133" t="n">
-        <v>183.7044</v>
+        <v>1</v>
       </c>
       <c r="G133" t="n">
-        <v>535.6666666666666</v>
+        <v>-77264.31531696551</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5610,9 +5314,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>510</v>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5628,40 +5330,38 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>531</v>
+        <v>501</v>
       </c>
       <c r="C134" t="n">
-        <v>531</v>
+        <v>501</v>
       </c>
       <c r="D134" t="n">
-        <v>531</v>
+        <v>501</v>
       </c>
       <c r="E134" t="n">
-        <v>531</v>
+        <v>501</v>
       </c>
       <c r="F134" t="n">
-        <v>2175.575</v>
+        <v>4017.7926</v>
       </c>
       <c r="G134" t="n">
-        <v>532</v>
+        <v>-81282.10791696551</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>510</v>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M134" t="n">
-        <v>1.036176470588235</v>
+        <v>1</v>
       </c>
       <c r="N134" t="inlineStr"/>
     </row>
@@ -5670,32 +5370,36 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>531</v>
+        <v>501</v>
       </c>
       <c r="C135" t="n">
-        <v>531</v>
+        <v>501</v>
       </c>
       <c r="D135" t="n">
-        <v>531</v>
+        <v>501</v>
       </c>
       <c r="E135" t="n">
-        <v>530</v>
+        <v>501</v>
       </c>
       <c r="F135" t="n">
-        <v>3999.246</v>
+        <v>742.1592000000001</v>
       </c>
       <c r="G135" t="n">
-        <v>531.3333333333334</v>
+        <v>-81282.10791696551</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5706,32 +5410,36 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>537</v>
+        <v>507</v>
       </c>
       <c r="C136" t="n">
-        <v>537</v>
+        <v>507</v>
       </c>
       <c r="D136" t="n">
-        <v>537</v>
+        <v>507</v>
       </c>
       <c r="E136" t="n">
-        <v>537</v>
+        <v>507</v>
       </c>
       <c r="F136" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G136" t="n">
-        <v>533</v>
+        <v>-81275.10791696551</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5742,22 +5450,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>535</v>
+        <v>507</v>
       </c>
       <c r="C137" t="n">
-        <v>535</v>
+        <v>507</v>
       </c>
       <c r="D137" t="n">
-        <v>535</v>
+        <v>507</v>
       </c>
       <c r="E137" t="n">
-        <v>535</v>
+        <v>507</v>
       </c>
       <c r="F137" t="n">
-        <v>74.14149999999999</v>
+        <v>50</v>
       </c>
       <c r="G137" t="n">
-        <v>534.3333333333334</v>
+        <v>-81275.10791696551</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5767,7 +5475,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5778,32 +5490,36 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>535</v>
+        <v>507</v>
       </c>
       <c r="C138" t="n">
-        <v>535</v>
+        <v>507</v>
       </c>
       <c r="D138" t="n">
-        <v>535</v>
+        <v>507</v>
       </c>
       <c r="E138" t="n">
-        <v>535</v>
+        <v>507</v>
       </c>
       <c r="F138" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G138" t="n">
-        <v>535.6666666666666</v>
+        <v>-81275.10791696551</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5814,32 +5530,36 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>536</v>
+        <v>503</v>
       </c>
       <c r="C139" t="n">
-        <v>536</v>
+        <v>503</v>
       </c>
       <c r="D139" t="n">
-        <v>536</v>
+        <v>503</v>
       </c>
       <c r="E139" t="n">
-        <v>536</v>
+        <v>503</v>
       </c>
       <c r="F139" t="n">
-        <v>724.5876</v>
+        <v>218.1144</v>
       </c>
       <c r="G139" t="n">
-        <v>535.3333333333334</v>
+        <v>-81493.22231696552</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5850,32 +5570,36 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>536</v>
+        <v>507</v>
       </c>
       <c r="C140" t="n">
-        <v>536</v>
+        <v>507</v>
       </c>
       <c r="D140" t="n">
-        <v>536</v>
+        <v>507</v>
       </c>
       <c r="E140" t="n">
-        <v>536</v>
+        <v>507</v>
       </c>
       <c r="F140" t="n">
-        <v>41.3976</v>
+        <v>3928.146</v>
       </c>
       <c r="G140" t="n">
-        <v>535.6666666666666</v>
+        <v>-77565.07631696553</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5886,22 +5610,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>536</v>
+        <v>507</v>
       </c>
       <c r="C141" t="n">
-        <v>535</v>
+        <v>507</v>
       </c>
       <c r="D141" t="n">
-        <v>536</v>
+        <v>507</v>
       </c>
       <c r="E141" t="n">
-        <v>535</v>
+        <v>507</v>
       </c>
       <c r="F141" t="n">
-        <v>2000</v>
+        <v>1052.7</v>
       </c>
       <c r="G141" t="n">
-        <v>535.6666666666666</v>
+        <v>-77565.07631696553</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5911,7 +5635,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5922,32 +5650,36 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="C142" t="n">
-        <v>535</v>
+        <v>512</v>
       </c>
       <c r="D142" t="n">
-        <v>535</v>
+        <v>512</v>
       </c>
       <c r="E142" t="n">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="F142" t="n">
-        <v>3.2276</v>
+        <v>2258.3007</v>
       </c>
       <c r="G142" t="n">
-        <v>535.3333333333334</v>
+        <v>-75306.77561696552</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5958,32 +5690,36 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="C143" t="n">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="D143" t="n">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="E143" t="n">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="F143" t="n">
-        <v>7022.4757</v>
+        <v>2.3235</v>
       </c>
       <c r="G143" t="n">
-        <v>533.3333333333334</v>
+        <v>-75304.45211696552</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5994,32 +5730,36 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="C144" t="n">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="D144" t="n">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="E144" t="n">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="F144" t="n">
-        <v>668.0086</v>
+        <v>485.4541</v>
       </c>
       <c r="G144" t="n">
-        <v>531.6666666666666</v>
+        <v>-75304.45211696552</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6030,32 +5770,36 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="C145" t="n">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="D145" t="n">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="E145" t="n">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="F145" t="n">
-        <v>1333.8383</v>
+        <v>801.408</v>
       </c>
       <c r="G145" t="n">
-        <v>531</v>
+        <v>-76105.86011696552</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6066,32 +5810,36 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="C146" t="n">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="D146" t="n">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="E146" t="n">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="F146" t="n">
-        <v>416.075</v>
+        <v>1243.3523</v>
       </c>
       <c r="G146" t="n">
-        <v>532</v>
+        <v>-76105.86011696552</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6102,32 +5850,36 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="C147" t="n">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="D147" t="n">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="E147" t="n">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="F147" t="n">
-        <v>368.7</v>
+        <v>725.9853000000001</v>
       </c>
       <c r="G147" t="n">
-        <v>533</v>
+        <v>-76831.84541696552</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6138,32 +5890,36 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="C148" t="n">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="D148" t="n">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="E148" t="n">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="F148" t="n">
-        <v>351.5834</v>
+        <v>50</v>
       </c>
       <c r="G148" t="n">
-        <v>533.3333333333334</v>
+        <v>-76781.84541696552</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6174,32 +5930,36 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="C149" t="n">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="D149" t="n">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="E149" t="n">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="F149" t="n">
-        <v>370.0878</v>
+        <v>50</v>
       </c>
       <c r="G149" t="n">
-        <v>534</v>
+        <v>-76831.84541696552</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6210,32 +5970,36 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="C150" t="n">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="D150" t="n">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="E150" t="n">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="F150" t="n">
-        <v>183.5299</v>
+        <v>813.9852</v>
       </c>
       <c r="G150" t="n">
-        <v>534</v>
+        <v>-76831.84541696552</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6246,36 +6010,2884 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="C151" t="n">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="D151" t="n">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="E151" t="n">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="F151" t="n">
-        <v>481.235</v>
+        <v>2069.5922</v>
       </c>
       <c r="G151" t="n">
-        <v>532.6666666666666</v>
+        <v>-76831.84541696552</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
       <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>510</v>
+      </c>
+      <c r="C152" t="n">
+        <v>509</v>
+      </c>
+      <c r="D152" t="n">
+        <v>510</v>
+      </c>
+      <c r="E152" t="n">
+        <v>509</v>
+      </c>
+      <c r="F152" t="n">
+        <v>810.8011</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-77642.64651696551</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>510</v>
+      </c>
+      <c r="C153" t="n">
+        <v>510</v>
+      </c>
+      <c r="D153" t="n">
+        <v>510</v>
+      </c>
+      <c r="E153" t="n">
+        <v>510</v>
+      </c>
+      <c r="F153" t="n">
+        <v>736.9841</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-76905.66241696551</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>510</v>
+      </c>
+      <c r="C154" t="n">
+        <v>510</v>
+      </c>
+      <c r="D154" t="n">
+        <v>510</v>
+      </c>
+      <c r="E154" t="n">
+        <v>510</v>
+      </c>
+      <c r="F154" t="n">
+        <v>287.2882</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-76905.66241696551</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>509</v>
+      </c>
+      <c r="C155" t="n">
+        <v>507</v>
+      </c>
+      <c r="D155" t="n">
+        <v>509</v>
+      </c>
+      <c r="E155" t="n">
+        <v>507</v>
+      </c>
+      <c r="F155" t="n">
+        <v>364.2805</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-77269.9429169655</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>506</v>
+      </c>
+      <c r="C156" t="n">
+        <v>506</v>
+      </c>
+      <c r="D156" t="n">
+        <v>506</v>
+      </c>
+      <c r="E156" t="n">
+        <v>506</v>
+      </c>
+      <c r="F156" t="n">
+        <v>474.7332</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-77744.67611696551</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>507</v>
+      </c>
+      <c r="C157" t="n">
+        <v>507</v>
+      </c>
+      <c r="D157" t="n">
+        <v>507</v>
+      </c>
+      <c r="E157" t="n">
+        <v>507</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1.0088</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-77743.66731696551</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>507</v>
+      </c>
+      <c r="C158" t="n">
+        <v>509</v>
+      </c>
+      <c r="D158" t="n">
+        <v>509</v>
+      </c>
+      <c r="E158" t="n">
+        <v>507</v>
+      </c>
+      <c r="F158" t="n">
+        <v>331.0639</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-77412.60341696552</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>509</v>
+      </c>
+      <c r="C159" t="n">
+        <v>509</v>
+      </c>
+      <c r="D159" t="n">
+        <v>509</v>
+      </c>
+      <c r="E159" t="n">
+        <v>509</v>
+      </c>
+      <c r="F159" t="n">
+        <v>62.7796</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-77412.60341696552</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>509</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>510</v>
+      </c>
+      <c r="C160" t="n">
+        <v>510</v>
+      </c>
+      <c r="D160" t="n">
+        <v>510</v>
+      </c>
+      <c r="E160" t="n">
+        <v>510</v>
+      </c>
+      <c r="F160" t="n">
+        <v>369.545</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-77043.05841696552</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>505</v>
+      </c>
+      <c r="C161" t="n">
+        <v>503</v>
+      </c>
+      <c r="D161" t="n">
+        <v>505</v>
+      </c>
+      <c r="E161" t="n">
+        <v>503</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1746.6871</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-78789.74551696551</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>509</v>
+      </c>
+      <c r="C162" t="n">
+        <v>509</v>
+      </c>
+      <c r="D162" t="n">
+        <v>509</v>
+      </c>
+      <c r="E162" t="n">
+        <v>509</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-78788.74551696551</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>503</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>504</v>
+      </c>
+      <c r="C163" t="n">
+        <v>503</v>
+      </c>
+      <c r="D163" t="n">
+        <v>504</v>
+      </c>
+      <c r="E163" t="n">
+        <v>503</v>
+      </c>
+      <c r="F163" t="n">
+        <v>826.7125</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-79615.45801696551</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>503</v>
+      </c>
+      <c r="C164" t="n">
+        <v>503</v>
+      </c>
+      <c r="D164" t="n">
+        <v>503</v>
+      </c>
+      <c r="E164" t="n">
+        <v>503</v>
+      </c>
+      <c r="F164" t="n">
+        <v>11.4387</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-79615.45801696551</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>507</v>
+      </c>
+      <c r="C165" t="n">
+        <v>507</v>
+      </c>
+      <c r="D165" t="n">
+        <v>507</v>
+      </c>
+      <c r="E165" t="n">
+        <v>507</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1.0019</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-79614.45611696551</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>503</v>
+      </c>
+      <c r="C166" t="n">
+        <v>502</v>
+      </c>
+      <c r="D166" t="n">
+        <v>503</v>
+      </c>
+      <c r="E166" t="n">
+        <v>502</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1857.04</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-81471.4961169655</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>507</v>
+      </c>
+      <c r="C167" t="n">
+        <v>507</v>
+      </c>
+      <c r="D167" t="n">
+        <v>507</v>
+      </c>
+      <c r="E167" t="n">
+        <v>507</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1.3307</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-81470.16541696549</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>507</v>
+      </c>
+      <c r="C168" t="n">
+        <v>508</v>
+      </c>
+      <c r="D168" t="n">
+        <v>508</v>
+      </c>
+      <c r="E168" t="n">
+        <v>507</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1295.5998</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-80174.5656169655</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>508</v>
+      </c>
+      <c r="C169" t="n">
+        <v>509</v>
+      </c>
+      <c r="D169" t="n">
+        <v>509</v>
+      </c>
+      <c r="E169" t="n">
+        <v>508</v>
+      </c>
+      <c r="F169" t="n">
+        <v>990.9521999999999</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-79183.6134169655</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>505</v>
+      </c>
+      <c r="C170" t="n">
+        <v>505</v>
+      </c>
+      <c r="D170" t="n">
+        <v>505</v>
+      </c>
+      <c r="E170" t="n">
+        <v>505</v>
+      </c>
+      <c r="F170" t="n">
+        <v>14.6133</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-79198.2267169655</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>509</v>
+      </c>
+      <c r="C171" t="n">
+        <v>509</v>
+      </c>
+      <c r="D171" t="n">
+        <v>509</v>
+      </c>
+      <c r="E171" t="n">
+        <v>509</v>
+      </c>
+      <c r="F171" t="n">
+        <v>14.6133</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-79183.6134169655</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>505</v>
+      </c>
+      <c r="C172" t="n">
+        <v>505</v>
+      </c>
+      <c r="D172" t="n">
+        <v>505</v>
+      </c>
+      <c r="E172" t="n">
+        <v>505</v>
+      </c>
+      <c r="F172" t="n">
+        <v>64.76609999999999</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-79248.37951696549</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>505</v>
+      </c>
+      <c r="C173" t="n">
+        <v>504</v>
+      </c>
+      <c r="D173" t="n">
+        <v>505</v>
+      </c>
+      <c r="E173" t="n">
+        <v>504</v>
+      </c>
+      <c r="F173" t="n">
+        <v>5809.7914</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-85058.17091696549</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>507</v>
+      </c>
+      <c r="C174" t="n">
+        <v>507</v>
+      </c>
+      <c r="D174" t="n">
+        <v>507</v>
+      </c>
+      <c r="E174" t="n">
+        <v>507</v>
+      </c>
+      <c r="F174" t="n">
+        <v>352.5557</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-84705.6152169655</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>507</v>
+      </c>
+      <c r="C175" t="n">
+        <v>507</v>
+      </c>
+      <c r="D175" t="n">
+        <v>507</v>
+      </c>
+      <c r="E175" t="n">
+        <v>507</v>
+      </c>
+      <c r="F175" t="n">
+        <v>5191.0867</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-84705.6152169655</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>505</v>
+      </c>
+      <c r="C176" t="n">
+        <v>501</v>
+      </c>
+      <c r="D176" t="n">
+        <v>505</v>
+      </c>
+      <c r="E176" t="n">
+        <v>501</v>
+      </c>
+      <c r="F176" t="n">
+        <v>930.7911</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-85636.4063169655</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>503</v>
+      </c>
+      <c r="C177" t="n">
+        <v>500</v>
+      </c>
+      <c r="D177" t="n">
+        <v>503</v>
+      </c>
+      <c r="E177" t="n">
+        <v>500</v>
+      </c>
+      <c r="F177" t="n">
+        <v>5647.2578</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-91283.6641169655</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>506</v>
+      </c>
+      <c r="C178" t="n">
+        <v>507</v>
+      </c>
+      <c r="D178" t="n">
+        <v>507</v>
+      </c>
+      <c r="E178" t="n">
+        <v>506</v>
+      </c>
+      <c r="F178" t="n">
+        <v>8470.4414</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-82813.22271696551</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>507</v>
+      </c>
+      <c r="C179" t="n">
+        <v>507</v>
+      </c>
+      <c r="D179" t="n">
+        <v>507</v>
+      </c>
+      <c r="E179" t="n">
+        <v>507</v>
+      </c>
+      <c r="F179" t="n">
+        <v>67.3653</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-82813.22271696551</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>507</v>
+      </c>
+      <c r="C180" t="n">
+        <v>507</v>
+      </c>
+      <c r="D180" t="n">
+        <v>507</v>
+      </c>
+      <c r="E180" t="n">
+        <v>507</v>
+      </c>
+      <c r="F180" t="n">
+        <v>479.6104</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-82813.22271696551</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>507</v>
+      </c>
+      <c r="C181" t="n">
+        <v>507</v>
+      </c>
+      <c r="D181" t="n">
+        <v>507</v>
+      </c>
+      <c r="E181" t="n">
+        <v>507</v>
+      </c>
+      <c r="F181" t="n">
+        <v>137.2752</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-82813.22271696551</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>510</v>
+      </c>
+      <c r="C182" t="n">
+        <v>510</v>
+      </c>
+      <c r="D182" t="n">
+        <v>510</v>
+      </c>
+      <c r="E182" t="n">
+        <v>510</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1202.2336</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-81610.9891169655</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>511</v>
+      </c>
+      <c r="C183" t="n">
+        <v>512</v>
+      </c>
+      <c r="D183" t="n">
+        <v>512</v>
+      </c>
+      <c r="E183" t="n">
+        <v>511</v>
+      </c>
+      <c r="F183" t="n">
+        <v>9647.730100000001</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-71963.2590169655</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>520</v>
+      </c>
+      <c r="C184" t="n">
+        <v>520</v>
+      </c>
+      <c r="D184" t="n">
+        <v>520</v>
+      </c>
+      <c r="E184" t="n">
+        <v>520</v>
+      </c>
+      <c r="F184" t="n">
+        <v>2281.775</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-69681.48401696551</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>520</v>
+      </c>
+      <c r="C185" t="n">
+        <v>527</v>
+      </c>
+      <c r="D185" t="n">
+        <v>527</v>
+      </c>
+      <c r="E185" t="n">
+        <v>520</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1081.6187</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-68599.8653169655</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>527</v>
+      </c>
+      <c r="C186" t="n">
+        <v>527</v>
+      </c>
+      <c r="D186" t="n">
+        <v>527</v>
+      </c>
+      <c r="E186" t="n">
+        <v>527</v>
+      </c>
+      <c r="F186" t="n">
+        <v>5421.5872</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-68599.8653169655</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>528</v>
+      </c>
+      <c r="C187" t="n">
+        <v>528</v>
+      </c>
+      <c r="D187" t="n">
+        <v>529</v>
+      </c>
+      <c r="E187" t="n">
+        <v>528</v>
+      </c>
+      <c r="F187" t="n">
+        <v>7918.3561</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-60681.5092169655</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>528</v>
+      </c>
+      <c r="C188" t="n">
+        <v>529</v>
+      </c>
+      <c r="D188" t="n">
+        <v>529</v>
+      </c>
+      <c r="E188" t="n">
+        <v>528</v>
+      </c>
+      <c r="F188" t="n">
+        <v>138.3876</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-60543.1216169655</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>529</v>
+      </c>
+      <c r="C189" t="n">
+        <v>533</v>
+      </c>
+      <c r="D189" t="n">
+        <v>533</v>
+      </c>
+      <c r="E189" t="n">
+        <v>529</v>
+      </c>
+      <c r="F189" t="n">
+        <v>2491.3421</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-58051.7795169655</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>534</v>
+      </c>
+      <c r="C190" t="n">
+        <v>534</v>
+      </c>
+      <c r="D190" t="n">
+        <v>534</v>
+      </c>
+      <c r="E190" t="n">
+        <v>534</v>
+      </c>
+      <c r="F190" t="n">
+        <v>135.9908</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-57915.7887169655</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>535</v>
+      </c>
+      <c r="C191" t="n">
+        <v>535</v>
+      </c>
+      <c r="D191" t="n">
+        <v>535</v>
+      </c>
+      <c r="E191" t="n">
+        <v>535</v>
+      </c>
+      <c r="F191" t="n">
+        <v>157.5878</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-57758.2009169655</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>536</v>
+      </c>
+      <c r="C192" t="n">
+        <v>545</v>
+      </c>
+      <c r="D192" t="n">
+        <v>545</v>
+      </c>
+      <c r="E192" t="n">
+        <v>536</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1433.1764</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-56325.0245169655</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>544</v>
+      </c>
+      <c r="C193" t="n">
+        <v>544</v>
+      </c>
+      <c r="D193" t="n">
+        <v>544</v>
+      </c>
+      <c r="E193" t="n">
+        <v>544</v>
+      </c>
+      <c r="F193" t="n">
+        <v>84.11920000000001</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-56409.1437169655</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>542</v>
+      </c>
+      <c r="C194" t="n">
+        <v>542</v>
+      </c>
+      <c r="D194" t="n">
+        <v>542</v>
+      </c>
+      <c r="E194" t="n">
+        <v>542</v>
+      </c>
+      <c r="F194" t="n">
+        <v>254.8247</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-56663.9684169655</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>533</v>
+      </c>
+      <c r="C195" t="n">
+        <v>532</v>
+      </c>
+      <c r="D195" t="n">
+        <v>533</v>
+      </c>
+      <c r="E195" t="n">
+        <v>532</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1503.129</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-58167.0974169655</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>530</v>
+      </c>
+      <c r="C196" t="n">
+        <v>530</v>
+      </c>
+      <c r="D196" t="n">
+        <v>530</v>
+      </c>
+      <c r="E196" t="n">
+        <v>530</v>
+      </c>
+      <c r="F196" t="n">
+        <v>680.5788</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-58847.6762169655</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>531</v>
+      </c>
+      <c r="C197" t="n">
+        <v>530</v>
+      </c>
+      <c r="D197" t="n">
+        <v>531</v>
+      </c>
+      <c r="E197" t="n">
+        <v>530</v>
+      </c>
+      <c r="F197" t="n">
+        <v>2661.9591</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-58847.6762169655</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>532</v>
+      </c>
+      <c r="C198" t="n">
+        <v>531</v>
+      </c>
+      <c r="D198" t="n">
+        <v>532</v>
+      </c>
+      <c r="E198" t="n">
+        <v>531</v>
+      </c>
+      <c r="F198" t="n">
+        <v>3337.0589</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-55510.61731696551</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>541</v>
+      </c>
+      <c r="C199" t="n">
+        <v>541</v>
+      </c>
+      <c r="D199" t="n">
+        <v>541</v>
+      </c>
+      <c r="E199" t="n">
+        <v>541</v>
+      </c>
+      <c r="F199" t="n">
+        <v>2</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-55508.61731696551</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>542</v>
+      </c>
+      <c r="C200" t="n">
+        <v>543</v>
+      </c>
+      <c r="D200" t="n">
+        <v>543</v>
+      </c>
+      <c r="E200" t="n">
+        <v>542</v>
+      </c>
+      <c r="F200" t="n">
+        <v>183.9899</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-55324.62741696551</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>542</v>
+      </c>
+      <c r="C201" t="n">
+        <v>542</v>
+      </c>
+      <c r="D201" t="n">
+        <v>542</v>
+      </c>
+      <c r="E201" t="n">
+        <v>542</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1951.7305</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-57276.35791696551</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>542</v>
+      </c>
+      <c r="C202" t="n">
+        <v>542</v>
+      </c>
+      <c r="D202" t="n">
+        <v>542</v>
+      </c>
+      <c r="E202" t="n">
+        <v>542</v>
+      </c>
+      <c r="F202" t="n">
+        <v>363.7749</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-57276.35791696551</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>533</v>
+      </c>
+      <c r="C203" t="n">
+        <v>533</v>
+      </c>
+      <c r="D203" t="n">
+        <v>533</v>
+      </c>
+      <c r="E203" t="n">
+        <v>533</v>
+      </c>
+      <c r="F203" t="n">
+        <v>89.11799999999999</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-57365.47591696551</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>532</v>
+      </c>
+      <c r="C204" t="n">
+        <v>532</v>
+      </c>
+      <c r="D204" t="n">
+        <v>532</v>
+      </c>
+      <c r="E204" t="n">
+        <v>532</v>
+      </c>
+      <c r="F204" t="n">
+        <v>183.7044</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-57549.18031696551</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>531</v>
+      </c>
+      <c r="C205" t="n">
+        <v>531</v>
+      </c>
+      <c r="D205" t="n">
+        <v>531</v>
+      </c>
+      <c r="E205" t="n">
+        <v>531</v>
+      </c>
+      <c r="F205" t="n">
+        <v>2175.575</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-59724.75531696551</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>531</v>
+      </c>
+      <c r="C206" t="n">
+        <v>531</v>
+      </c>
+      <c r="D206" t="n">
+        <v>531</v>
+      </c>
+      <c r="E206" t="n">
+        <v>530</v>
+      </c>
+      <c r="F206" t="n">
+        <v>3999.246</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-59724.75531696551</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>537</v>
+      </c>
+      <c r="C207" t="n">
+        <v>537</v>
+      </c>
+      <c r="D207" t="n">
+        <v>537</v>
+      </c>
+      <c r="E207" t="n">
+        <v>537</v>
+      </c>
+      <c r="F207" t="n">
+        <v>1</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-59723.75531696551</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>535</v>
+      </c>
+      <c r="C208" t="n">
+        <v>535</v>
+      </c>
+      <c r="D208" t="n">
+        <v>535</v>
+      </c>
+      <c r="E208" t="n">
+        <v>535</v>
+      </c>
+      <c r="F208" t="n">
+        <v>74.14149999999999</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-59797.89681696551</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>535</v>
+      </c>
+      <c r="C209" t="n">
+        <v>535</v>
+      </c>
+      <c r="D209" t="n">
+        <v>535</v>
+      </c>
+      <c r="E209" t="n">
+        <v>535</v>
+      </c>
+      <c r="F209" t="n">
+        <v>1</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-59797.89681696551</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>536</v>
+      </c>
+      <c r="C210" t="n">
+        <v>536</v>
+      </c>
+      <c r="D210" t="n">
+        <v>536</v>
+      </c>
+      <c r="E210" t="n">
+        <v>536</v>
+      </c>
+      <c r="F210" t="n">
+        <v>724.5876</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-59073.30921696551</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>536</v>
+      </c>
+      <c r="C211" t="n">
+        <v>536</v>
+      </c>
+      <c r="D211" t="n">
+        <v>536</v>
+      </c>
+      <c r="E211" t="n">
+        <v>536</v>
+      </c>
+      <c r="F211" t="n">
+        <v>41.3976</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-59073.30921696551</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>536</v>
+      </c>
+      <c r="C212" t="n">
+        <v>535</v>
+      </c>
+      <c r="D212" t="n">
+        <v>536</v>
+      </c>
+      <c r="E212" t="n">
+        <v>535</v>
+      </c>
+      <c r="F212" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-61073.30921696551</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>535</v>
+      </c>
+      <c r="C213" t="n">
+        <v>535</v>
+      </c>
+      <c r="D213" t="n">
+        <v>535</v>
+      </c>
+      <c r="E213" t="n">
+        <v>535</v>
+      </c>
+      <c r="F213" t="n">
+        <v>3.2276</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-61073.30921696551</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>535</v>
+      </c>
+      <c r="C214" t="n">
+        <v>530</v>
+      </c>
+      <c r="D214" t="n">
+        <v>535</v>
+      </c>
+      <c r="E214" t="n">
+        <v>530</v>
+      </c>
+      <c r="F214" t="n">
+        <v>7022.4757</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-68095.78491696551</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>530</v>
+      </c>
+      <c r="C215" t="n">
+        <v>530</v>
+      </c>
+      <c r="D215" t="n">
+        <v>530</v>
+      </c>
+      <c r="E215" t="n">
+        <v>530</v>
+      </c>
+      <c r="F215" t="n">
+        <v>668.0086</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-68095.78491696551</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>530</v>
+      </c>
+      <c r="C216" t="n">
+        <v>533</v>
+      </c>
+      <c r="D216" t="n">
+        <v>533</v>
+      </c>
+      <c r="E216" t="n">
+        <v>530</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1333.8383</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-66761.94661696551</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>533</v>
+      </c>
+      <c r="C217" t="n">
+        <v>533</v>
+      </c>
+      <c r="D217" t="n">
+        <v>533</v>
+      </c>
+      <c r="E217" t="n">
+        <v>533</v>
+      </c>
+      <c r="F217" t="n">
+        <v>416.075</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-66761.94661696551</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>533</v>
+      </c>
+      <c r="C218" t="n">
+        <v>533</v>
+      </c>
+      <c r="D218" t="n">
+        <v>533</v>
+      </c>
+      <c r="E218" t="n">
+        <v>533</v>
+      </c>
+      <c r="F218" t="n">
+        <v>368.7</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-66761.94661696551</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>534</v>
+      </c>
+      <c r="C219" t="n">
+        <v>534</v>
+      </c>
+      <c r="D219" t="n">
+        <v>534</v>
+      </c>
+      <c r="E219" t="n">
+        <v>534</v>
+      </c>
+      <c r="F219" t="n">
+        <v>351.5834</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-66410.3632169655</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>535</v>
+      </c>
+      <c r="C220" t="n">
+        <v>535</v>
+      </c>
+      <c r="D220" t="n">
+        <v>535</v>
+      </c>
+      <c r="E220" t="n">
+        <v>535</v>
+      </c>
+      <c r="F220" t="n">
+        <v>370.0878</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-66040.27541696551</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>533</v>
+      </c>
+      <c r="C221" t="n">
+        <v>533</v>
+      </c>
+      <c r="D221" t="n">
+        <v>533</v>
+      </c>
+      <c r="E221" t="n">
+        <v>533</v>
+      </c>
+      <c r="F221" t="n">
+        <v>183.5299</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-66223.8053169655</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>533</v>
+      </c>
+      <c r="C222" t="n">
+        <v>530</v>
+      </c>
+      <c r="D222" t="n">
+        <v>533</v>
+      </c>
+      <c r="E222" t="n">
+        <v>530</v>
+      </c>
+      <c r="F222" t="n">
+        <v>481.235</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-66705.0403169655</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-27 BackTest VALOR.xlsx
+++ b/BackTest/2019-10-27 BackTest VALOR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N222"/>
+  <dimension ref="A1:M222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-28686.7548</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-29032.0264</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>-30926.3506</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>-30950.761</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>-24617.0487</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>-24599.06308848921</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>-25341.22218848921</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>-25341.22218848921</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>-26015.70288848921</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>-26472.77458848921</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>-24488.98798848921</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>-27651.63328848921</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>-48498.87568848921</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1837,15 @@
         <v>-51937.5798884892</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +1969,15 @@
         <v>-52222.5692884892</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2148,18 +2002,15 @@
         <v>-52186.4555884892</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2292,18 +2134,15 @@
         <v>-52186.71458848919</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3444,18 +3190,15 @@
         <v>-53810.39441971525</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3480,18 +3223,15 @@
         <v>-53810.39441971525</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3516,18 +3256,15 @@
         <v>-53699.42341971525</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3660,18 +3388,15 @@
         <v>-53758.25041971525</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3876,18 +3586,15 @@
         <v>-67377.78421971525</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3912,18 +3619,15 @@
         <v>-67377.78421971525</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3948,18 +3652,15 @@
         <v>-70850.34851971525</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3984,18 +3685,15 @@
         <v>-70746.91631971525</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4164,24 +3850,15 @@
         <v>-71635.47751971525</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>501</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4206,24 +3883,15 @@
         <v>-68923.93201971526</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>494</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4248,24 +3916,15 @@
         <v>-68923.93201971526</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>497</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4290,24 +3949,15 @@
         <v>-68923.93201971526</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>497</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4332,24 +3982,19 @@
         <v>-68922.93201971526</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>497</v>
       </c>
       <c r="J109" t="n">
         <v>497</v>
       </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4374,24 +4019,23 @@
         <v>-69069.01601971526</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>499</v>
       </c>
       <c r="J110" t="n">
-        <v>499</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+        <v>497</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4416,24 +4060,23 @@
         <v>-68970.73441971526</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>498</v>
       </c>
       <c r="J111" t="n">
-        <v>498</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+        <v>497</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4458,24 +4101,19 @@
         <v>-68969.73441971526</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="J112" t="n">
         <v>504</v>
       </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4500,24 +4138,23 @@
         <v>-68971.93161971525</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>506</v>
       </c>
       <c r="J113" t="n">
-        <v>506</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+        <v>504</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4542,24 +4179,23 @@
         <v>-68944.93161971525</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J114" t="n">
-        <v>500</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+        <v>504</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4584,24 +4220,21 @@
         <v>-68798.93051971526</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>507</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+        <v>504</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4626,24 +4259,21 @@
         <v>-68890.10311971526</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>514</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+        <v>504</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4670,20 +4300,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>504</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4710,20 +4339,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>504</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4750,20 +4378,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>504</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4790,20 +4417,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>504</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4830,20 +4456,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>504</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4870,20 +4495,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>504</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4910,20 +4534,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>504</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4950,20 +4573,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>504</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4990,20 +4612,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>504</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5030,20 +4651,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>504</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5070,20 +4690,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>504</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5110,20 +4729,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>504</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5150,20 +4768,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>504</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5190,20 +4807,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>504</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5230,20 +4846,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>504</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5270,20 +4885,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>504</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5310,20 +4924,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>504</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5350,20 +4963,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>504</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5390,20 +5002,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>504</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5430,20 +5041,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>504</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5470,20 +5080,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>504</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5510,20 +5119,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>504</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5550,20 +5158,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>504</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5590,20 +5197,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>504</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5630,20 +5236,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>504</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5670,20 +5275,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>504</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5710,20 +5314,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>504</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5750,20 +5353,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>504</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5790,20 +5392,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>504</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5830,20 +5431,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>504</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5870,20 +5470,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>504</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5910,20 +5509,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>504</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5950,20 +5548,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>504</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5990,20 +5587,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>504</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6028,22 +5624,23 @@
         <v>-76831.84541696552</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+        <v>510</v>
+      </c>
+      <c r="J151" t="n">
+        <v>504</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6070,20 +5667,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>504</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6110,20 +5706,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>504</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6150,20 +5745,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>504</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6188,22 +5782,23 @@
         <v>-77269.9429169655</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+        <v>510</v>
+      </c>
+      <c r="J155" t="n">
+        <v>504</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6228,22 +5823,23 @@
         <v>-77744.67611696551</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+        <v>507</v>
+      </c>
+      <c r="J156" t="n">
+        <v>504</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6268,22 +5864,23 @@
         <v>-77743.66731696551</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+        <v>506</v>
+      </c>
+      <c r="J157" t="n">
+        <v>504</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6308,22 +5905,23 @@
         <v>-77412.60341696552</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+        <v>507</v>
+      </c>
+      <c r="J158" t="n">
+        <v>504</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6348,24 +5946,23 @@
         <v>-77412.60341696552</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>509</v>
       </c>
       <c r="J159" t="n">
-        <v>509</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+        <v>504</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6392,20 +5989,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>504</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6430,22 +6026,23 @@
         <v>-78789.74551696551</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+        <v>510</v>
+      </c>
+      <c r="J161" t="n">
+        <v>504</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6470,24 +6067,21 @@
         <v>-78788.74551696551</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>503</v>
-      </c>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+        <v>504</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6514,20 +6108,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>504</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6554,20 +6147,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>504</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6592,22 +6184,23 @@
         <v>-79614.45611696551</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+        <v>503</v>
+      </c>
+      <c r="J165" t="n">
+        <v>504</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6632,22 +6225,23 @@
         <v>-81471.4961169655</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+        <v>507</v>
+      </c>
+      <c r="J166" t="n">
+        <v>504</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6672,22 +6266,23 @@
         <v>-81470.16541696549</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+        <v>502</v>
+      </c>
+      <c r="J167" t="n">
+        <v>504</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6712,22 +6307,23 @@
         <v>-80174.5656169655</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+        <v>507</v>
+      </c>
+      <c r="J168" t="n">
+        <v>504</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6754,20 +6350,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>504</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6794,20 +6389,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>504</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6834,20 +6428,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>504</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6874,20 +6467,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>504</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6914,20 +6506,19 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>504</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6952,22 +6543,23 @@
         <v>-84705.6152169655</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+        <v>504</v>
+      </c>
+      <c r="J174" t="n">
+        <v>504</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6992,22 +6584,23 @@
         <v>-84705.6152169655</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+        <v>507</v>
+      </c>
+      <c r="J175" t="n">
+        <v>504</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7032,22 +6625,23 @@
         <v>-85636.4063169655</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+        <v>507</v>
+      </c>
+      <c r="J176" t="n">
+        <v>504</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7074,20 +6668,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>504</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7114,20 +6707,19 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>504</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7154,20 +6746,19 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>504</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7194,20 +6785,19 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>504</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7234,20 +6824,19 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>504</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7274,20 +6863,19 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>504</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7314,20 +6902,19 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>504</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7354,20 +6941,19 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>504</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7394,20 +6980,19 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>504</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7434,20 +7019,19 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>504</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7474,20 +7058,19 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>504</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7514,20 +7097,19 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>504</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7554,20 +7136,19 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>504</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7594,20 +7175,19 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>504</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7634,20 +7214,19 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>504</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7674,20 +7253,19 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>504</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7714,20 +7292,19 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>504</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7754,20 +7331,19 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>504</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7794,20 +7370,19 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>504</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7834,20 +7409,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>504</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7874,20 +7448,19 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>504</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7914,20 +7487,19 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>504</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7954,20 +7526,19 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>504</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7994,20 +7565,19 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>504</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8034,20 +7604,19 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>504</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8074,20 +7643,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>504</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8114,20 +7682,19 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>504</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8154,20 +7721,19 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>504</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8194,20 +7760,19 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>504</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8234,20 +7799,19 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>504</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8274,20 +7838,19 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>504</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8314,20 +7877,19 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>504</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8354,20 +7916,19 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>504</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8394,20 +7955,19 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>504</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8434,20 +7994,19 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>504</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8474,20 +8033,19 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>504</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8514,20 +8072,19 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>504</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8554,20 +8111,19 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>504</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8594,20 +8150,19 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>504</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8634,20 +8189,19 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>504</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8674,20 +8228,19 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>504</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8714,20 +8267,19 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>504</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8754,20 +8306,19 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>504</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8794,20 +8345,19 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>504</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8834,20 +8384,19 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>504</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8874,22 +8423,21 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>504</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest VALOR.xlsx
+++ b/BackTest/2019-10-27 BackTest VALOR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-27035.4251</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-28686.7548</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-29032.0264</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-30731.9977</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-30921.6045</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-30921.6045</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-30940.7089</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-30926.3506</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-30950.761</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-24617.0487</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-24599.06308848921</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-25341.22218848921</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-25341.22218848921</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-26016.70288848921</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-26015.70288848921</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-26472.77458848921</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-24488.98798848921</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-25672.80608848921</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-27651.63328848921</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-27651.63328848921</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-28114.53758848921</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-28114.53758848921</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-42338.79878848921</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-42317.57318848921</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-44937.04128848921</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-48498.87568848921</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-51937.5798884892</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-52222.5692884892</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-52186.4555884892</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-52186.71458848919</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-53810.39441971525</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-53810.39441971525</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-53699.42341971525</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-53758.25041971525</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-67377.78421971525</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-67377.78421971525</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-70850.34851971525</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-70746.91631971525</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3883,10 +3883,14 @@
         <v>-68923.93201971526</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>494</v>
+      </c>
+      <c r="J106" t="n">
+        <v>494</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
@@ -3916,11 +3920,19 @@
         <v>-68923.93201971526</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>497</v>
+      </c>
+      <c r="J107" t="n">
+        <v>494</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +3961,19 @@
         <v>-68923.93201971526</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>497</v>
+      </c>
+      <c r="J108" t="n">
+        <v>494</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3982,7 +4002,7 @@
         <v>-68922.93201971526</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>497</v>
@@ -4019,7 +4039,7 @@
         <v>-69069.01601971526</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>499</v>
@@ -4060,7 +4080,7 @@
         <v>-68970.73441971526</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>498</v>
@@ -4101,7 +4121,7 @@
         <v>-68969.73441971526</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>504</v>
@@ -4138,7 +4158,7 @@
         <v>-68971.93161971525</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>506</v>
@@ -4179,7 +4199,7 @@
         <v>-68944.93161971525</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>500</v>
@@ -4220,9 +4240,11 @@
         <v>-68798.93051971526</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>507</v>
+      </c>
       <c r="J115" t="n">
         <v>504</v>
       </c>
@@ -4259,9 +4281,11 @@
         <v>-68890.10311971526</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>514</v>
+      </c>
       <c r="J116" t="n">
         <v>504</v>
       </c>
@@ -4298,9 +4322,11 @@
         <v>-68839.09841971526</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>506</v>
+      </c>
       <c r="J117" t="n">
         <v>504</v>
       </c>
@@ -5624,11 +5650,9 @@
         <v>-76831.84541696552</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="n">
-        <v>510</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
         <v>504</v>
       </c>
@@ -5782,11 +5806,9 @@
         <v>-77269.9429169655</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I155" t="n">
-        <v>510</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
         <v>504</v>
       </c>
@@ -5823,11 +5845,9 @@
         <v>-77744.67611696551</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
-      </c>
-      <c r="I156" t="n">
-        <v>507</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
         <v>504</v>
       </c>
@@ -5864,11 +5884,9 @@
         <v>-77743.66731696551</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
-      </c>
-      <c r="I157" t="n">
-        <v>506</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
         <v>504</v>
       </c>
@@ -5905,11 +5923,9 @@
         <v>-77412.60341696552</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
-      </c>
-      <c r="I158" t="n">
-        <v>507</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
         <v>504</v>
       </c>
@@ -5946,11 +5962,9 @@
         <v>-77412.60341696552</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
-      </c>
-      <c r="I159" t="n">
-        <v>509</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
         <v>504</v>
       </c>
@@ -6026,11 +6040,9 @@
         <v>-78789.74551696551</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I161" t="n">
-        <v>510</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
         <v>504</v>
       </c>
@@ -6184,11 +6196,9 @@
         <v>-79614.45611696551</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
-      </c>
-      <c r="I165" t="n">
-        <v>503</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
         <v>504</v>
       </c>
@@ -6225,11 +6235,9 @@
         <v>-81471.4961169655</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
-      </c>
-      <c r="I166" t="n">
-        <v>507</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
         <v>504</v>
       </c>
@@ -6266,11 +6274,9 @@
         <v>-81470.16541696549</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
-      </c>
-      <c r="I167" t="n">
-        <v>502</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
         <v>504</v>
       </c>
@@ -6307,11 +6313,9 @@
         <v>-80174.5656169655</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
-      </c>
-      <c r="I168" t="n">
-        <v>507</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
         <v>504</v>
       </c>
@@ -6543,11 +6547,9 @@
         <v>-84705.6152169655</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
-      </c>
-      <c r="I174" t="n">
-        <v>504</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
         <v>504</v>
       </c>
@@ -6584,11 +6586,9 @@
         <v>-84705.6152169655</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
-      </c>
-      <c r="I175" t="n">
-        <v>507</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
         <v>504</v>
       </c>
@@ -6625,11 +6625,9 @@
         <v>-85636.4063169655</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
-      </c>
-      <c r="I176" t="n">
-        <v>507</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
         <v>504</v>
       </c>
@@ -8438,6 +8436,6 @@
       <c r="M222" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest VALOR.xlsx
+++ b/BackTest/2019-10-27 BackTest VALOR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-27035.4251</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-28686.7548</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-29032.0264</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-30731.9977</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-30921.6045</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-30921.6045</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-30940.7089</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-30926.3506</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-30950.761</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-24617.0487</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-24599.06308848921</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-25341.22218848921</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-25341.22218848921</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-26016.70288848921</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-26015.70288848921</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-25672.80608848921</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-27651.63328848921</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-27651.63328848921</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-28114.53758848921</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-28114.53758848921</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-42338.79878848921</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-42317.57318848921</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-44937.04128848921</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -3883,14 +3883,10 @@
         <v>-68923.93201971526</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>494</v>
-      </c>
-      <c r="J106" t="n">
-        <v>494</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
@@ -3920,19 +3916,11 @@
         <v>-68923.93201971526</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>497</v>
-      </c>
-      <c r="J107" t="n">
-        <v>494</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3961,19 +3949,11 @@
         <v>-68923.93201971526</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>497</v>
-      </c>
-      <c r="J108" t="n">
-        <v>494</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4002,14 +3982,10 @@
         <v>-68922.93201971526</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>497</v>
-      </c>
-      <c r="J109" t="n">
-        <v>497</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
@@ -4039,19 +4015,11 @@
         <v>-69069.01601971526</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>499</v>
-      </c>
-      <c r="J110" t="n">
-        <v>497</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4080,19 +4048,11 @@
         <v>-68970.73441971526</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>498</v>
-      </c>
-      <c r="J111" t="n">
-        <v>497</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4121,14 +4081,10 @@
         <v>-68969.73441971526</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>504</v>
-      </c>
-      <c r="J112" t="n">
-        <v>504</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
@@ -4158,2094 +4114,1772 @@
         <v>-68971.93161971525</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>507</v>
+      </c>
+      <c r="C114" t="n">
+        <v>507</v>
+      </c>
+      <c r="D114" t="n">
+        <v>507</v>
+      </c>
+      <c r="E114" t="n">
+        <v>507</v>
+      </c>
+      <c r="F114" t="n">
+        <v>27</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-68944.93161971525</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
         <v>506</v>
       </c>
-      <c r="J113" t="n">
+      <c r="C115" t="n">
+        <v>514</v>
+      </c>
+      <c r="D115" t="n">
+        <v>514</v>
+      </c>
+      <c r="E115" t="n">
+        <v>506</v>
+      </c>
+      <c r="F115" t="n">
+        <v>146.0011</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-68798.93051971526</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>507</v>
+      </c>
+      <c r="C116" t="n">
+        <v>506</v>
+      </c>
+      <c r="D116" t="n">
+        <v>507</v>
+      </c>
+      <c r="E116" t="n">
+        <v>506</v>
+      </c>
+      <c r="F116" t="n">
+        <v>91.1726</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-68890.10311971526</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>516</v>
+      </c>
+      <c r="C117" t="n">
+        <v>517</v>
+      </c>
+      <c r="D117" t="n">
+        <v>517</v>
+      </c>
+      <c r="E117" t="n">
+        <v>516</v>
+      </c>
+      <c r="F117" t="n">
+        <v>51.0047</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-68839.09841971526</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>505</v>
+      </c>
+      <c r="C118" t="n">
+        <v>505</v>
+      </c>
+      <c r="D118" t="n">
+        <v>505</v>
+      </c>
+      <c r="E118" t="n">
+        <v>505</v>
+      </c>
+      <c r="F118" t="n">
+        <v>40.596</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-68879.69441971526</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>500</v>
+      </c>
+      <c r="C119" t="n">
+        <v>498</v>
+      </c>
+      <c r="D119" t="n">
+        <v>500</v>
+      </c>
+      <c r="E119" t="n">
+        <v>498</v>
+      </c>
+      <c r="F119" t="n">
+        <v>4233.5346</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-73113.22901971526</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
         <v>504</v>
       </c>
-      <c r="K113" t="inlineStr">
+      <c r="C120" t="n">
+        <v>505</v>
+      </c>
+      <c r="D120" t="n">
+        <v>505</v>
+      </c>
+      <c r="E120" t="n">
+        <v>504</v>
+      </c>
+      <c r="F120" t="n">
+        <v>633.6624</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-72479.56661971526</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>508</v>
+      </c>
+      <c r="C121" t="n">
+        <v>508</v>
+      </c>
+      <c r="D121" t="n">
+        <v>508</v>
+      </c>
+      <c r="E121" t="n">
+        <v>508</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1.2933</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-72478.27331971526</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>507</v>
+      </c>
+      <c r="C122" t="n">
+        <v>508</v>
+      </c>
+      <c r="D122" t="n">
+        <v>508</v>
+      </c>
+      <c r="E122" t="n">
+        <v>507</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1208.7657</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-72478.27331971526</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>508</v>
+      </c>
+      <c r="C123" t="n">
+        <v>508</v>
+      </c>
+      <c r="D123" t="n">
+        <v>508</v>
+      </c>
+      <c r="E123" t="n">
+        <v>508</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-72478.27331971526</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>508</v>
+      </c>
+      <c r="C124" t="n">
+        <v>507</v>
+      </c>
+      <c r="D124" t="n">
+        <v>508</v>
+      </c>
+      <c r="E124" t="n">
+        <v>507</v>
+      </c>
+      <c r="F124" t="n">
+        <v>82</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-72560.27331971526</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>508</v>
+      </c>
+      <c r="C125" t="n">
+        <v>509</v>
+      </c>
+      <c r="D125" t="n">
+        <v>509</v>
+      </c>
+      <c r="E125" t="n">
+        <v>508</v>
+      </c>
+      <c r="F125" t="n">
+        <v>5536.3259</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-67023.94741971526</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>510</v>
+      </c>
+      <c r="C126" t="n">
+        <v>507</v>
+      </c>
+      <c r="D126" t="n">
+        <v>510</v>
+      </c>
+      <c r="E126" t="n">
+        <v>507</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1722.2808</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-68746.22821971525</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>508</v>
+      </c>
+      <c r="C127" t="n">
+        <v>508</v>
+      </c>
+      <c r="D127" t="n">
+        <v>508</v>
+      </c>
+      <c r="E127" t="n">
+        <v>508</v>
+      </c>
+      <c r="F127" t="n">
+        <v>218.1143</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-68528.11391971525</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>509</v>
+      </c>
+      <c r="C128" t="n">
+        <v>509</v>
+      </c>
+      <c r="D128" t="n">
+        <v>509</v>
+      </c>
+      <c r="E128" t="n">
+        <v>509</v>
+      </c>
+      <c r="F128" t="n">
+        <v>148.7353</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-68379.37861971525</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>509</v>
+      </c>
+      <c r="C129" t="n">
+        <v>507</v>
+      </c>
+      <c r="D129" t="n">
+        <v>509</v>
+      </c>
+      <c r="E129" t="n">
+        <v>507</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2445.456365877712</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-70824.83498559297</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>504</v>
+      </c>
+      <c r="C130" t="n">
+        <v>501</v>
+      </c>
+      <c r="D130" t="n">
+        <v>504</v>
+      </c>
+      <c r="E130" t="n">
+        <v>501</v>
+      </c>
+      <c r="F130" t="n">
+        <v>481.7978</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-71306.63278559297</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>501</v>
+      </c>
+      <c r="C131" t="n">
+        <v>499</v>
+      </c>
+      <c r="D131" t="n">
+        <v>501</v>
+      </c>
+      <c r="E131" t="n">
+        <v>499</v>
+      </c>
+      <c r="F131" t="n">
+        <v>5960.6041</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-77267.23688559297</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>510</v>
+      </c>
+      <c r="C132" t="n">
+        <v>510</v>
+      </c>
+      <c r="D132" t="n">
+        <v>510</v>
+      </c>
+      <c r="E132" t="n">
+        <v>510</v>
+      </c>
+      <c r="F132" t="n">
+        <v>3.92156862745098</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-77263.31531696551</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>508</v>
+      </c>
+      <c r="C133" t="n">
+        <v>508</v>
+      </c>
+      <c r="D133" t="n">
+        <v>508</v>
+      </c>
+      <c r="E133" t="n">
+        <v>508</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-77264.31531696551</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>501</v>
+      </c>
+      <c r="C134" t="n">
+        <v>501</v>
+      </c>
+      <c r="D134" t="n">
+        <v>501</v>
+      </c>
+      <c r="E134" t="n">
+        <v>501</v>
+      </c>
+      <c r="F134" t="n">
+        <v>4017.7926</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-81282.10791696551</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>501</v>
+      </c>
+      <c r="C135" t="n">
+        <v>501</v>
+      </c>
+      <c r="D135" t="n">
+        <v>501</v>
+      </c>
+      <c r="E135" t="n">
+        <v>501</v>
+      </c>
+      <c r="F135" t="n">
+        <v>742.1592000000001</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-81282.10791696551</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>507</v>
+      </c>
+      <c r="C136" t="n">
+        <v>507</v>
+      </c>
+      <c r="D136" t="n">
+        <v>507</v>
+      </c>
+      <c r="E136" t="n">
+        <v>507</v>
+      </c>
+      <c r="F136" t="n">
+        <v>7</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-81275.10791696551</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>507</v>
+      </c>
+      <c r="C137" t="n">
+        <v>507</v>
+      </c>
+      <c r="D137" t="n">
+        <v>507</v>
+      </c>
+      <c r="E137" t="n">
+        <v>507</v>
+      </c>
+      <c r="F137" t="n">
+        <v>50</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-81275.10791696551</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>507</v>
+      </c>
+      <c r="C138" t="n">
+        <v>507</v>
+      </c>
+      <c r="D138" t="n">
+        <v>507</v>
+      </c>
+      <c r="E138" t="n">
+        <v>507</v>
+      </c>
+      <c r="F138" t="n">
+        <v>100</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-81275.10791696551</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>503</v>
+      </c>
+      <c r="C139" t="n">
+        <v>503</v>
+      </c>
+      <c r="D139" t="n">
+        <v>503</v>
+      </c>
+      <c r="E139" t="n">
+        <v>503</v>
+      </c>
+      <c r="F139" t="n">
+        <v>218.1144</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-81493.22231696552</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>507</v>
+      </c>
+      <c r="C140" t="n">
+        <v>507</v>
+      </c>
+      <c r="D140" t="n">
+        <v>507</v>
+      </c>
+      <c r="E140" t="n">
+        <v>507</v>
+      </c>
+      <c r="F140" t="n">
+        <v>3928.146</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-77565.07631696553</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>507</v>
+      </c>
+      <c r="C141" t="n">
+        <v>507</v>
+      </c>
+      <c r="D141" t="n">
+        <v>507</v>
+      </c>
+      <c r="E141" t="n">
+        <v>507</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1052.7</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-77565.07631696553</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>510</v>
+      </c>
+      <c r="C142" t="n">
+        <v>512</v>
+      </c>
+      <c r="D142" t="n">
+        <v>512</v>
+      </c>
+      <c r="E142" t="n">
+        <v>510</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2258.3007</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-75306.77561696552</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>513</v>
+      </c>
+      <c r="C143" t="n">
+        <v>513</v>
+      </c>
+      <c r="D143" t="n">
+        <v>513</v>
+      </c>
+      <c r="E143" t="n">
+        <v>513</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2.3235</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-75304.45211696552</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>513</v>
+      </c>
+      <c r="C144" t="n">
+        <v>513</v>
+      </c>
+      <c r="D144" t="n">
+        <v>513</v>
+      </c>
+      <c r="E144" t="n">
+        <v>513</v>
+      </c>
+      <c r="F144" t="n">
+        <v>485.4541</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-75304.45211696552</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>511</v>
+      </c>
+      <c r="C145" t="n">
+        <v>511</v>
+      </c>
+      <c r="D145" t="n">
+        <v>511</v>
+      </c>
+      <c r="E145" t="n">
+        <v>511</v>
+      </c>
+      <c r="F145" t="n">
+        <v>801.408</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-76105.86011696552</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>510</v>
+      </c>
+      <c r="C146" t="n">
+        <v>511</v>
+      </c>
+      <c r="D146" t="n">
+        <v>511</v>
+      </c>
+      <c r="E146" t="n">
+        <v>510</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1243.3523</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-76105.86011696552</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>510</v>
+      </c>
+      <c r="C147" t="n">
+        <v>510</v>
+      </c>
+      <c r="D147" t="n">
+        <v>510</v>
+      </c>
+      <c r="E147" t="n">
+        <v>510</v>
+      </c>
+      <c r="F147" t="n">
+        <v>725.9853000000001</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-76831.84541696552</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>512</v>
+      </c>
+      <c r="C148" t="n">
+        <v>512</v>
+      </c>
+      <c r="D148" t="n">
+        <v>512</v>
+      </c>
+      <c r="E148" t="n">
+        <v>512</v>
+      </c>
+      <c r="F148" t="n">
+        <v>50</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-76781.84541696552</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>510</v>
+      </c>
+      <c r="C149" t="n">
+        <v>510</v>
+      </c>
+      <c r="D149" t="n">
+        <v>510</v>
+      </c>
+      <c r="E149" t="n">
+        <v>510</v>
+      </c>
+      <c r="F149" t="n">
+        <v>50</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-76831.84541696552</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>510</v>
+      </c>
+      <c r="C150" t="n">
+        <v>510</v>
+      </c>
+      <c r="D150" t="n">
+        <v>510</v>
+      </c>
+      <c r="E150" t="n">
+        <v>510</v>
+      </c>
+      <c r="F150" t="n">
+        <v>813.9852</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-76831.84541696552</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>510</v>
+      </c>
+      <c r="C151" t="n">
+        <v>510</v>
+      </c>
+      <c r="D151" t="n">
+        <v>510</v>
+      </c>
+      <c r="E151" t="n">
+        <v>510</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2069.5922</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-76831.84541696552</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>510</v>
+      </c>
+      <c r="C152" t="n">
+        <v>509</v>
+      </c>
+      <c r="D152" t="n">
+        <v>510</v>
+      </c>
+      <c r="E152" t="n">
+        <v>509</v>
+      </c>
+      <c r="F152" t="n">
+        <v>810.8011</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-77642.64651696551</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>510</v>
+      </c>
+      <c r="C153" t="n">
+        <v>510</v>
+      </c>
+      <c r="D153" t="n">
+        <v>510</v>
+      </c>
+      <c r="E153" t="n">
+        <v>510</v>
+      </c>
+      <c r="F153" t="n">
+        <v>736.9841</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-76905.66241696551</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>510</v>
+      </c>
+      <c r="C154" t="n">
+        <v>510</v>
+      </c>
+      <c r="D154" t="n">
+        <v>510</v>
+      </c>
+      <c r="E154" t="n">
+        <v>510</v>
+      </c>
+      <c r="F154" t="n">
+        <v>287.2882</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-76905.66241696551</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>509</v>
+      </c>
+      <c r="C155" t="n">
+        <v>507</v>
+      </c>
+      <c r="D155" t="n">
+        <v>509</v>
+      </c>
+      <c r="E155" t="n">
+        <v>507</v>
+      </c>
+      <c r="F155" t="n">
+        <v>364.2805</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-77269.9429169655</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>506</v>
+      </c>
+      <c r="C156" t="n">
+        <v>506</v>
+      </c>
+      <c r="D156" t="n">
+        <v>506</v>
+      </c>
+      <c r="E156" t="n">
+        <v>506</v>
+      </c>
+      <c r="F156" t="n">
+        <v>474.7332</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-77744.67611696551</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>507</v>
+      </c>
+      <c r="C157" t="n">
+        <v>507</v>
+      </c>
+      <c r="D157" t="n">
+        <v>507</v>
+      </c>
+      <c r="E157" t="n">
+        <v>507</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1.0088</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-77743.66731696551</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>507</v>
+      </c>
+      <c r="C158" t="n">
+        <v>509</v>
+      </c>
+      <c r="D158" t="n">
+        <v>509</v>
+      </c>
+      <c r="E158" t="n">
+        <v>507</v>
+      </c>
+      <c r="F158" t="n">
+        <v>331.0639</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-77412.60341696552</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>509</v>
+      </c>
+      <c r="C159" t="n">
+        <v>509</v>
+      </c>
+      <c r="D159" t="n">
+        <v>509</v>
+      </c>
+      <c r="E159" t="n">
+        <v>509</v>
+      </c>
+      <c r="F159" t="n">
+        <v>62.7796</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-77412.60341696552</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>510</v>
+      </c>
+      <c r="C160" t="n">
+        <v>510</v>
+      </c>
+      <c r="D160" t="n">
+        <v>510</v>
+      </c>
+      <c r="E160" t="n">
+        <v>510</v>
+      </c>
+      <c r="F160" t="n">
+        <v>369.545</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-77043.05841696552</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>505</v>
+      </c>
+      <c r="C161" t="n">
+        <v>503</v>
+      </c>
+      <c r="D161" t="n">
+        <v>505</v>
+      </c>
+      <c r="E161" t="n">
+        <v>503</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1746.6871</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-78789.74551696551</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>509</v>
+      </c>
+      <c r="C162" t="n">
+        <v>509</v>
+      </c>
+      <c r="D162" t="n">
+        <v>509</v>
+      </c>
+      <c r="E162" t="n">
+        <v>509</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-78788.74551696551</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>504</v>
+      </c>
+      <c r="C163" t="n">
+        <v>503</v>
+      </c>
+      <c r="D163" t="n">
+        <v>504</v>
+      </c>
+      <c r="E163" t="n">
+        <v>503</v>
+      </c>
+      <c r="F163" t="n">
+        <v>826.7125</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-79615.45801696551</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>503</v>
+      </c>
+      <c r="C164" t="n">
+        <v>503</v>
+      </c>
+      <c r="D164" t="n">
+        <v>503</v>
+      </c>
+      <c r="E164" t="n">
+        <v>503</v>
+      </c>
+      <c r="F164" t="n">
+        <v>11.4387</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-79615.45801696551</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>507</v>
+      </c>
+      <c r="C165" t="n">
+        <v>507</v>
+      </c>
+      <c r="D165" t="n">
+        <v>507</v>
+      </c>
+      <c r="E165" t="n">
+        <v>507</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1.0019</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-79614.45611696551</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>503</v>
+      </c>
+      <c r="J165" t="n">
+        <v>503</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>503</v>
+      </c>
+      <c r="C166" t="n">
+        <v>502</v>
+      </c>
+      <c r="D166" t="n">
+        <v>503</v>
+      </c>
+      <c r="E166" t="n">
+        <v>502</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1857.04</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-81471.4961169655</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>507</v>
+      </c>
+      <c r="J166" t="n">
+        <v>503</v>
+      </c>
+      <c r="K166" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>507</v>
-      </c>
-      <c r="C114" t="n">
-        <v>507</v>
-      </c>
-      <c r="D114" t="n">
-        <v>507</v>
-      </c>
-      <c r="E114" t="n">
-        <v>507</v>
-      </c>
-      <c r="F114" t="n">
-        <v>27</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-68944.93161971525</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>500</v>
-      </c>
-      <c r="J114" t="n">
-        <v>504</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>506</v>
-      </c>
-      <c r="C115" t="n">
-        <v>514</v>
-      </c>
-      <c r="D115" t="n">
-        <v>514</v>
-      </c>
-      <c r="E115" t="n">
-        <v>506</v>
-      </c>
-      <c r="F115" t="n">
-        <v>146.0011</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-68798.93051971526</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>507</v>
-      </c>
-      <c r="J115" t="n">
-        <v>504</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>507</v>
-      </c>
-      <c r="C116" t="n">
-        <v>506</v>
-      </c>
-      <c r="D116" t="n">
-        <v>507</v>
-      </c>
-      <c r="E116" t="n">
-        <v>506</v>
-      </c>
-      <c r="F116" t="n">
-        <v>91.1726</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-68890.10311971526</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>514</v>
-      </c>
-      <c r="J116" t="n">
-        <v>504</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>516</v>
-      </c>
-      <c r="C117" t="n">
-        <v>517</v>
-      </c>
-      <c r="D117" t="n">
-        <v>517</v>
-      </c>
-      <c r="E117" t="n">
-        <v>516</v>
-      </c>
-      <c r="F117" t="n">
-        <v>51.0047</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-68839.09841971526</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>506</v>
-      </c>
-      <c r="J117" t="n">
-        <v>504</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>505</v>
-      </c>
-      <c r="C118" t="n">
-        <v>505</v>
-      </c>
-      <c r="D118" t="n">
-        <v>505</v>
-      </c>
-      <c r="E118" t="n">
-        <v>505</v>
-      </c>
-      <c r="F118" t="n">
-        <v>40.596</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-68879.69441971526</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>504</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>500</v>
-      </c>
-      <c r="C119" t="n">
-        <v>498</v>
-      </c>
-      <c r="D119" t="n">
-        <v>500</v>
-      </c>
-      <c r="E119" t="n">
-        <v>498</v>
-      </c>
-      <c r="F119" t="n">
-        <v>4233.5346</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-73113.22901971526</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>504</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>504</v>
-      </c>
-      <c r="C120" t="n">
-        <v>505</v>
-      </c>
-      <c r="D120" t="n">
-        <v>505</v>
-      </c>
-      <c r="E120" t="n">
-        <v>504</v>
-      </c>
-      <c r="F120" t="n">
-        <v>633.6624</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-72479.56661971526</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>504</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>508</v>
-      </c>
-      <c r="C121" t="n">
-        <v>508</v>
-      </c>
-      <c r="D121" t="n">
-        <v>508</v>
-      </c>
-      <c r="E121" t="n">
-        <v>508</v>
-      </c>
-      <c r="F121" t="n">
-        <v>1.2933</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-72478.27331971526</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>504</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>507</v>
-      </c>
-      <c r="C122" t="n">
-        <v>508</v>
-      </c>
-      <c r="D122" t="n">
-        <v>508</v>
-      </c>
-      <c r="E122" t="n">
-        <v>507</v>
-      </c>
-      <c r="F122" t="n">
-        <v>1208.7657</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-72478.27331971526</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>504</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>508</v>
-      </c>
-      <c r="C123" t="n">
-        <v>508</v>
-      </c>
-      <c r="D123" t="n">
-        <v>508</v>
-      </c>
-      <c r="E123" t="n">
-        <v>508</v>
-      </c>
-      <c r="F123" t="n">
-        <v>2</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-72478.27331971526</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>504</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>508</v>
-      </c>
-      <c r="C124" t="n">
-        <v>507</v>
-      </c>
-      <c r="D124" t="n">
-        <v>508</v>
-      </c>
-      <c r="E124" t="n">
-        <v>507</v>
-      </c>
-      <c r="F124" t="n">
-        <v>82</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-72560.27331971526</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>504</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>508</v>
-      </c>
-      <c r="C125" t="n">
-        <v>509</v>
-      </c>
-      <c r="D125" t="n">
-        <v>509</v>
-      </c>
-      <c r="E125" t="n">
-        <v>508</v>
-      </c>
-      <c r="F125" t="n">
-        <v>5536.3259</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-67023.94741971526</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>504</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>510</v>
-      </c>
-      <c r="C126" t="n">
-        <v>507</v>
-      </c>
-      <c r="D126" t="n">
-        <v>510</v>
-      </c>
-      <c r="E126" t="n">
-        <v>507</v>
-      </c>
-      <c r="F126" t="n">
-        <v>1722.2808</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-68746.22821971525</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>504</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>508</v>
-      </c>
-      <c r="C127" t="n">
-        <v>508</v>
-      </c>
-      <c r="D127" t="n">
-        <v>508</v>
-      </c>
-      <c r="E127" t="n">
-        <v>508</v>
-      </c>
-      <c r="F127" t="n">
-        <v>218.1143</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-68528.11391971525</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>504</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>509</v>
-      </c>
-      <c r="C128" t="n">
-        <v>509</v>
-      </c>
-      <c r="D128" t="n">
-        <v>509</v>
-      </c>
-      <c r="E128" t="n">
-        <v>509</v>
-      </c>
-      <c r="F128" t="n">
-        <v>148.7353</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-68379.37861971525</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>504</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>509</v>
-      </c>
-      <c r="C129" t="n">
-        <v>507</v>
-      </c>
-      <c r="D129" t="n">
-        <v>509</v>
-      </c>
-      <c r="E129" t="n">
-        <v>507</v>
-      </c>
-      <c r="F129" t="n">
-        <v>2445.456365877712</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-70824.83498559297</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>504</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>504</v>
-      </c>
-      <c r="C130" t="n">
-        <v>501</v>
-      </c>
-      <c r="D130" t="n">
-        <v>504</v>
-      </c>
-      <c r="E130" t="n">
-        <v>501</v>
-      </c>
-      <c r="F130" t="n">
-        <v>481.7978</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-71306.63278559297</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>504</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>501</v>
-      </c>
-      <c r="C131" t="n">
-        <v>499</v>
-      </c>
-      <c r="D131" t="n">
-        <v>501</v>
-      </c>
-      <c r="E131" t="n">
-        <v>499</v>
-      </c>
-      <c r="F131" t="n">
-        <v>5960.6041</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-77267.23688559297</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>504</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>510</v>
-      </c>
-      <c r="C132" t="n">
-        <v>510</v>
-      </c>
-      <c r="D132" t="n">
-        <v>510</v>
-      </c>
-      <c r="E132" t="n">
-        <v>510</v>
-      </c>
-      <c r="F132" t="n">
-        <v>3.92156862745098</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-77263.31531696551</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>504</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>508</v>
-      </c>
-      <c r="C133" t="n">
-        <v>508</v>
-      </c>
-      <c r="D133" t="n">
-        <v>508</v>
-      </c>
-      <c r="E133" t="n">
-        <v>508</v>
-      </c>
-      <c r="F133" t="n">
-        <v>1</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-77264.31531696551</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>504</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>501</v>
-      </c>
-      <c r="C134" t="n">
-        <v>501</v>
-      </c>
-      <c r="D134" t="n">
-        <v>501</v>
-      </c>
-      <c r="E134" t="n">
-        <v>501</v>
-      </c>
-      <c r="F134" t="n">
-        <v>4017.7926</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-81282.10791696551</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>504</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>501</v>
-      </c>
-      <c r="C135" t="n">
-        <v>501</v>
-      </c>
-      <c r="D135" t="n">
-        <v>501</v>
-      </c>
-      <c r="E135" t="n">
-        <v>501</v>
-      </c>
-      <c r="F135" t="n">
-        <v>742.1592000000001</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-81282.10791696551</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>504</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>507</v>
-      </c>
-      <c r="C136" t="n">
-        <v>507</v>
-      </c>
-      <c r="D136" t="n">
-        <v>507</v>
-      </c>
-      <c r="E136" t="n">
-        <v>507</v>
-      </c>
-      <c r="F136" t="n">
-        <v>7</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-81275.10791696551</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>504</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>507</v>
-      </c>
-      <c r="C137" t="n">
-        <v>507</v>
-      </c>
-      <c r="D137" t="n">
-        <v>507</v>
-      </c>
-      <c r="E137" t="n">
-        <v>507</v>
-      </c>
-      <c r="F137" t="n">
-        <v>50</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-81275.10791696551</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>504</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>507</v>
-      </c>
-      <c r="C138" t="n">
-        <v>507</v>
-      </c>
-      <c r="D138" t="n">
-        <v>507</v>
-      </c>
-      <c r="E138" t="n">
-        <v>507</v>
-      </c>
-      <c r="F138" t="n">
-        <v>100</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-81275.10791696551</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>504</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>503</v>
-      </c>
-      <c r="C139" t="n">
-        <v>503</v>
-      </c>
-      <c r="D139" t="n">
-        <v>503</v>
-      </c>
-      <c r="E139" t="n">
-        <v>503</v>
-      </c>
-      <c r="F139" t="n">
-        <v>218.1144</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-81493.22231696552</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>504</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>507</v>
-      </c>
-      <c r="C140" t="n">
-        <v>507</v>
-      </c>
-      <c r="D140" t="n">
-        <v>507</v>
-      </c>
-      <c r="E140" t="n">
-        <v>507</v>
-      </c>
-      <c r="F140" t="n">
-        <v>3928.146</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-77565.07631696553</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>504</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>507</v>
-      </c>
-      <c r="C141" t="n">
-        <v>507</v>
-      </c>
-      <c r="D141" t="n">
-        <v>507</v>
-      </c>
-      <c r="E141" t="n">
-        <v>507</v>
-      </c>
-      <c r="F141" t="n">
-        <v>1052.7</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-77565.07631696553</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>504</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>510</v>
-      </c>
-      <c r="C142" t="n">
-        <v>512</v>
-      </c>
-      <c r="D142" t="n">
-        <v>512</v>
-      </c>
-      <c r="E142" t="n">
-        <v>510</v>
-      </c>
-      <c r="F142" t="n">
-        <v>2258.3007</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-75306.77561696552</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>504</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>513</v>
-      </c>
-      <c r="C143" t="n">
-        <v>513</v>
-      </c>
-      <c r="D143" t="n">
-        <v>513</v>
-      </c>
-      <c r="E143" t="n">
-        <v>513</v>
-      </c>
-      <c r="F143" t="n">
-        <v>2.3235</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-75304.45211696552</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>504</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>513</v>
-      </c>
-      <c r="C144" t="n">
-        <v>513</v>
-      </c>
-      <c r="D144" t="n">
-        <v>513</v>
-      </c>
-      <c r="E144" t="n">
-        <v>513</v>
-      </c>
-      <c r="F144" t="n">
-        <v>485.4541</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-75304.45211696552</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>504</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>511</v>
-      </c>
-      <c r="C145" t="n">
-        <v>511</v>
-      </c>
-      <c r="D145" t="n">
-        <v>511</v>
-      </c>
-      <c r="E145" t="n">
-        <v>511</v>
-      </c>
-      <c r="F145" t="n">
-        <v>801.408</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-76105.86011696552</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>504</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>510</v>
-      </c>
-      <c r="C146" t="n">
-        <v>511</v>
-      </c>
-      <c r="D146" t="n">
-        <v>511</v>
-      </c>
-      <c r="E146" t="n">
-        <v>510</v>
-      </c>
-      <c r="F146" t="n">
-        <v>1243.3523</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-76105.86011696552</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>504</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>510</v>
-      </c>
-      <c r="C147" t="n">
-        <v>510</v>
-      </c>
-      <c r="D147" t="n">
-        <v>510</v>
-      </c>
-      <c r="E147" t="n">
-        <v>510</v>
-      </c>
-      <c r="F147" t="n">
-        <v>725.9853000000001</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-76831.84541696552</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>504</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>512</v>
-      </c>
-      <c r="C148" t="n">
-        <v>512</v>
-      </c>
-      <c r="D148" t="n">
-        <v>512</v>
-      </c>
-      <c r="E148" t="n">
-        <v>512</v>
-      </c>
-      <c r="F148" t="n">
-        <v>50</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-76781.84541696552</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>504</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>510</v>
-      </c>
-      <c r="C149" t="n">
-        <v>510</v>
-      </c>
-      <c r="D149" t="n">
-        <v>510</v>
-      </c>
-      <c r="E149" t="n">
-        <v>510</v>
-      </c>
-      <c r="F149" t="n">
-        <v>50</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-76831.84541696552</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>504</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>510</v>
-      </c>
-      <c r="C150" t="n">
-        <v>510</v>
-      </c>
-      <c r="D150" t="n">
-        <v>510</v>
-      </c>
-      <c r="E150" t="n">
-        <v>510</v>
-      </c>
-      <c r="F150" t="n">
-        <v>813.9852</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-76831.84541696552</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>504</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>510</v>
-      </c>
-      <c r="C151" t="n">
-        <v>510</v>
-      </c>
-      <c r="D151" t="n">
-        <v>510</v>
-      </c>
-      <c r="E151" t="n">
-        <v>510</v>
-      </c>
-      <c r="F151" t="n">
-        <v>2069.5922</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-76831.84541696552</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>504</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>510</v>
-      </c>
-      <c r="C152" t="n">
-        <v>509</v>
-      </c>
-      <c r="D152" t="n">
-        <v>510</v>
-      </c>
-      <c r="E152" t="n">
-        <v>509</v>
-      </c>
-      <c r="F152" t="n">
-        <v>810.8011</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-77642.64651696551</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>504</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>510</v>
-      </c>
-      <c r="C153" t="n">
-        <v>510</v>
-      </c>
-      <c r="D153" t="n">
-        <v>510</v>
-      </c>
-      <c r="E153" t="n">
-        <v>510</v>
-      </c>
-      <c r="F153" t="n">
-        <v>736.9841</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-76905.66241696551</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>504</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>510</v>
-      </c>
-      <c r="C154" t="n">
-        <v>510</v>
-      </c>
-      <c r="D154" t="n">
-        <v>510</v>
-      </c>
-      <c r="E154" t="n">
-        <v>510</v>
-      </c>
-      <c r="F154" t="n">
-        <v>287.2882</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-76905.66241696551</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>504</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>509</v>
-      </c>
-      <c r="C155" t="n">
-        <v>507</v>
-      </c>
-      <c r="D155" t="n">
-        <v>509</v>
-      </c>
-      <c r="E155" t="n">
-        <v>507</v>
-      </c>
-      <c r="F155" t="n">
-        <v>364.2805</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-77269.9429169655</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>504</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>506</v>
-      </c>
-      <c r="C156" t="n">
-        <v>506</v>
-      </c>
-      <c r="D156" t="n">
-        <v>506</v>
-      </c>
-      <c r="E156" t="n">
-        <v>506</v>
-      </c>
-      <c r="F156" t="n">
-        <v>474.7332</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-77744.67611696551</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>504</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>507</v>
-      </c>
-      <c r="C157" t="n">
-        <v>507</v>
-      </c>
-      <c r="D157" t="n">
-        <v>507</v>
-      </c>
-      <c r="E157" t="n">
-        <v>507</v>
-      </c>
-      <c r="F157" t="n">
-        <v>1.0088</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-77743.66731696551</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>504</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>507</v>
-      </c>
-      <c r="C158" t="n">
-        <v>509</v>
-      </c>
-      <c r="D158" t="n">
-        <v>509</v>
-      </c>
-      <c r="E158" t="n">
-        <v>507</v>
-      </c>
-      <c r="F158" t="n">
-        <v>331.0639</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-77412.60341696552</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>504</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>509</v>
-      </c>
-      <c r="C159" t="n">
-        <v>509</v>
-      </c>
-      <c r="D159" t="n">
-        <v>509</v>
-      </c>
-      <c r="E159" t="n">
-        <v>509</v>
-      </c>
-      <c r="F159" t="n">
-        <v>62.7796</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-77412.60341696552</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>504</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>510</v>
-      </c>
-      <c r="C160" t="n">
-        <v>510</v>
-      </c>
-      <c r="D160" t="n">
-        <v>510</v>
-      </c>
-      <c r="E160" t="n">
-        <v>510</v>
-      </c>
-      <c r="F160" t="n">
-        <v>369.545</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-77043.05841696552</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>504</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>505</v>
-      </c>
-      <c r="C161" t="n">
-        <v>503</v>
-      </c>
-      <c r="D161" t="n">
-        <v>505</v>
-      </c>
-      <c r="E161" t="n">
-        <v>503</v>
-      </c>
-      <c r="F161" t="n">
-        <v>1746.6871</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-78789.74551696551</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>504</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>509</v>
-      </c>
-      <c r="C162" t="n">
-        <v>509</v>
-      </c>
-      <c r="D162" t="n">
-        <v>509</v>
-      </c>
-      <c r="E162" t="n">
-        <v>509</v>
-      </c>
-      <c r="F162" t="n">
-        <v>1</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-78788.74551696551</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>504</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>504</v>
-      </c>
-      <c r="C163" t="n">
-        <v>503</v>
-      </c>
-      <c r="D163" t="n">
-        <v>504</v>
-      </c>
-      <c r="E163" t="n">
-        <v>503</v>
-      </c>
-      <c r="F163" t="n">
-        <v>826.7125</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-79615.45801696551</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>504</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>503</v>
-      </c>
-      <c r="C164" t="n">
-        <v>503</v>
-      </c>
-      <c r="D164" t="n">
-        <v>503</v>
-      </c>
-      <c r="E164" t="n">
-        <v>503</v>
-      </c>
-      <c r="F164" t="n">
-        <v>11.4387</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-79615.45801696551</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>504</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>507</v>
-      </c>
-      <c r="C165" t="n">
-        <v>507</v>
-      </c>
-      <c r="D165" t="n">
-        <v>507</v>
-      </c>
-      <c r="E165" t="n">
-        <v>507</v>
-      </c>
-      <c r="F165" t="n">
-        <v>1.0019</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-79614.45611696551</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>504</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>503</v>
-      </c>
-      <c r="C166" t="n">
-        <v>502</v>
-      </c>
-      <c r="D166" t="n">
-        <v>503</v>
-      </c>
-      <c r="E166" t="n">
-        <v>502</v>
-      </c>
-      <c r="F166" t="n">
-        <v>1857.04</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-81471.4961169655</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>504</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6274,11 +5908,13 @@
         <v>-81470.16541696549</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>502</v>
+      </c>
       <c r="J167" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6313,11 +5949,13 @@
         <v>-80174.5656169655</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>507</v>
+      </c>
       <c r="J168" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6352,11 +5990,13 @@
         <v>-79183.6134169655</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>508</v>
+      </c>
       <c r="J169" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6391,11 +6031,13 @@
         <v>-79198.2267169655</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>509</v>
+      </c>
       <c r="J170" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6430,11 +6072,13 @@
         <v>-79183.6134169655</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>505</v>
+      </c>
       <c r="J171" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6469,11 +6113,13 @@
         <v>-79248.37951696549</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>509</v>
+      </c>
       <c r="J172" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6508,11 +6154,13 @@
         <v>-85058.17091696549</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>505</v>
+      </c>
       <c r="J173" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6547,11 +6195,13 @@
         <v>-84705.6152169655</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>504</v>
+      </c>
       <c r="J174" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6586,11 +6236,13 @@
         <v>-84705.6152169655</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>507</v>
+      </c>
       <c r="J175" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6625,11 +6277,13 @@
         <v>-85636.4063169655</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>507</v>
+      </c>
       <c r="J176" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6664,11 +6318,13 @@
         <v>-91283.6641169655</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>501</v>
+      </c>
       <c r="J177" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6703,11 +6359,13 @@
         <v>-82813.22271696551</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>500</v>
+      </c>
       <c r="J178" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6746,7 +6404,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6785,7 +6443,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6820,11 +6478,13 @@
         <v>-82813.22271696551</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>507</v>
+      </c>
       <c r="J181" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6859,11 +6519,13 @@
         <v>-81610.9891169655</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>507</v>
+      </c>
       <c r="J182" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6898,11 +6560,13 @@
         <v>-71963.2590169655</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>510</v>
+      </c>
       <c r="J183" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6941,7 +6605,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6980,7 +6644,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7019,7 +6683,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7058,7 +6722,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7097,7 +6761,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7136,7 +6800,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7175,7 +6839,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7214,7 +6878,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7253,7 +6917,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7292,7 +6956,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7331,7 +6995,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7370,7 +7034,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7409,7 +7073,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7448,7 +7112,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7487,7 +7151,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7526,7 +7190,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7565,7 +7229,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7600,21 +7264,23 @@
         <v>-57276.35791696551</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>1.072534791252485</v>
+      </c>
+      <c r="M201" t="n">
+        <v>1.125506072874494</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7642,14 +7308,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>504</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7681,14 +7341,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>504</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7717,17 +7371,11 @@
         <v>-57549.18031696551</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>504</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7756,17 +7404,11 @@
         <v>-59724.75531696551</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>504</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7795,17 +7437,11 @@
         <v>-59724.75531696551</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>504</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7834,17 +7470,11 @@
         <v>-59723.75531696551</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>504</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7873,17 +7503,11 @@
         <v>-59797.89681696551</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>504</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7912,17 +7536,11 @@
         <v>-59797.89681696551</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>504</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7951,17 +7569,11 @@
         <v>-59073.30921696551</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>504</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7990,17 +7602,11 @@
         <v>-59073.30921696551</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>504</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8029,17 +7635,11 @@
         <v>-61073.30921696551</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>504</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8068,17 +7668,11 @@
         <v>-61073.30921696551</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>504</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8107,17 +7701,11 @@
         <v>-68095.78491696551</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>504</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8146,17 +7734,11 @@
         <v>-68095.78491696551</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>504</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8185,17 +7767,11 @@
         <v>-66761.94661696551</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>504</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8224,17 +7800,11 @@
         <v>-66761.94661696551</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>504</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8263,17 +7833,11 @@
         <v>-66761.94661696551</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>504</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8302,17 +7866,11 @@
         <v>-66410.3632169655</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>504</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8341,17 +7899,11 @@
         <v>-66040.27541696551</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>504</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8380,17 +7932,11 @@
         <v>-66223.8053169655</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>504</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8419,23 +7965,17 @@
         <v>-66705.0403169655</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>504</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
       <c r="M222" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest VALOR.xlsx
+++ b/BackTest/2019-10-27 BackTest VALOR.xlsx
@@ -451,7 +451,7 @@
         <v>-27035.4251</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-29171.6983</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-29081.6914</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-28686.7548</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-29032.0264</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-30731.9977</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-25341.22218848921</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-25341.22218848921</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -3916,11 +3916,17 @@
         <v>-68923.93201971526</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>497</v>
+      </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3953,7 +3959,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +3992,17 @@
         <v>-68922.93201971526</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>497</v>
+      </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +4031,17 @@
         <v>-69069.01601971526</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>499</v>
+      </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4048,11 +4070,17 @@
         <v>-68970.73441971526</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>498</v>
+      </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4081,11 +4109,17 @@
         <v>-68969.73441971526</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>504</v>
+      </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +4148,17 @@
         <v>-68971.93161971525</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>506</v>
+      </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4151,7 +4191,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4184,7 +4228,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4217,7 +4265,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4250,7 +4302,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4283,7 +4339,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4316,7 +4376,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4349,7 +4413,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4382,7 +4450,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4415,7 +4487,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +4524,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4481,7 +4561,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4514,7 +4598,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4547,7 +4635,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4580,7 +4672,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4613,7 +4709,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4646,7 +4746,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4679,7 +4783,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4712,7 +4820,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4745,7 +4857,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4778,7 +4894,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4811,7 +4931,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4844,7 +4968,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4877,7 +5005,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4910,7 +5042,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4943,7 +5079,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4976,7 +5116,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5009,7 +5153,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5042,7 +5190,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5075,7 +5227,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5108,7 +5264,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5141,7 +5301,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5174,7 +5338,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5207,7 +5375,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5240,7 +5412,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5273,7 +5449,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5306,7 +5486,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5339,7 +5523,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5372,7 +5560,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5401,11 +5593,17 @@
         <v>-77642.64651696551</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>510</v>
+      </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5434,11 +5632,17 @@
         <v>-76905.66241696551</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>509</v>
+      </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5467,11 +5671,17 @@
         <v>-76905.66241696551</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>510</v>
+      </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5500,11 +5710,17 @@
         <v>-77269.9429169655</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>510</v>
+      </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5533,11 +5749,17 @@
         <v>-77744.67611696551</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>507</v>
+      </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5566,11 +5788,17 @@
         <v>-77743.66731696551</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>506</v>
+      </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5599,11 +5827,17 @@
         <v>-77412.60341696552</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>507</v>
+      </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5632,11 +5866,17 @@
         <v>-77412.60341696552</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>509</v>
+      </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5665,11 +5905,17 @@
         <v>-77043.05841696552</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>509</v>
+      </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5698,11 +5944,17 @@
         <v>-78789.74551696551</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>510</v>
+      </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +5983,17 @@
         <v>-78788.74551696551</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>503</v>
+      </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +6022,17 @@
         <v>-79615.45801696551</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>509</v>
+      </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5797,11 +6061,17 @@
         <v>-79615.45801696551</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>503</v>
+      </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5835,10 +6105,12 @@
       <c r="I165" t="n">
         <v>503</v>
       </c>
-      <c r="J165" t="n">
-        <v>503</v>
-      </c>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5872,12 +6144,10 @@
       <c r="I166" t="n">
         <v>507</v>
       </c>
-      <c r="J166" t="n">
-        <v>503</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L166" t="n">
@@ -5913,9 +6183,7 @@
       <c r="I167" t="n">
         <v>502</v>
       </c>
-      <c r="J167" t="n">
-        <v>503</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5954,9 +6222,7 @@
       <c r="I168" t="n">
         <v>507</v>
       </c>
-      <c r="J168" t="n">
-        <v>503</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5995,9 +6261,7 @@
       <c r="I169" t="n">
         <v>508</v>
       </c>
-      <c r="J169" t="n">
-        <v>503</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6036,9 +6300,7 @@
       <c r="I170" t="n">
         <v>509</v>
       </c>
-      <c r="J170" t="n">
-        <v>503</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6077,9 +6339,7 @@
       <c r="I171" t="n">
         <v>505</v>
       </c>
-      <c r="J171" t="n">
-        <v>503</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6118,9 +6378,7 @@
       <c r="I172" t="n">
         <v>509</v>
       </c>
-      <c r="J172" t="n">
-        <v>503</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6159,9 +6417,7 @@
       <c r="I173" t="n">
         <v>505</v>
       </c>
-      <c r="J173" t="n">
-        <v>503</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6200,9 +6456,7 @@
       <c r="I174" t="n">
         <v>504</v>
       </c>
-      <c r="J174" t="n">
-        <v>503</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6241,9 +6495,7 @@
       <c r="I175" t="n">
         <v>507</v>
       </c>
-      <c r="J175" t="n">
-        <v>503</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6277,14 +6529,10 @@
         <v>-85636.4063169655</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>507</v>
-      </c>
-      <c r="J176" t="n">
-        <v>503</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6318,14 +6566,10 @@
         <v>-91283.6641169655</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>501</v>
-      </c>
-      <c r="J177" t="n">
-        <v>503</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6359,14 +6603,10 @@
         <v>-82813.22271696551</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>500</v>
-      </c>
-      <c r="J178" t="n">
-        <v>503</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6403,9 +6643,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>503</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6442,9 +6680,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>503</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6478,14 +6714,10 @@
         <v>-82813.22271696551</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>507</v>
-      </c>
-      <c r="J181" t="n">
-        <v>503</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6519,14 +6751,10 @@
         <v>-81610.9891169655</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>507</v>
-      </c>
-      <c r="J182" t="n">
-        <v>503</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6560,14 +6788,10 @@
         <v>-71963.2590169655</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>510</v>
-      </c>
-      <c r="J183" t="n">
-        <v>503</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6604,9 +6828,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>503</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6643,9 +6865,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>503</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6682,9 +6902,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>503</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6721,9 +6939,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>503</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6760,9 +6976,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>503</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6799,9 +7013,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>503</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6838,9 +7050,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>503</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6877,9 +7087,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>503</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6916,9 +7124,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>503</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6952,20 +7158,16 @@
         <v>-56409.1437169655</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>503</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
@@ -6991,17 +7193,11 @@
         <v>-56663.9684169655</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>503</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7030,17 +7226,11 @@
         <v>-58167.0974169655</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>503</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7069,17 +7259,11 @@
         <v>-58847.6762169655</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>503</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7111,14 +7295,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>503</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7150,14 +7328,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>503</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7189,14 +7361,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>503</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7225,17 +7391,11 @@
         <v>-55324.62741696551</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>503</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7267,20 +7427,12 @@
         <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>503</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
-        <v>1.072534791252485</v>
-      </c>
-      <c r="M201" t="n">
-        <v>1.125506072874494</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7305,7 +7457,7 @@
         <v>-57276.35791696551</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7338,7 +7490,7 @@
         <v>-57365.47591696551</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7404,7 +7556,7 @@
         <v>-59724.75531696551</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7437,7 +7589,7 @@
         <v>-59724.75531696551</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7470,7 +7622,7 @@
         <v>-59723.75531696551</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7503,7 +7655,7 @@
         <v>-59797.89681696551</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7536,7 +7688,7 @@
         <v>-59797.89681696551</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7569,7 +7721,7 @@
         <v>-59073.30921696551</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7602,7 +7754,7 @@
         <v>-59073.30921696551</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7635,7 +7787,7 @@
         <v>-61073.30921696551</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7668,7 +7820,7 @@
         <v>-61073.30921696551</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7701,7 +7853,7 @@
         <v>-68095.78491696551</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7734,7 +7886,7 @@
         <v>-68095.78491696551</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7767,7 +7919,7 @@
         <v>-66761.94661696551</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7800,7 +7952,7 @@
         <v>-66761.94661696551</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7833,7 +7985,7 @@
         <v>-66761.94661696551</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7866,7 +8018,7 @@
         <v>-66410.3632169655</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7899,7 +8051,7 @@
         <v>-66040.27541696551</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7932,7 +8084,7 @@
         <v>-66223.8053169655</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7965,7 +8117,7 @@
         <v>-66705.0403169655</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>

--- a/BackTest/2019-10-27 BackTest VALOR.xlsx
+++ b/BackTest/2019-10-27 BackTest VALOR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M222"/>
+  <dimension ref="A1:L222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>64</v>
       </c>
       <c r="G2" t="n">
-        <v>-27035.4251</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>2136.2732</v>
       </c>
       <c r="G3" t="n">
-        <v>-29171.6983</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>90.0069</v>
       </c>
       <c r="G4" t="n">
-        <v>-29081.6914</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>394.9366</v>
       </c>
       <c r="G5" t="n">
-        <v>-28686.7548</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>345.2716</v>
       </c>
       <c r="G6" t="n">
-        <v>-29032.0264</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>1699.9713</v>
       </c>
       <c r="G7" t="n">
-        <v>-30731.9977</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>189.6068</v>
       </c>
       <c r="G8" t="n">
-        <v>-30921.6045</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>19.1144</v>
       </c>
       <c r="G9" t="n">
-        <v>-30921.6045</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>19.1044</v>
       </c>
       <c r="G10" t="n">
-        <v>-30940.7089</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>14.3583</v>
       </c>
       <c r="G11" t="n">
-        <v>-30926.3506</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>24.4104</v>
       </c>
       <c r="G12" t="n">
-        <v>-30950.761</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>6333.7123</v>
       </c>
       <c r="G13" t="n">
-        <v>-24617.0487</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>17.98561151079137</v>
       </c>
       <c r="G14" t="n">
-        <v>-24599.06308848921</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>742.1591</v>
       </c>
       <c r="G15" t="n">
-        <v>-25341.22218848921</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>7207.5689</v>
       </c>
       <c r="G16" t="n">
-        <v>-25341.22218848921</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>675.4807</v>
       </c>
       <c r="G17" t="n">
-        <v>-26016.70288848921</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>-26015.70288848921</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>457.0717</v>
       </c>
       <c r="G19" t="n">
-        <v>-26472.77458848921</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>1983.7866</v>
       </c>
       <c r="G20" t="n">
-        <v>-24488.98798848921</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>1183.8181</v>
       </c>
       <c r="G21" t="n">
-        <v>-25672.80608848921</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>1978.8272</v>
       </c>
       <c r="G22" t="n">
-        <v>-27651.63328848921</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>1486.8161</v>
       </c>
       <c r="G23" t="n">
-        <v>-27651.63328848921</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>462.9043</v>
       </c>
       <c r="G24" t="n">
-        <v>-28114.53758848921</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>2181.2141</v>
       </c>
       <c r="G25" t="n">
-        <v>-28114.53758848921</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>14224.2612</v>
       </c>
       <c r="G26" t="n">
-        <v>-42338.79878848921</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>21.2256</v>
       </c>
       <c r="G27" t="n">
-        <v>-42317.57318848921</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>2619.4681</v>
       </c>
       <c r="G28" t="n">
-        <v>-44937.04128848921</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>3858.8524</v>
       </c>
       <c r="G29" t="n">
-        <v>-44937.04128848921</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>-44938.04128848921</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>9.975</v>
       </c>
       <c r="G31" t="n">
-        <v>-44938.04128848921</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>3560.8344</v>
       </c>
       <c r="G32" t="n">
-        <v>-48498.87568848921</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>882.1882000000001</v>
       </c>
       <c r="G33" t="n">
-        <v>-48498.87568848921</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>263.3376</v>
       </c>
       <c r="G34" t="n">
-        <v>-48498.87568848921</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>701.0453</v>
       </c>
       <c r="G35" t="n">
-        <v>-48498.87568848921</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>469.1188</v>
       </c>
       <c r="G36" t="n">
-        <v>-48498.87568848921</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>5</v>
       </c>
       <c r="G37" t="n">
-        <v>-48498.87568848921</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>3</v>
       </c>
       <c r="G38" t="n">
-        <v>-48495.87568848921</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>921.9818</v>
       </c>
       <c r="G39" t="n">
-        <v>-49417.85748848921</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>2.8285</v>
       </c>
       <c r="G40" t="n">
-        <v>-49415.0289884892</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>2.0837</v>
       </c>
       <c r="G41" t="n">
-        <v>-49415.0289884892</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>1575.3509</v>
       </c>
       <c r="G42" t="n">
-        <v>-50990.3798884892</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>10</v>
       </c>
       <c r="G43" t="n">
-        <v>-51000.3798884892</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>937.2</v>
       </c>
       <c r="G44" t="n">
-        <v>-51937.5798884892</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>1.9876</v>
       </c>
       <c r="G45" t="n">
-        <v>-51935.5922884892</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>166.9191</v>
       </c>
       <c r="G46" t="n">
-        <v>-52102.5113884892</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>995.4235</v>
       </c>
       <c r="G47" t="n">
-        <v>-52102.5113884892</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>120.0579</v>
       </c>
       <c r="G48" t="n">
-        <v>-52222.5692884892</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>36.1137</v>
       </c>
       <c r="G49" t="n">
-        <v>-52186.4555884892</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>1.741</v>
       </c>
       <c r="G50" t="n">
-        <v>-52184.71458848919</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>1.5669</v>
       </c>
       <c r="G51" t="n">
-        <v>-52184.71458848919</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>-52184.71458848919</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>2</v>
       </c>
       <c r="G53" t="n">
-        <v>-52186.71458848919</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>995.7152</v>
       </c>
       <c r="G54" t="n">
-        <v>-52186.71458848919</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>3387.2463</v>
       </c>
       <c r="G55" t="n">
-        <v>-52186.71458848919</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>1.9765</v>
       </c>
       <c r="G56" t="n">
-        <v>-52184.7380884892</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>50</v>
       </c>
       <c r="G57" t="n">
-        <v>-52184.7380884892</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>3.8788</v>
       </c>
       <c r="G58" t="n">
-        <v>-52184.7380884892</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>1641.9261</v>
       </c>
       <c r="G59" t="n">
-        <v>-53826.66418848919</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>1562.49</v>
       </c>
       <c r="G60" t="n">
-        <v>-55389.15418848919</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>2403.6272</v>
       </c>
       <c r="G61" t="n">
-        <v>-57792.78138848919</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>14.9625</v>
       </c>
       <c r="G62" t="n">
-        <v>-57792.78138848919</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>1171.3651</v>
       </c>
       <c r="G63" t="n">
-        <v>-57792.78138848919</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>181.2113</v>
       </c>
       <c r="G64" t="n">
-        <v>-57792.78138848919</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>1029.1667</v>
       </c>
       <c r="G65" t="n">
-        <v>-57792.78138848919</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>712.1743</v>
       </c>
       <c r="G66" t="n">
-        <v>-58504.95568848919</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>1.4721</v>
       </c>
       <c r="G67" t="n">
-        <v>-58503.48358848919</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>3168.5279</v>
       </c>
       <c r="G68" t="n">
-        <v>-58503.48358848919</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>140.2809</v>
       </c>
       <c r="G69" t="n">
-        <v>-58363.2026884892</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>1.3015</v>
       </c>
       <c r="G70" t="n">
-        <v>-58361.9011884892</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>531.8034</v>
       </c>
       <c r="G71" t="n">
-        <v>-57830.0977884892</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>2.9315</v>
       </c>
       <c r="G72" t="n">
-        <v>-57827.1662884892</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>142.1985</v>
       </c>
       <c r="G73" t="n">
-        <v>-57969.3647884892</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>220.1315</v>
       </c>
       <c r="G74" t="n">
-        <v>-57969.3647884892</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>301.3715</v>
       </c>
       <c r="G75" t="n">
-        <v>-58270.7362884892</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>4681.4019</v>
       </c>
       <c r="G76" t="n">
-        <v>-53589.3343884892</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>2.1213</v>
       </c>
       <c r="G77" t="n">
-        <v>-53589.3343884892</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>321.9065</v>
       </c>
       <c r="G78" t="n">
-        <v>-53911.2408884892</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>1005.698868773946</v>
       </c>
       <c r="G79" t="n">
-        <v>-52905.54201971526</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>313.5556</v>
       </c>
       <c r="G80" t="n">
-        <v>-53219.09761971526</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>397.6143</v>
       </c>
       <c r="G81" t="n">
-        <v>-53616.71191971526</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>602.3857</v>
       </c>
       <c r="G82" t="n">
-        <v>-53616.71191971526</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>1.1489</v>
       </c>
       <c r="G83" t="n">
-        <v>-53615.56301971526</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>175.3855</v>
       </c>
       <c r="G84" t="n">
-        <v>-53790.94851971525</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>19.4459</v>
       </c>
       <c r="G85" t="n">
-        <v>-53810.39441971525</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>56.0694</v>
       </c>
       <c r="G86" t="n">
-        <v>-53810.39441971525</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>110.971</v>
       </c>
       <c r="G87" t="n">
-        <v>-53699.42341971525</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>1353.0187</v>
       </c>
       <c r="G88" t="n">
-        <v>-53699.42341971525</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>238.8468</v>
       </c>
       <c r="G89" t="n">
-        <v>-53699.42341971525</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>2.3262</v>
       </c>
       <c r="G90" t="n">
-        <v>-53697.09721971525</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>61.1532</v>
       </c>
       <c r="G91" t="n">
-        <v>-53758.25041971525</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>1664.0758</v>
       </c>
       <c r="G92" t="n">
-        <v>-55422.32621971525</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>741.9627</v>
       </c>
       <c r="G93" t="n">
-        <v>-55422.32621971525</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>3710.3173</v>
       </c>
       <c r="G94" t="n">
-        <v>-59132.64351971525</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>301.3675</v>
       </c>
       <c r="G95" t="n">
-        <v>-59434.01101971525</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>519.9666</v>
       </c>
       <c r="G96" t="n">
-        <v>-59953.97761971525</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>7423.8066</v>
       </c>
       <c r="G97" t="n">
-        <v>-67377.78421971525</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>33.2331</v>
       </c>
       <c r="G98" t="n">
-        <v>-67377.78421971525</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>3472.5643</v>
       </c>
       <c r="G99" t="n">
-        <v>-70850.34851971525</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>103.4322</v>
       </c>
       <c r="G100" t="n">
-        <v>-70746.91631971525</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>3075.0746</v>
       </c>
       <c r="G101" t="n">
-        <v>-70746.91631971525</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>65.50490000000001</v>
       </c>
       <c r="G102" t="n">
-        <v>-70746.91631971525</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>415.3717</v>
       </c>
       <c r="G103" t="n">
-        <v>-70331.54461971525</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>1.8143</v>
       </c>
       <c r="G104" t="n">
-        <v>-70329.73031971525</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>1305.7472</v>
       </c>
       <c r="G105" t="n">
-        <v>-71635.47751971525</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>2711.5455</v>
       </c>
       <c r="G106" t="n">
-        <v>-68923.93201971526</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,24 +3593,15 @@
         <v>4694.4813</v>
       </c>
       <c r="G107" t="n">
-        <v>-68923.93201971526</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>497</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3952,22 +3623,15 @@
         <v>1442.3912</v>
       </c>
       <c r="G108" t="n">
-        <v>-68923.93201971526</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3989,24 +3653,15 @@
         <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>-68922.93201971526</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>497</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4028,24 +3683,19 @@
         <v>146.084</v>
       </c>
       <c r="G110" t="n">
-        <v>-69069.01601971526</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>499</v>
       </c>
       <c r="I110" t="n">
         <v>499</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4067,24 +3717,23 @@
         <v>98.2816</v>
       </c>
       <c r="G111" t="n">
-        <v>-68970.73441971526</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>498</v>
       </c>
       <c r="I111" t="n">
-        <v>498</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>499</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4106,24 +3755,23 @@
         <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>-68969.73441971526</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>504</v>
       </c>
       <c r="I112" t="n">
-        <v>504</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>499</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4145,24 +3793,23 @@
         <v>2.1972</v>
       </c>
       <c r="G113" t="n">
-        <v>-68971.93161971525</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>506</v>
       </c>
       <c r="I113" t="n">
-        <v>506</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>499</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4184,22 +3831,21 @@
         <v>27</v>
       </c>
       <c r="G114" t="n">
-        <v>-68944.93161971525</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>499</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4221,22 +3867,21 @@
         <v>146.0011</v>
       </c>
       <c r="G115" t="n">
-        <v>-68798.93051971526</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>499</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4258,22 +3903,21 @@
         <v>91.1726</v>
       </c>
       <c r="G116" t="n">
-        <v>-68890.10311971526</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>499</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4295,22 +3939,21 @@
         <v>51.0047</v>
       </c>
       <c r="G117" t="n">
-        <v>-68839.09841971526</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>499</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4332,22 +3975,21 @@
         <v>40.596</v>
       </c>
       <c r="G118" t="n">
-        <v>-68879.69441971526</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>499</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4369,22 +4011,21 @@
         <v>4233.5346</v>
       </c>
       <c r="G119" t="n">
-        <v>-73113.22901971526</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>499</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4406,22 +4047,21 @@
         <v>633.6624</v>
       </c>
       <c r="G120" t="n">
-        <v>-72479.56661971526</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>499</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4443,22 +4083,21 @@
         <v>1.2933</v>
       </c>
       <c r="G121" t="n">
-        <v>-72478.27331971526</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>499</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4480,22 +4119,21 @@
         <v>1208.7657</v>
       </c>
       <c r="G122" t="n">
-        <v>-72478.27331971526</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>499</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4517,22 +4155,21 @@
         <v>2</v>
       </c>
       <c r="G123" t="n">
-        <v>-72478.27331971526</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>499</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4554,22 +4191,21 @@
         <v>82</v>
       </c>
       <c r="G124" t="n">
-        <v>-72560.27331971526</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>499</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4591,22 +4227,21 @@
         <v>5536.3259</v>
       </c>
       <c r="G125" t="n">
-        <v>-67023.94741971526</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>499</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4628,22 +4263,21 @@
         <v>1722.2808</v>
       </c>
       <c r="G126" t="n">
-        <v>-68746.22821971525</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>499</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4665,22 +4299,21 @@
         <v>218.1143</v>
       </c>
       <c r="G127" t="n">
-        <v>-68528.11391971525</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>499</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4702,22 +4335,21 @@
         <v>148.7353</v>
       </c>
       <c r="G128" t="n">
-        <v>-68379.37861971525</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>499</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4739,22 +4371,21 @@
         <v>2445.456365877712</v>
       </c>
       <c r="G129" t="n">
-        <v>-70824.83498559297</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>499</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4776,22 +4407,21 @@
         <v>481.7978</v>
       </c>
       <c r="G130" t="n">
-        <v>-71306.63278559297</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>499</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4813,22 +4443,21 @@
         <v>5960.6041</v>
       </c>
       <c r="G131" t="n">
-        <v>-77267.23688559297</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>499</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4850,22 +4479,21 @@
         <v>3.92156862745098</v>
       </c>
       <c r="G132" t="n">
-        <v>-77263.31531696551</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>499</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4887,22 +4515,21 @@
         <v>1</v>
       </c>
       <c r="G133" t="n">
-        <v>-77264.31531696551</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>499</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4924,22 +4551,21 @@
         <v>4017.7926</v>
       </c>
       <c r="G134" t="n">
-        <v>-81282.10791696551</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>499</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4961,22 +4587,21 @@
         <v>742.1592000000001</v>
       </c>
       <c r="G135" t="n">
-        <v>-81282.10791696551</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>499</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4998,22 +4623,21 @@
         <v>7</v>
       </c>
       <c r="G136" t="n">
-        <v>-81275.10791696551</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>499</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5035,22 +4659,21 @@
         <v>50</v>
       </c>
       <c r="G137" t="n">
-        <v>-81275.10791696551</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>499</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5072,22 +4695,21 @@
         <v>100</v>
       </c>
       <c r="G138" t="n">
-        <v>-81275.10791696551</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>499</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5109,22 +4731,21 @@
         <v>218.1144</v>
       </c>
       <c r="G139" t="n">
-        <v>-81493.22231696552</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>499</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5146,22 +4767,21 @@
         <v>3928.146</v>
       </c>
       <c r="G140" t="n">
-        <v>-77565.07631696553</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>499</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5183,22 +4803,21 @@
         <v>1052.7</v>
       </c>
       <c r="G141" t="n">
-        <v>-77565.07631696553</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>499</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5220,22 +4839,21 @@
         <v>2258.3007</v>
       </c>
       <c r="G142" t="n">
-        <v>-75306.77561696552</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>499</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5257,22 +4875,21 @@
         <v>2.3235</v>
       </c>
       <c r="G143" t="n">
-        <v>-75304.45211696552</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>499</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5294,22 +4911,21 @@
         <v>485.4541</v>
       </c>
       <c r="G144" t="n">
-        <v>-75304.45211696552</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>499</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5331,22 +4947,21 @@
         <v>801.408</v>
       </c>
       <c r="G145" t="n">
-        <v>-76105.86011696552</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>499</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5368,22 +4983,21 @@
         <v>1243.3523</v>
       </c>
       <c r="G146" t="n">
-        <v>-76105.86011696552</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>499</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5405,22 +5019,21 @@
         <v>725.9853000000001</v>
       </c>
       <c r="G147" t="n">
-        <v>-76831.84541696552</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>499</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5442,22 +5055,21 @@
         <v>50</v>
       </c>
       <c r="G148" t="n">
-        <v>-76781.84541696552</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>499</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5479,22 +5091,21 @@
         <v>50</v>
       </c>
       <c r="G149" t="n">
-        <v>-76831.84541696552</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>499</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5516,22 +5127,21 @@
         <v>813.9852</v>
       </c>
       <c r="G150" t="n">
-        <v>-76831.84541696552</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>499</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5553,22 +5163,21 @@
         <v>2069.5922</v>
       </c>
       <c r="G151" t="n">
-        <v>-76831.84541696552</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>499</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5590,24 +5199,21 @@
         <v>810.8011</v>
       </c>
       <c r="G152" t="n">
-        <v>-77642.64651696551</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="n">
-        <v>510</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>499</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5629,24 +5235,21 @@
         <v>736.9841</v>
       </c>
       <c r="G153" t="n">
-        <v>-76905.66241696551</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="n">
-        <v>509</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>499</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5668,24 +5271,21 @@
         <v>287.2882</v>
       </c>
       <c r="G154" t="n">
-        <v>-76905.66241696551</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="n">
-        <v>510</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>499</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5707,24 +5307,21 @@
         <v>364.2805</v>
       </c>
       <c r="G155" t="n">
-        <v>-77269.9429169655</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="n">
-        <v>510</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>499</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5746,24 +5343,21 @@
         <v>474.7332</v>
       </c>
       <c r="G156" t="n">
-        <v>-77744.67611696551</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="n">
-        <v>507</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>499</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5785,24 +5379,21 @@
         <v>1.0088</v>
       </c>
       <c r="G157" t="n">
-        <v>-77743.66731696551</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="n">
-        <v>506</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>499</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5824,24 +5415,21 @@
         <v>331.0639</v>
       </c>
       <c r="G158" t="n">
-        <v>-77412.60341696552</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="n">
-        <v>507</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>499</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5863,24 +5451,21 @@
         <v>62.7796</v>
       </c>
       <c r="G159" t="n">
-        <v>-77412.60341696552</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="n">
-        <v>509</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>499</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5902,24 +5487,21 @@
         <v>369.545</v>
       </c>
       <c r="G160" t="n">
-        <v>-77043.05841696552</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="n">
-        <v>509</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>499</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5941,24 +5523,21 @@
         <v>1746.6871</v>
       </c>
       <c r="G161" t="n">
-        <v>-78789.74551696551</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="n">
-        <v>510</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>499</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5980,24 +5559,21 @@
         <v>1</v>
       </c>
       <c r="G162" t="n">
-        <v>-78788.74551696551</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="n">
-        <v>503</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>499</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6019,24 +5595,21 @@
         <v>826.7125</v>
       </c>
       <c r="G163" t="n">
-        <v>-79615.45801696551</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="n">
-        <v>509</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>499</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6058,24 +5631,21 @@
         <v>11.4387</v>
       </c>
       <c r="G164" t="n">
-        <v>-79615.45801696551</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="n">
-        <v>503</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>499</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6097,24 +5667,21 @@
         <v>1.0019</v>
       </c>
       <c r="G165" t="n">
-        <v>-79614.45611696551</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="n">
-        <v>503</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>499</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6136,24 +5703,21 @@
         <v>1857.04</v>
       </c>
       <c r="G166" t="n">
-        <v>-81471.4961169655</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="n">
-        <v>507</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>499</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6175,24 +5739,21 @@
         <v>1.3307</v>
       </c>
       <c r="G167" t="n">
-        <v>-81470.16541696549</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="n">
-        <v>502</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>499</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6214,24 +5775,21 @@
         <v>1295.5998</v>
       </c>
       <c r="G168" t="n">
-        <v>-80174.5656169655</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="n">
-        <v>507</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>499</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6253,24 +5811,21 @@
         <v>990.9521999999999</v>
       </c>
       <c r="G169" t="n">
-        <v>-79183.6134169655</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="n">
-        <v>508</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>499</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6292,24 +5847,21 @@
         <v>14.6133</v>
       </c>
       <c r="G170" t="n">
-        <v>-79198.2267169655</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="n">
-        <v>509</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>499</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6331,24 +5883,21 @@
         <v>14.6133</v>
       </c>
       <c r="G171" t="n">
-        <v>-79183.6134169655</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="n">
-        <v>505</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>499</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6370,24 +5919,21 @@
         <v>64.76609999999999</v>
       </c>
       <c r="G172" t="n">
-        <v>-79248.37951696549</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="n">
-        <v>509</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>499</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6409,24 +5955,21 @@
         <v>5809.7914</v>
       </c>
       <c r="G173" t="n">
-        <v>-85058.17091696549</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="n">
-        <v>505</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>499</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6448,24 +5991,21 @@
         <v>352.5557</v>
       </c>
       <c r="G174" t="n">
-        <v>-84705.6152169655</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="n">
-        <v>504</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>499</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6487,24 +6027,21 @@
         <v>5191.0867</v>
       </c>
       <c r="G175" t="n">
-        <v>-84705.6152169655</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="n">
-        <v>507</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>499</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6526,22 +6063,21 @@
         <v>930.7911</v>
       </c>
       <c r="G176" t="n">
-        <v>-85636.4063169655</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>499</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6563,22 +6099,21 @@
         <v>5647.2578</v>
       </c>
       <c r="G177" t="n">
-        <v>-91283.6641169655</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>499</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6600,22 +6135,21 @@
         <v>8470.4414</v>
       </c>
       <c r="G178" t="n">
-        <v>-82813.22271696551</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>499</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6637,22 +6171,21 @@
         <v>67.3653</v>
       </c>
       <c r="G179" t="n">
-        <v>-82813.22271696551</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>499</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6674,22 +6207,21 @@
         <v>479.6104</v>
       </c>
       <c r="G180" t="n">
-        <v>-82813.22271696551</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>499</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6711,22 +6243,21 @@
         <v>137.2752</v>
       </c>
       <c r="G181" t="n">
-        <v>-82813.22271696551</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>499</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6748,22 +6279,21 @@
         <v>1202.2336</v>
       </c>
       <c r="G182" t="n">
-        <v>-81610.9891169655</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>499</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6785,22 +6315,21 @@
         <v>9647.730100000001</v>
       </c>
       <c r="G183" t="n">
-        <v>-71963.2590169655</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>499</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6822,22 +6351,21 @@
         <v>2281.775</v>
       </c>
       <c r="G184" t="n">
-        <v>-69681.48401696551</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>499</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6859,22 +6387,21 @@
         <v>1081.6187</v>
       </c>
       <c r="G185" t="n">
-        <v>-68599.8653169655</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>499</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6896,22 +6423,21 @@
         <v>5421.5872</v>
       </c>
       <c r="G186" t="n">
-        <v>-68599.8653169655</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>499</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6933,22 +6459,21 @@
         <v>7918.3561</v>
       </c>
       <c r="G187" t="n">
-        <v>-60681.5092169655</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>499</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6970,22 +6495,21 @@
         <v>138.3876</v>
       </c>
       <c r="G188" t="n">
-        <v>-60543.1216169655</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>499</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7007,22 +6531,21 @@
         <v>2491.3421</v>
       </c>
       <c r="G189" t="n">
-        <v>-58051.7795169655</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>499</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7044,22 +6567,21 @@
         <v>135.9908</v>
       </c>
       <c r="G190" t="n">
-        <v>-57915.7887169655</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>499</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7081,22 +6603,21 @@
         <v>157.5878</v>
       </c>
       <c r="G191" t="n">
-        <v>-57758.2009169655</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>499</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7118,22 +6639,21 @@
         <v>1433.1764</v>
       </c>
       <c r="G192" t="n">
-        <v>-56325.0245169655</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>499</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7155,20 +6675,21 @@
         <v>84.11920000000001</v>
       </c>
       <c r="G193" t="n">
-        <v>-56409.1437169655</v>
-      </c>
-      <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>499</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
       </c>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7190,18 +6711,23 @@
         <v>254.8247</v>
       </c>
       <c r="G194" t="n">
-        <v>-56663.9684169655</v>
-      </c>
-      <c r="H194" t="n">
         <v>2</v>
       </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>499</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1.081172344689379</v>
+      </c>
       <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>1.125506072874494</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7223,18 +6749,15 @@
         <v>1503.129</v>
       </c>
       <c r="G195" t="n">
-        <v>-58167.0974169655</v>
-      </c>
-      <c r="H195" t="n">
         <v>2</v>
       </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7256,18 +6779,15 @@
         <v>680.5788</v>
       </c>
       <c r="G196" t="n">
-        <v>-58847.6762169655</v>
-      </c>
-      <c r="H196" t="n">
         <v>2</v>
       </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7289,18 +6809,15 @@
         <v>2661.9591</v>
       </c>
       <c r="G197" t="n">
-        <v>-58847.6762169655</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7322,18 +6839,15 @@
         <v>3337.0589</v>
       </c>
       <c r="G198" t="n">
-        <v>-55510.61731696551</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7355,18 +6869,15 @@
         <v>2</v>
       </c>
       <c r="G199" t="n">
-        <v>-55508.61731696551</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7388,18 +6899,15 @@
         <v>183.9899</v>
       </c>
       <c r="G200" t="n">
-        <v>-55324.62741696551</v>
-      </c>
-      <c r="H200" t="n">
         <v>2</v>
       </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7421,18 +6929,15 @@
         <v>1951.7305</v>
       </c>
       <c r="G201" t="n">
-        <v>-57276.35791696551</v>
-      </c>
-      <c r="H201" t="n">
         <v>2</v>
       </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7454,18 +6959,15 @@
         <v>363.7749</v>
       </c>
       <c r="G202" t="n">
-        <v>-57276.35791696551</v>
-      </c>
-      <c r="H202" t="n">
         <v>2</v>
       </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7487,18 +6989,15 @@
         <v>89.11799999999999</v>
       </c>
       <c r="G203" t="n">
-        <v>-57365.47591696551</v>
-      </c>
-      <c r="H203" t="n">
         <v>2</v>
       </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7520,18 +7019,15 @@
         <v>183.7044</v>
       </c>
       <c r="G204" t="n">
-        <v>-57549.18031696551</v>
-      </c>
-      <c r="H204" t="n">
         <v>2</v>
       </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7553,18 +7049,15 @@
         <v>2175.575</v>
       </c>
       <c r="G205" t="n">
-        <v>-59724.75531696551</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7586,18 +7079,15 @@
         <v>3999.246</v>
       </c>
       <c r="G206" t="n">
-        <v>-59724.75531696551</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7619,18 +7109,15 @@
         <v>1</v>
       </c>
       <c r="G207" t="n">
-        <v>-59723.75531696551</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7652,18 +7139,15 @@
         <v>74.14149999999999</v>
       </c>
       <c r="G208" t="n">
-        <v>-59797.89681696551</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7685,18 +7169,15 @@
         <v>1</v>
       </c>
       <c r="G209" t="n">
-        <v>-59797.89681696551</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7718,18 +7199,15 @@
         <v>724.5876</v>
       </c>
       <c r="G210" t="n">
-        <v>-59073.30921696551</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7751,18 +7229,15 @@
         <v>41.3976</v>
       </c>
       <c r="G211" t="n">
-        <v>-59073.30921696551</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7784,18 +7259,15 @@
         <v>2000</v>
       </c>
       <c r="G212" t="n">
-        <v>-61073.30921696551</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7817,18 +7289,15 @@
         <v>3.2276</v>
       </c>
       <c r="G213" t="n">
-        <v>-61073.30921696551</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7850,18 +7319,15 @@
         <v>7022.4757</v>
       </c>
       <c r="G214" t="n">
-        <v>-68095.78491696551</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7883,18 +7349,15 @@
         <v>668.0086</v>
       </c>
       <c r="G215" t="n">
-        <v>-68095.78491696551</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7916,18 +7379,15 @@
         <v>1333.8383</v>
       </c>
       <c r="G216" t="n">
-        <v>-66761.94661696551</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7949,18 +7409,15 @@
         <v>416.075</v>
       </c>
       <c r="G217" t="n">
-        <v>-66761.94661696551</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7982,18 +7439,15 @@
         <v>368.7</v>
       </c>
       <c r="G218" t="n">
-        <v>-66761.94661696551</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8015,18 +7469,15 @@
         <v>351.5834</v>
       </c>
       <c r="G219" t="n">
-        <v>-66410.3632169655</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8048,18 +7499,15 @@
         <v>370.0878</v>
       </c>
       <c r="G220" t="n">
-        <v>-66040.27541696551</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8081,18 +7529,15 @@
         <v>183.5299</v>
       </c>
       <c r="G221" t="n">
-        <v>-66223.8053169655</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8114,18 +7559,15 @@
         <v>481.235</v>
       </c>
       <c r="G222" t="n">
-        <v>-66705.0403169655</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
